--- a/result/general-aviation-exhibitor(full).xlsx
+++ b/result/general-aviation-exhibitor(full).xlsx
@@ -195,12 +195,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t/>
+          <t>ATOSWING / Silent Trike</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t/>
+          <t>Sesselbahnstr. 8 87642 Buching Germany www.a-i-r-Atos.de</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -222,12 +222,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t/>
+          <t>Airplane and helicopter tugs designed and built in the USA.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t/>
+          <t>13832 Magnolia Avenue CA 91710 Chino United States Phone : +1 855 884 7222 info@acairtechnology.com www.acairtechnology.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -249,12 +249,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t/>
+          <t>ACC COLUMBIA Jet Service GmbH ist ein Wartungsbetrieb an den Flughäfen Hannover (Hauptsitz) und Köln/Bonn. Stationen in Wegberg, Mitterskirchen und Schwelm ergänzen das Angebot um Reparatur und Überholung von Luftfahrzeugkomponenten, Metallbearbeitung sowie Herstellungs- und Entwicklungsbetriebe.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t/>
+          <t>Hangar 16, Benkendorffstraße 38 30855 Langenhagen Germany Phone : +49 511 300 349 0 info@acc-columbiajet.com https://www.acc-columbiajet.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -276,12 +276,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t/>
+          <t>Seit 20 Jahren bieten wir mit unserer Marke AIRBATT hochwertige Akkus, Batterien und Ladetechnik für die Luftfahrt.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t/>
+          <t>Untergasse 5 63688 Gedern Germany Phone : +49 6045 952520 Fax : +49 6045 952966 info@accu-24.de https://www.airbatt.de</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -303,12 +303,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t/>
+          <t>Proven Protection • ACF-50 Anti Corrosion Formula Designed specifically to both prevent and deactivate corrosion, ACF-50’s unique chemistry offers an unmatched 24 months of “active” corrosion protection. Tested, verified and trusted by Government and Fleet Operators around the world.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t/>
+          <t>6182 A Kestrel Road L5T IZ2 Mississuaga, ON Canada Phone : +1 905 564 0018 Fax : +1 905 564 7077 www.acf-50.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -330,12 +330,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation ELT's and safety equipment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t/>
+          <t>5757 Ravenswood Road 33312 Fort Lauderdale United States www.acrartex.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -362,7 +362,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t/>
+          <t>Hansastraße 19 80686 München Germany www.luftrettung.adac.de</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -384,12 +384,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft parts</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t/>
+          <t>2, Kelvin Lane RH10 9TY Crawley United Kingdom www.adamsaviation.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -411,12 +411,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft spare parts</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t/>
+          <t>2, Kelvin Lane RH10 9TY Crawley United Kingdom www.adamsaviation.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -438,12 +438,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft Spare Parts</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t/>
+          <t>2, Kelvin Lane RH10 9TY Crawley United Kingdom www.adamsaviation.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -465,12 +465,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft parts</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t/>
+          <t>2, Kelvin Lane RH10 9TY Crawley United Kingdom www.adamsaviation.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -492,12 +492,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t/>
+          <t>aircraft parts</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t/>
+          <t>2, Kelvin Lane RH10 9TY Crawley United Kingdom www.adamsaviation.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t/>
+          <t>E-ROP: Electric powertrain for aviation SafeBatt2Fly: High security battery system for aviation AMPHEA: Additiv manufactured heat exchanger VOCUS GmbH: Additiv manufactured parts for aviation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t/>
+          <t>Augsburg Innovationspark 86159 Augsburg Germany Phone : +49 821 65 05 90-20 Fax : +49 821 65 05 90-29 stefan.gorkenant@Vocus3.de https://www.advantecgmbh.de</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t/>
+          <t>ADZ NAGANO develops and produces transmitters, sensors and electronic switches for measuring pressure, temperature, force and combined. We work out the optimal solution for every specific need. ...We develop your ideal 100% customized solution!</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t/>
+          <t>Bergener Ring 43 01458 Ottendorf-Okrilla Germany Phone : +49 35205-596930 Fax : +49 35205596959 info@adz.de www.adz.de</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t/>
+          <t>The oldest seaplane school in the world</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t/>
+          <t>Viale Masia 44 22100 Como Italy www.aeroclubcomo.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t/>
+          <t>The Aero Club Como is unique in its kind in Europe, it puts together air and water in the spectacular landscape offered by Lake Como. Join us, you will experience memorable flying with friendly pilot colleagues in a place you will never forget as you are welcome at the Aero Club Como!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Masia 44 22100 Como Italy Phone : +39 031 574495 Fax : +39 info@aeroclubcomo.com www.aeroclubcomo.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t/>
+          <t>We are experts in aerodynamics, thermal, and fluid dynamics. We offer wind tunnel testing for General Aviation and CFD consultancy. We will unveil, during the show, our affordable, easy to use, and robust new CFD software dedicated to aerodynamic optimization for General Aviation: ACE of Aircraft.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t/>
+          <t>Technopole du Circuit 58470 Magny Cours France Phone : +33 03 86 58 01 65 ala@aero-ce.com www.aero-ce.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -654,12 +654,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t/>
+          <t>CA510,CA550T,CA520TI,ZP1900</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t/>
+          <t>Zongshen Industry Zone 4000055 Chongqing China Phone : +86 023-66376087 Fax : +86 18702389580 aero@zsengine.com http://en.zsaeroengine.com/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t/>
+          <t>Part-145 (Maintenance and Avionic) Part-CAMO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t/>
+          <t>Boulevard des Eplatures 56b 2300 La Chaux-de-Fonds Switzerland Phone : +41 325254500 info@aerogroup.ch www.aerogroup.ch</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t/>
+          <t>Wir sind Æro Mate – der digitale Gefährte der Allgemeinen Luftfahrt. Unser Angebot richtet sich sowohl an Piloten, als auch an Flugzeugbesitzer und Flugschulen. Wir schaffen intelligente Lösungen, die die Welt rund um das Fliegen mit den neusten digitalen Technologien verbindet.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstr. 95 41066 Mönchengladbach Germany Phone : +49 2161 98500 80 service@aeromate.eu www.aeromate.eu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t/>
+          <t>Seit über 50 Jahren bildet die Flugschule Aero Beta kontinuierlich am Flughafen Stuttgart aus. Vom PPL(A) bis zum ATPL(A) inkl. UPRT können Sie alle Berechtigungen und Lizenzen bei uns erwerben!</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t/>
+          <t>Im Köller 7 70794 Filderstadt Germany Phone : +49 7158 9864537 info@aero-beta.de www.aero-beta.de</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Kanlovska 2A Germany</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft building material: certified plywood and wood based materials, glueing systems. Kit builders service: support, workshops, tools and training. Aircraft accident services: investigation and survey, recovery and transport. Engineering and consulting: R&amp;D of wood based structural parts, design.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t/>
+          <t>Wiesenbergweg 1 88459 Tannheim Germany Phone : +49 8395 936 94 34 Fax : +49 8395 936 94 35 kontakt@plandienst.de http://www.aeroplandienst.de</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t/>
+          <t>Company specialized in the manufacture of aircraft covers, (aeroplanes, gyrocopters, microlights, helicopters, and gliders covers). AEROBACHE protects aircraft against dust, rain, snow, sand, wind, UV, stray animals and against the reverberation of the moon.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t/>
+          <t>Lotissement Martinetti, 20000 Ajaccio France https://aerobache.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t/>
+          <t>www.aerobuzz.de is a Pan-European-Aviation-News-Portal with free of charge and Premium log-in. Fast growing readerships throughout Europe. Daily based high-level quality and frequency editorials by top-experienced aviation editors and addicts, pilots and professionals from Aviation indus</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t/>
+          <t>Brücherweg 7 53572 Unkel Germany Phone : +49 22 24 96 93 53 v.thomalla@aerobuzz.de www.aerobuzz.de</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t/>
+          <t>www.aerobuzz.fr is a Pan-European-Aviation-News-Portal with free of charge and Premium log-in subscription. Fast growing reader-/userships throughout Europe. High-level quality daily based editorial by top-experienced aviation editors and addicts, pilots and professionals from aviation industry</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t/>
+          <t>49, Chemin du Terrier 69360 Ternay France g.roy@aerobuzz.fr www.aerobuzz.fr</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t/>
+          <t>Friedrich-Alfred-Allee 25 47055 Duisburg Germany www.aeroclub-nrw.de</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t/>
+          <t>Kluyverweg 1 2629 HS Delft Netherlands www.aerodelft.nl</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafen / airport</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t/>
+          <t>Secovlje 19 6333 Secovlje Slovenia www.portoroz-airport.si</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -978,12 +978,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t/>
+          <t>Extra leichte und faltbare Bremskeile Chocks in drei verschieden Grössen und dessen Zubehör. Die 3 Grössen decken alle Flugzeugtypen ab und durch das geringe Gewicht sind Sie ideal für den Arbeiter Schutz aber auch um im Flugzeug mitzunehmen. Die Chocks werden entweder aus geschmiedetem Aluminium oder aus Kohlefaser in der Schweiz hergestellt. Neben dem geringen Gewicht sind Sie auch mehrfach sicherer als die gängigen Gummi Bremskeile (Chocks) und verkeilen nicht unter den Flugzeugrädern wenn das Flugzeug beladen wird. Wir geben Ihnen gerne eine Demo an unserem ALPHACHOCKS / AEROGENIUS Stand</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t/>
+          <t>Schulgasse 21 4105 Biel-Benken Switzerland www.alphachocks.com</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t/>
+          <t>Fachmagazine der Luftfahrt: aerokurier, FLUG REVUE und Klassiker der Luftfahrt</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t/>
+          <t>Leuschnerstraße 1 70174 Stuttgart Germany Phone : +49 711 182 01 Fax : +49 711 182 1779 info@motorpresse.de www.aerokurier.de</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t/>
+          <t>AeroLEDs state-of-the-art LED lighting products are designed to replace aircraft legacy lighting systems. They consume less power, produce substantially more light output and last significantly longer, rated for 30,000+ hours MTBF. AeroLEDs serves every spectrum of the worldwide aviation market.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t/>
+          <t>8475 W. Elisa St 83709 Boise United States Phone : +1 2088503294 Ashelie@AeroLEDs.com https://aeroleds.com/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t/>
+          <t>UL-Flugzeug Legend 600</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t/>
+          <t>Jenikovska 1815 286 01 Caslav Czech Republic www.aeropilotcz.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Cinque 36012 Asiago Italy Phone : +39 0424 465845 info@aeroportoasiago.it www.aeroportoasiago.it</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t/>
+          <t>Das digitale Abrechnungssystem für Flughäfen mit App-Anbindung. Mit über 50.000 validierte Flugzeugdaten bieten wir an über 250 Flugplätzen die Möglichkeit Lande-, Tank- und Abstellentgelte per App zu bezahlen. Bereits 60.000 Piloten nutzen unsere App und gleichen sogar ihren CO2 Ausstoß damit aus.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t/>
+          <t>Forststr. 5 01099 Dresden Germany Phone : +49 351 26440980 office@aerops.com www.aerops.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t/>
+          <t>Aeros ANT Electric Trike</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t/>
+          <t>Post-Volynska, 5 03061 Kiev Ukraine www.aeros.com.ua</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t/>
+          <t>Rm 307, 16w, HKSTP China www.aerosim.com.hk</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Aerosoft GmbH steht seit mehr als 30 Jahren für hochwertige Simulationsprodukte. Beheimatet in der Flugsimulation wurden zunächst Add-ons zum Microsoft Flugsimulator und die eigene Hardware ACP (Aircraft Control Panel) veröffentlicht. Inzwischen unterstützt Aerosoft auch die bekannten Flugsimulationen XPlane, Prepar3D und Aerofly FS und vertreibt zahlreiche Add-ons dazu. Ein umfassendes Angebot von spezieller Hardware rundet das Produktsortiment ab. Mit über 40 Mitarbeitern und weltweit mehr als 50 freien Entwicklern sowie zahlreichen Kooperationen zählt die Aerosoft GmbH heute weltweit zu den führenden Software-Herstellern und -Publishern im Bereich der Simulationsspiele.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t/>
+          <t>Lindberghring 12 33142 Büren Germany www.aerosoft.de</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugsimulationssoftware &amp; - hardware</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t/>
+          <t>Lindberghring 12 33142 Büren Germany www.aerosoft.de</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t/>
+          <t>FIRST POLE OF COMPETITIVENESS CLUSTER IN THE AEROSPACE SECTOR Aerospace Valley contributes to the development and competitiveness of our members through innovation by promoting collaborative research and development projects.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t/>
+          <t>3 RUE TARFAYA 31405 TOULOUSE France https://www.aerospace-valley.com/en</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t/>
+          <t>WT9 Dynamic UL WT9 Dynamic GTi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t/>
+          <t>Letiskova 10 97103 Prievidza Slovakia www.aerospool.sk</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1302,12 +1302,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t/>
+          <t>AeroSys makes single-pilot operations safer and more convenient than ever – with Goose, the world’s first certified digital co-pilot for general aviation. Goose is the pilot monitoring in single pilot aviation, providing assistance and guidance so you can focus on what matters most – flying.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t/>
+          <t>Albert-Einstein-Str. 1 49076 Osnabrück Germany Phone : +49 541 202 info@aerosys.io www.aerosys.io</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t/>
+          <t>Der AEROTOURS Technik Instandhaltungsbetrieb nach Teil 145 ist vor den Toren Berlins gelegen. Es können am Verkehrslandeplatz Strausberg ein- und mehrmotorige Flugzeuge und Motorsegler bis 5,7 Tonnen in Metall- und Gemischtbauweise gewartet werden. Die Werft ist am S-Bahnnetz Berlin angebunden.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t/>
+          <t>Lilienthalstraße 4 15344 Strausberg Germany Phone : +49 3341 250008 Fax : +49 3341 215745 office@aerotours.de www.aerotours.de</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t/>
+          <t>AES Aerospace Embedded Solutions GmbH is a leading provider of safety critical hardware and software components. We design, develop and offer support for customized high-performance embedded solutions in the industries of aerospace, defense and future air mobility.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t/>
+          <t>Friedenheimer Brücke 29 80639 München Germany Phone : +49899982720 career@aes.de www.aes.gmbh</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t/>
+          <t>Fliederweg 28 52078 Aachen Germany www.aet-aviation.de</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t/>
+          <t>Handelsagentur für I-CLIP THE WALLET, die edle und kompakte Leder-Klammer für Geld und alle Karten. Die kleinste Geldbörse der Welt - Made in Germany</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t/>
+          <t>Seidenbenderstraße 22c 67549 Worms Germany Phone : +49 171 2712220 www.agentur-sichtbar.de</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t/>
+          <t>- Kommerzielle ATO seit 1998 (ATO 1.019), internationales Mitarbeiterteam, Ausbildung gleichwertig in deutscher und englischer Sprache. - 3 Standorte, Zentrale auf dem Flughafen Siegerland (EDGS), komplett genehmigte und besetzte Außenstellen in Frankfurt-Egelsbach (EDFE) &amp; Bonn-Hangelar (EDKB) - Kursumfang Lizenzen: PPL, CPL, CB-IR, MEP, FI, ATPL - Kursumfang Class &amp; Type Ratings: PC-12 / PC-24 Landetraining, Phenom 100 &amp; 300 Landetraining, Cessna Caravan, TBM 700 / 850, Piper PA46 - CAO - Genehmigung (CAO 0109) - Sprachprüfer - Genehmigung - Checkflüge IR &amp; MEP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t/>
+          <t>Werfthalle G1 56479 Liebenscheid Germany www.aa-fc.de</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafen Siegerland 57299 Burbach Germany www.air-alliance.de</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafen Siegerland 57299 Burbach Germany Phone : +49 2736 44280 Fax : +49 2736 442850 info@air-alliance.de www.air-alliance.de</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafen Siegerland 57299 Burbach Germany www.air-alliance.de</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t/>
+          <t>Wieslocher Str. 38 69190 Walldorf Germany Phone : +49 6224 9896999 Fax : +49 6224 8283 877 www.air-avionics.com</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t/>
+          <t>Air bp is a leading global aviation fuels and services business that is dedicated to keeping people flying safely around the world. We have been innovating, leading and investing in the aviation industry for more than 90 years. At present Air bp has a network of around 700 locations.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t/>
+          <t>Chertsey Road TW16 7LN Sunbury on Thames United Kingdom Phone : +44 (0) 1932 762 000 https://www.bp.com/en/global/air-bp.html</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation insurance broker</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t/>
+          <t>Hôtel d'entreprises Pierre Blanche 01150 SAINT VULBAS CEDEX France www.air-assurances.com</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t/>
+          <t>Ultralight Aircraft / Weight shift category / Delta-Trike</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t/>
+          <t>615 route de l'aérodrome 07200 Lanas France www.aircreation.fr</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t/>
+          <t>Air Lovers – We make you fly high! Die Community für Piloten, die Ihr Ticket in die Freiheit, andere sagen auch: Pilotenlizenz dazu, voll auskosten möchten. Wir bringen wahre "Wir" Kultur in die Luftfahrt für die große Vision: Mit 80 Piloten um die Welt! Join us!</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t/>
+          <t>2880 West Oakland Park Blvd 225c FL 33311 Fort Lauderdale United States Phone : +49 171 3175334 team@air-lovers.com https://air-lovers.com</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz 82287 Jesenwang Germany www.flugschule-jesenwang.de</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t/>
+          <t>Air Navigation Pro, Air Navigation Manager</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t/>
+          <t>Fossaux 10 1443 Villars-sous-Champvent Switzerland celine.weiss@airnavigation.aero www.airnavigation.aero</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t/>
+          <t>Exhibition of an instrument panel for light aircraft</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t/>
+          <t>1370 Rue des Pyrénées 31330 Grenade France</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t/>
+          <t>Claude-Dornier Straße 88039 Friedrichshafen Germany www.airbus.com</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t/>
+          <t>Industriestraße 4 86607 Donauwörth Germany www.eurocopter.com</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t/>
+          <t>Krefelder Str. 4 53909 Zülpich Germany www.airconcept-enterprises.com</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1842,12 +1842,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t/>
+          <t>Genimi Aviation Safety Equipment, Genimi Aviation Oxygen System, Genimi Fire Protection Suit</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t/>
+          <t>Schloss Hubertendorf 1 3372 Blindenmarkt Austria www.aircraft-and-more.com</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t/>
+          <t>Building assist service für Experimental Sling Flugzeugen, Workshop Raumlichkeiten für Flugzeugbau</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t/>
+          <t>Lorrie 9 1724BL Oudkarspel Netherlands www.aircraftbuilderseurope.com</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t/>
+          <t>Reichensteinstrasse 48 69151 Neckargemünd Germany www.aircraftdc.de</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t/>
+          <t>EASA 21J.411 DOA. Certification of products and change to products. Execution of Flight Test for compliance demonstration. CS-23 aircraft, SC-E18 and SC-19 electric propulsion systems, propellers, aircraft load assumptions, From Concept to Certification.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t/>
+          <t>Reichensteinstrasse 48 69151 Neckargemünd Germany Phone : +49 176 322 69825 info@aircraftdc.de https://www.aircraftdc.de</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft Info Desk ist eine Cloud Lösung für den Flugbetrieb von Flugschulen und Luftsportvereinen. Mit AID erledigen Sie die Aufgaben in Ihrer Organisation, die normalerweise viel Zeit kosten - schnell, sicher und zuverlässig.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t/>
+          <t>Zu den Eichen 4 30900 Wedemark Germany Phone : +49 5130 60 97 833 info@aircraft-info.de www.aircraft-info.de</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t/>
+          <t>Maintenance, Airframe, (Annual and Hourly), Routine Maintenance, Unscheduled AOG support, Pre Purchase Inspections, Propeller and Engine Servicing, Cirrus SF50 Service Centre, Eclipse Gold Service Centre, Williams International Service Centre,</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t/>
+          <t>La Planque Lane GY8 0DS Forest, Guernsey United Kingdom Phone : +44 1481 265750 www.flyasg.co.uk</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t/>
+          <t>Myriel Aviation markets: a) the free AIRMATE Electronic Flight Bag that is used by more than 200,000 pilots worldwide to prepare their flights. b) AIRMATE aviation database for avionics, including Dynon SkyView. c) Flight plan filing and tracking for airport operations and airports</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t/>
+          <t>5, rue Heienhaff 1736 Senningerberg Luxembourg Phone : +352 621 199443 Fax : +352 management@myriel.lu www.airmate.aero</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t/>
+          <t>Hildegard-Schaeder-Str. 1a 60599 Frankfurt Germany www.airmen-gin.de</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t/>
+          <t>Airpart Supply Ltd are a leading aviation parts supplier based in the UK, proudly distributing for the largest manufacturers in the industry. We supply aircraft parts from our UK warehouse which is conveniently placed in High Wycombe, only 20 minutes from London Heathrow.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t/>
+          <t>Unit 3, The Gateway Centre, HP12 3SU Bucks United Kingdom www.airpart.co.uk</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t/>
+          <t>Aithre prducts to be display at the tradeshow include: Aithre Shield CO Series products (EX 2.0, 3.0, eDot, USB 6.0, 4.0) Aithre Illyrian oximeter, Aithre Boom Cannula and adaptor, Aithre Altus Meso series products, Aithre AVI series products and kits (AVI, AVI8, AVI16EX/C, AVI32EX/C, AVI24EX/C, AVI 64EX/C, AVI128EX/C), Aithre Air Bottles and regulators (47L, 152L, 408L, 925L), Aithre Metis, Aithre USB, Aithre HealthView, Aithre cannula products.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t/>
+          <t>1104 SW Matrix Loop 98367 Port Orchard United States www.aithreaviation.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2112,12 +2112,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t/>
+          <t>Kabelkonfektionierung Kabelbaumfertigung Elektrogerätebau Dienstleistungen Dokumentation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t/>
+          <t>In Oberwiesen 9 88682 Salem-Neufrach Germany https://ak-produktionstechnik.de</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t/>
+          <t>ALAMO Engineering bringt Kompetenz in Entwicklung einschließlich die erforderliche Musterzulassung von Modifikationen an Luftfahrzeugen aller Kategorien. Fertigung von luftfahrttechnischen Produkten wie für die Modifikation benötigten Einbaukits sowie qualifizierte Produkte aus eigener Entwicklung.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t/>
+          <t>Zeppelinstraße 16a 82205 Gilching Germany Phone : +49 8105 3987 20 Fax : +49 8105 3987 42 info@alamo.aero www.alamo-engineering.com</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t/>
+          <t>ALPEN AIR bietet exklusive Rundflüge über München, dem Bayerischen Voralpenland, den Alpen und Schloss Neuschwanstein an. Die Fluggesellschaft ist europäischer Erstbetreiber der hochmodernen TECNAM P2012 Traveller im Passagierverkehr. Heimatbasis ist der Flughafen Augsburg.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstraße 1 86169 Augsburg Germany Phone : +49 821 99971640 fly@alpenair.de www.alpenair.de</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t/>
+          <t>The 5 times world recorder touring motorglider with 15m wingspan, 600 kg MTOW, and friendly flight and stall characteristics.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t/>
+          <t>Budapest ut 16 8200 Veszprem Hungary kdolhai@altusaero.com www.altusaero.com</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t/>
+          <t>Przytocznica 75A 63-505 Doruchów Poland</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t/>
+          <t>Hybrid drive solutions, especially Cessna Caravan corversions and other comuter aircraft conversion</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t/>
+          <t>3507 Jack Northrop Ave. CA 90250 Hawthorne United States www.ampaire.com</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t/>
+          <t>Andair Design and manufacture aviation fuel equipment: Single in-line Fuel pumps, Duplex pumps, Fuel Selectors, Gascolators, In-line filters etc.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t/>
+          <t>1, Fulflood Road PO9 5AX Havant, Hampshire United Kingdom www.andair.co.uk</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t/>
+          <t>We intend to exhibit two propellers - For small aircraft with a diameter of 1800 mm designed for 150 HP engine For large aircraft with a diameter of 2250 mm designed for 1000 HP engine</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t/>
+          <t>8, Zaliznychna str. 07400 Brovary, Kyiv region Ukraine angpatriotua.com</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz, Haus 10 63329 Egelsbach Germany Phone : +49 6103 42081 Fax : +49 6103 42083 info@aopa.de www.aopa.de</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t/>
+          <t>Die AOPA-Austria – Flugzeughalter und Pilotenverband Österreichs ist die österreichische Vertretung der Aircraft Owners and Pilots Association. Der Verein gehört der IAOPA, dem internationalen Dachverband der AOPA an.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t/>
+          <t>Karl Spies Straße 1/3 2525 Schönau an der Triesting Austria Phone : +43 1 39118009 office@aopa.at www.aopa.at</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t/>
+          <t>Verband für Piloten und Flugzeugeigner der Allgemeinen Luftfahrt in der Schweiz</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t/>
+          <t>Albisriederstrasse 252a 8047 Zürich Switzerland www.aopa.ch</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t/>
+          <t>Online registrieren, Fahrzeug finden &amp; buchen, einsteigen &amp; appfahren, parken &amp; Fahrt beenden www.app2drive.com EINFACH MAL APPZWITSCHERN</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t/>
+          <t>Rüttelweg 5 63843 Niedernberg Germany Phone : +49 6028 9775 280 info@app2drive.com www.app2drive.com</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t/>
+          <t>Distribution of Spare Parts, 65.000+ Line Items in our XXL Inventory, Cessna, Piper, Socata, Mooney, Hawker, Tempest, Concorde, Whelen, Brackett, Mc Farlane, Hartzell, Weldon, ACF50, Trig, Shell, Barry, Kannad, Continental, Lycoming, Goodyear, Michelin, Gill,APS-Brakes, Cleveland, J.P. Instruments</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t/>
+          <t>Willicher Damm 141 41066 Mönchengladbach Germany Phone : +49 2161 4672110 Fax : +49 2161 4672111 sales@aps-aviation.com www.aps-aviation.com</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2463,12 +2463,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t/>
+          <t>Design according DIN ISO EN 2688 and VDI/VDID 2424 for airplanes, cockpit and interior design, cockpit ergonomics, seat ergonomics, cognitiv emotional investment goods design, 3D Class-A-Surfacing, visualization</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t/>
+          <t>Dillinger Strasse 1a 38116 Braunschweig Germany Phone : +49 531 250 796 30 Fax : +49 531 250 796 28 aero23@ardey-felsch.de http://www.ardey-felsch.de</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t/>
+          <t>Pforzheimer-Straße 27a 76227 Karlsruhe-Durlach Germany www.asb-ka.de</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t/>
+          <t>Ihr Versicherungsmakler für Luftfahrt und Wassersport.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t/>
+          <t>Bahnhofstraße 6 82377 Penzberg Germany Phone : +49 8856 8052826-0 Fax : +49 8856-8052826-9 info@ascair-ifs.de www.ascair-ifs.de</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t/>
+          <t>General Aviation Avionics Display Products, GPS sensors</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t/>
+          <t>5001 Indian School Road NE 87110 Albuquerque United States www.aspenavionics.com</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t/>
+          <t>12-3 Yanagita 0130054 Yokote Japan www.ast-aster.biz</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t/>
+          <t>verbessertes Flugsichtsystem</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t/>
+          <t>11241 SE HWY 212 97015 Clackamas United States www.astronics.com</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t/>
+          <t>Straatweg 17 8531 Lemmer Netherlands www.atc-comm.com/en#4</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2652,12 +2652,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t/>
+          <t>Die ATIS ist ein Zusammenschluss von Luftfahrtenthusiasten, die sich mit Begeisterung und Passion dem Thema Luftfahrt widmen. Wir bereiten Dich optimal auf die verschiedenen Sprechfunkprüfungen vor, frischen Dein Können auf oder nehmen dich mit in die Welt der Luftfahrt. Wir freuen uns auf Dich!</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t/>
+          <t>Weitzgrund 11 14806 Bad Belzig Germany Phone : +49 1705490816 hello@atis.flights www.atis.flights</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t/>
+          <t>Hanna-Kunath-Strasse 18 28199 Bremen Germany www.aas.ag</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t/>
+          <t>Hanna-Kunath-Strasse 18 28199 Bremen Germany www.aas.ag</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t/>
+          <t>Publications</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t/>
+          <t>548 Market Street, Suite 42403 94104 San Francisco United States www.atp.com</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t/>
+          <t>Nördliche Münchner Str. 47 82031 Grünwald Germany www.attc.com</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t/>
+          <t>MRO services &amp; CAMO for Beechcraft (Jet / Turboprop / Piston), div. Cessna Citations, Embraer Phenom 100 + 300, Hawker 400XO, Nextant 400XT + Cirrus Aircraft (Piston / Jet). Modifications, aircraft paint shop, aircraft parts sales and more.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstr. 5 86169 Augsburg Germany Phone : +49 82170030 Fax : +49 8217003153 info@aas-augsburg.de www.aas-augsburg.de</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t/>
+          <t>INTEGRAL R (Training aircraft with aerobatics capacities, two-seater, side by side, taildragger landing gear) INTEGRAL S (Training aircraft with aerobatics capacities, two-seater, side by side, tricycle landing gear)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t/>
+          <t>Aéroport Toulouse Francazal 31270 CUGNAUX France https://www.aura-aero.com/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t/>
+          <t>AutoFlight is a global high-tech startup dedicated to developing and manufacturing electric aerial vehicles to provide safe and reliable logistics systems and urban air mobility solutions for people. AutoFlight uses its experience with artificial intelligence, 5G, breakthrough materials, and advance</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t/>
+          <t>Berliner Allee 65 86153 Augburg Germany info@autoflight.com www.autoflight.com</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t/>
+          <t>Dornierstraße 14 31137 Hildesheim Germany www.auto-gyro.com</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation microphones for pilots</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t/>
+          <t>Helsetlia 20 1353 Bærums Verk Norway www.avee.com</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t/>
+          <t>ULtraleichte Flugzeuge 120 Kg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t/>
+          <t>Str. Raului Street 393 200636 Craiova, Dolj Romania www.avi.ro</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation Academy Austria (AAA) bietet Ausbildungen für Berufs- und Linienpiloten auf modernen Full-Flight-Simulatoren an. Zudem betreibt AAA Österreichs größte ATPL Flugschule: Die angesehene Ausbildung ist konsequent auf die Anforderungen des Berufs Pilot zugeschnitten.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t/>
+          <t>Ludwig-Boltzmann-Straße 4 7100 Neusiedl am See Austria Phone : +43 5 94490 office@aviationacademy.at www.aviationacademy.at</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t/>
+          <t>Modial de'l aviaiton, Zeitschrift</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t/>
+          <t>Aérodrome de Lognes 77185 Lognes France www.aviation-pilote.com</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation Supplies and Academics, Inc. does business as “ASA”. ASA is the leading publisher of aviation books and the largest producer of pilot supplies in the USA today, providing trusted materials for more than 80 years. Since those early days, many products have been added to the line including textbooks, software, apps, online courses, videos, flight instructor tools, aviation maintenance technician materials, logbooks, flight computers (manual E6B and the electronic CX-3), aviation plotters, kneeboards, flight bags, remote pilot and drone materials, and more. Additional pilot supply items and book titles are being added, as our team of Authors and Subject Matter Experts has continued to grow.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t/>
+          <t>7005 132nd Place SE 98059 Newcastle United States www.asa2fly.com</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t/>
+          <t>Lufthavnsvej 28 4000 Roskilde Denmark Phone : +45 32 202 202 bd@aeropartner.dk www.aviation-supplies-europe.com</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviationexam specialises in creating study materials for aspiring pilots, and developing applications. Our range of products and systems also includes a special system for flight schools to monitor the progress of their students, and an examination system intended for sitting exams at the authority.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t/>
+          <t>Kovarova 39/23 155 00 Prague Czech Republic Phone : +420 270 005 114 support@aviationexam.com www.aviationexam.com</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t/>
+          <t>Flight School software platform, Maintenance management software platform, Auditing and Compliance software, Safety Management System software, Flight Management Software, Aeroclub software, Aircraft ownership application, UAV - UTM software</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t/>
+          <t>Valkenbergstraat 7 9660 Brakel Belgium www.aviatize.com</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t/>
+          <t>Lungomare C. Colombo 59 73040 S.Maria die Leuca Italy www.aviazionemarittimaitaliana.it</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t/>
+          <t>Avidyne is a leading provider of avionics for the owner flown, corporate, helicopter and military markets, including FMS/GPS/NAV/COM, transponders, ADS-B, and flight display systems.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t/>
+          <t>710 North Drive FL 32934 Melbourne United States www.avidyne.com</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t/>
+          <t>VIA DEL COMMERCIO 13/15 5701 Venturina Italy</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3192,12 +3192,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t/>
+          <t>SKYDREAM SP. Z O.O. is polish manufacturer of aviation innovative LED lighting systems. Our products are mainly dedicated for LSA, Ultralight, KIT and Experimental aircraft. We offer navigation lights, position lights, strobe/anticollision lights, beacons and landing lights.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t/>
+          <t>Dworcowa 15A 43-502 Czechowice-Dziedzice Poland www.aviolights.com</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3219,12 +3219,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t/>
+          <t>We offer a wide range of services for installation, engineering, maintenance, overhaul and distribution of all well-known avionics manufacturers. We fulfill the special wishes of our customers in the areas of general aviation, commercial aviation and defense technology with in-house developments</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatzstraße 5 94348 Atting Germany Phone : +49 9429 94240 Fax : +49 9429 942424 josef.breu@avionik.de www.avionik.de</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t/>
+          <t>Model of a hydrogen powered aircraft</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t/>
+          <t>30, rue Edouard Branly 90000 Belfort France Phone : +33(0) 339 034 069 contact@avionsmauboussin.fr www.avionsmauboussin.fr</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t/>
+          <t>Hydrogen-powered STOL aircraft : Alérion M1h &amp; Alcyon M3c</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t/>
+          <t>30, rue Edouard Branly 90000 Belfort France Phone : +33(0) 339 034 069 contact@avionsmauboussin.fr www.avionsmauboussin.fr</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t/>
+          <t>Model of a hydrogen powered aircraft</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t/>
+          <t>30, rue Edouard Branly 90000 Belfort France www.avionsmauboussin.fr</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3327,12 +3327,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t/>
+          <t>VFR Flight Guide</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t/>
+          <t>Tust 167 37806 Suchdol nad Luznici Czech Republic www.avion.eu</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3354,12 +3354,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t/>
+          <t>Distributor and Supplier of A/C Spares</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t/>
+          <t>57 Tailors Court SS2 5SX Rochford, Southend-on-Sea United Kingdom www.avocetuk.com</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t/>
+          <t>Versicherungsprodukte und -dienstleistungen rund um Aviation</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t/>
+          <t>Colonia-Allee 10 - 20 51067 Köln Germany www.axa.de</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t/>
+          <t>Leichtflugzeuge</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t/>
+          <t>Anton-Dengler-Straße 8 67346 Speyer Germany www.fk-aircraft.com</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3435,12 +3435,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t/>
+          <t>JP Instruments: Engine Monitoring Systems for Piston and Turbines BAC Digital Avionics: Headset Systems with BT and ANR, with USB-charging adaptor BAC Digital Avionics: Aircraft Sun Protection Systems for Jets and Piston Planes</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t/>
+          <t>Lehrer-Ried-Weg 9 85445 Oberding Germany</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t/>
+          <t>Schwachhauser Heerstraße 214 28213 Bremen Germany Phone : +49 421 341494 Fax : +49 421 341496 markus.rossol@brm.de brm.de</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t/>
+          <t>Bei B2L und BAG TO LIFE werden aus ausrangierten Materialien der Luftfahrt neue Upcycling Produkte erschaffen. Das Produktsortiment erschließt sich inzwischen von Taschen über Accessoires bis hin zu Möbeln. Dadurch konnten bereits über 450 Tonnen CO2 eingespart werden und es werden täglich mehr!</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t/>
+          <t>Wendenstraße 40 96215 Lichtenfels Germany Phone : +49 9571 9299061 shop@b2l.group https://shop.b2l.group/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t/>
+          <t>Baden-Württembergischer Luftfahrtverband e.V.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t/>
+          <t>Scharrstraße 10 70563 Stuttgart Germany www.bwlv.de</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t/>
+          <t>Karl-Marx-Str. 26 56567 Neuwied Germany Phone : +49 171 2722110 niebergall@sf-260.de</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t/>
+          <t>Egerstraße 21 95643 Tirschenreuth Germany www.tvtirschenreuth.brk.de</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t/>
+          <t>Becker-Avionics steht für High-Tech Made-In-Germany, und das seit mehr als 66 Jahren. Ob Serie oder kundenspezifisch, entwickelt und gebaut für härteste Bedingungen sind unsere Produkte weltweit bekannt für höchste Zuverlässigkeit und Qualität.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t/>
+          <t>Baden-Airpark B 108 77836 Rheinmünster Germany Phone : +49 7229 305 298 Fax : +49 7229 305217 christine.barbier@becker-avionics.com www.becker-avionics.com</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t/>
+          <t>Baden-Airpark B 108 77836 Rheinmünster Germany www.becker-avionics.com</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t/>
+          <t>To be determined</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t/>
+          <t>One Cessna Blvd 67215 Wichita United States</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t/>
+          <t>One Cessna Blvd 67215 Wichita United States www.txtav.com</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t/>
+          <t>Headquartered in Fort Worth, Texas – as a wholly-owned subsidiary of Textron Inc., – we have strategic locations around the globe. At each location, we design, build and promote a diverse array of products that enable our customers to increase business efficiency with reliable transportation.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t/>
+          <t>3255 Bell Flight Boulevard 76118 Fort Worth United States Phone : +1 817 280-2011 Fax : +49 21619948100 www.bellflight.com</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t/>
+          <t>Wheels, brakes and Landing gears Räder, Bremsen und Hauptfahrwerk Roues, freins et trains d'atterrissage</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t/>
+          <t>30 rue Pierre Georges Latécoère 05130 Tallard France Phone : +33 49220 1619 Fax : +33 49252 6966 sales@beringer-aero.com www.beringer-aero.com</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t/>
+          <t>Freiheitstraße 124/126 15745 Wildau Germany</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t/>
+          <t>Zeppelinstraße 3 12529 Schönefeld Germany Phone : +49 30 67803008 brandenburg@bfw.de www.bfw.de/berlin</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t/>
+          <t>Presentation of the first electric plane capable of reaching over 1,000 miles.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t/>
+          <t>3 RUE TARFAYA 31405 TOULOUSE France</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 64 88046 Friedrichshafen Germany www.bodensee-helicopter.de</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t/>
+          <t>Ertrinken gehört zu den weltweit häufigsten Ursachen für unbeabsichtigte verletzungsbedingte Todesfälle. Die Alarmierung und Ortbestimmung bei Notfällen im Wasser stellen besondere Herausforderungen an die Rettungskette. Die jüngsten Zahlen der DLRG belegen die Notwendigkeit. So stieg im Jahr 2022 die Anzahl der Todesfälle in Badeseen um mehr als 22 Prozent. RescueFLY beabsichtigt dezentral stationierte Drohnen, die mit einer Leitstelle verbunden und mit adäquater Sensorik ausgestattet sind, zur Unterstützung bei der Wasserrettung in schwer zugänglichen und weitflächigen Gebieten der Lausitz zu entwickeln und einzusetzen. Die Drohne soll im Rahmen einer technischen Demonstration neben den Schwimmern in Not einen Schwimmkörper abwerfen und die Rettungskräfte punktgenau zum Verunglückten führen. Ziel ist es, die Grundlagen zu legen, dass Drohnen zukünftig im Regelbetrieb den Rettungsdienst und die Wasserrettung unterstützen können. Nach einem Jahr gilt es Halbzeitbilanz im Projekt zu ziehen.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t/>
+          <t>Max-Eyth-Straße 7 71364 Winnenden Germany Phone : +49 711 945621 0 Fax : +49 711 945621 99 info@steiger-stiftung.de www.steiger-stiftung.de</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t/>
+          <t>Blackhawk will likely have a cutaway engine placed in our stand, same as 2019. BLR and Raisbeck may have propellers on display. And True Blue Power may have their True Blue batteries on display. We will also have tables and chairs in our booth.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t/>
+          <t>7601 Karl May Drive 76708 Waco United States www.blackhawk.aero</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t/>
+          <t>Blackshape is among the world’s leading designers and manufacturers of premium ultralight and light aircraft. The Italy-based company also develops advanced data-driven training systems for pilots. Blackshape's portfolio includes the certified Gabriél, ultralight Prime &amp; BK160-TR training aircraft.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t/>
+          <t>S.S. 16 KM 841+900 Z.I. 70043 Monopoli (BA) Italy Phone : +39 080 926 8601 Fax : +39 080 2462029 info@blackshapeaircraft.com www.blackshapeaircraft.com</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t/>
+          <t>BLACKWING aircraft</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruksgatan 11 A 24138 Eslöv Sweden www.blackwing.aero</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t/>
+          <t>11002 29th Ave W 98204 Everett United States www.blraerospace.com</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4002,12 +4002,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t/>
+          <t>Model of a hydrogen powered aircraft</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t/>
+          <t>3 Rue Tarfaya 31405 Toulouse France https://bluespiritaero.com/fr/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t/>
+          <t>Friedrichstraße 95 10117 Berlin Germany www.bluevisionmedia.com</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t/>
+          <t>Im Luft- und Raumfahrtcluster BodenseeAIRea haben sich auf Initiative der Wirtschaftsförderung Bodenseekreis ansässige Unternehmen, Hochschulen, Institutionen und Forschungseinrichtungen zu einem regionalen Branchennetzwerk am Bodensee zusammengeschlossen.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t/>
+          <t>Leutholdstraße 30 88045 Friedrichshafen Germany Phone : +49 7541 38588-0 Fax : +49 7541 38588 33 info@bodensee-airea.de www.bodensee-airea.de</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t/>
+          <t>Boeing offers a wide spectrum of business and general aviation services, including parts distribution (incl. chemicals), early pilot training and digital solutions in the form of navigation software and charts. Discover more: Services.Boeing.com.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t/>
+          <t>55 Inverness Drive East 80112 Englewood United States Phone : +1-303-799-9090 stephanie.e.bergmann@boeing.com https://services.boeing.com/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t/>
+          <t>Rathenaustraße 15 63263 Neu-Isenburg Germany https://www.boeing.de</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t/>
+          <t>Wupperweg 14 51789 Lindlar Germany www.planerent.de</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4164,12 +4164,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t/>
+          <t>Drohnen, Service &amp; Drohnenschulungen</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t/>
+          <t>Mooswiesen 17/2 88214 Ravensburg Germany Phone : +4975195875042 info@bormatec.com https://www.bormatec.com</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t/>
+          <t>Göllnergasse 15-17 1030 WIEN Austria www.bosch-aviation.com</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t/>
+          <t>Bose is world renowned for its premium audio solutions. Since its founding in 1964, the company has been dedicated to delivering amazing sound experiences through innovation. This has driven us to create products that have become iconic and help people enjoy the things they truly love.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t/>
+          <t>Gorslaan 60 1441 RG Purmerend Netherlands Phone : +31 299 390777 aviation_europe@bose.com www.boseaviation-emea.aero</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t/>
+          <t>Private Flugbetriebsgesellschaft</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t/>
+          <t>Goethestraße 21 89165 Dietenheim Germany Phone : +4973479200412 mb@savuka-air.com www.savuka-air.com</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft Induction Airfilters</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t/>
+          <t>7052 E. Government Way 86401 Kingman United States www.brackettaerofilters.com</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t/>
+          <t>The Institute of Traffic Engineering, the Rolls-Royce University Technology Centre and the Center for Hybrid Electric Systems Cottbus (chesco) of the BTU Cottbus-Senftenberg present their main research activities in aerospace engineering.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t/>
+          <t>Platz der Deutschen Einheit 1 03046 Cottbus Germany Phone : +49 355 690 christa.mueller@b-tu.de www.b-tu.de</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4326,12 +4326,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t/>
+          <t>Metal Made in Germany, in der norddeutschen Manufaktur entstehen seit über 20 Jahren hochwertige Metalltiefdecker der 600kg Klasse: ausgestattet mit dem Rotax 912 oder 915iS, als Breezer Sport, Breezer Schlepper bis 850kg oder als einfaches UL mit gutmütigen Flugeigenschaften.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t/>
+          <t>Jens-Patent-Weg 4-6 25821 Bredstedt Germany Phone : +49 4671 7979120 Fax : +49 4674 7979122 info@breezeraircraft.de https://www.breezeraircraft.de</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t/>
+          <t>In der City Of Aerospace im Bundesland Bremen treiben mehr als 140 Unternehmen und 20 wissenschaftliche Institute die Luft- und Raumfahrtindustrie an. Mit rund 12.000 Beschäftigten erwirtschaftet die Branche über 4 M€ pro Jahr. Das Land Bremen plant u.a. den Aufbau einer UAS-Leitstelle in Bremen.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t/>
+          <t>Fahrenheitstraße 1 28359 Bremen Germany Phone : +49 421 2208275 info@aviaspace-bremen.de www.aviaspace-bremen.de</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4380,12 +4380,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t/>
+          <t>BRISTELL B 23, BRISTELL B8, BRISTELL ENERGIC H55, BRISTELL TURBOTECH TURBINE, BRISTELL KLASSIK</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t/>
+          <t>Letecká 255 68604 Kunovice Czech Republic Phone : +420773984338 Fax : +42 milan.bristela@gmail.com www.brmaero.com</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t/>
+          <t>Rotaxstr. 1 4623 Gunskirchen Austria Phone : +43 7246601 2521 aircraft.center@brp.com www.flyrotax.com</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft Engines</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t/>
+          <t>Rotaxstr. 1 4623 Gunskirchen Austria Phone : +43 7246601 2521 aircraft.center@brp.com www.flyrotax.com</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4461,12 +4461,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t/>
+          <t>BRS Gesamtrettungsgeräte</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t/>
+          <t>41383 US 1 Highway United States www.brsaerospace.com</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t/>
+          <t>Hohler Weg 6 34466 Wolfhagen-Bründersen Germany Phone : +49 5692 2363 Fax : +49 5692 4960 info@flugversand.de www.flugversand.de</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t/>
+          <t>Provinzialstraße 93 53127 Bonn Germany Phone : +49 228 995500 poststelle@bbk.bund.de www.bbk.bund.de</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t/>
+          <t>Such- und Rettungsdienst SAR; Stay Stafe - Safety Promotion for General Aviation</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t/>
+          <t>Papiermühlestrasse 172 3063 Ittigen Switzerland Phone : +41 58 464 2722 joerg.thurnheer@bazl.admin.ch http://staysafe.aero/</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4569,12 +4569,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Bundesaufsichtsamt für Flugsicherung (BAF) ist die nationale Aufsichtsbehörde über zivile Flugsicherungsorganisationen in Deutschland. Das BAF ist dem Bundesministerium für Digitales und Verkehr (BMDV) unterstellt und hat seinen Sitz in Langen (Hessen).</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t/>
+          <t>Robert-Bosch-Straße 28 63225 Langen Germany Phone : +49 6103 8043 145 Fax : +49 6103 8043 250 kerstin.weber@baf.bund.de https://www.baf.bund.de</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Bundesministerium für Digitales und Verkehr umfasst mehrere Abteilungen, in denen die Aspekte der Digital- und Datenpolitik, der digitalen Konnektivität, der deutschen Straßen-, Schienen-, Wasserstraßen-, Schifffahrts- und natürlich der Luftverkehrspolitik verantwortet werden.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t/>
+          <t>Invalidenstraße 44 10115 Berlin Germany Phone : +49 30 18300 0 Fax : +49 30 18 300 1920 poststelle@bmdv.bund.de https://bmdv.bund.de</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t/>
+          <t>Anmeldung für Funkgeräte</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t/>
+          <t>Tulpenfeld 4 53113 Bonn Germany www.bundesnetzagentur.de</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesgrenzschutzstraße 100 53757 Sankt Augustin Germany Phone : +49 2241 238 3095 Fax : +49 2241 238 2409 presse.flg@polizei.bund.de www.bundespolizei.de</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4677,12 +4677,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t/>
+          <t>Informationen zur Bundesstelle für Flugunfalluntersuchung (BFU)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 16 38108 Braunschweig Germany www.bfu-web.de</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t/>
+          <t>Unterschweinstiege 10 60549 Frankfurt am Main Germany www.bfpp.de</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t/>
+          <t>Kölner Straße 262 51149 Köln Germany www.bundeswehrkarriere.de</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4758,12 +4758,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t/>
+          <t>Gin</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t/>
+          <t>AM Sonnenbühl 70 88709 Hagnau Germany www.milehigh69.de</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t/>
+          <t>AIRCRAFT TOOL KITS AND GROUND POWER EQUIPMENT FOR AIRPORT SERVICES AND MAINTENANCE CENTERS.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t/>
+          <t>3, Rue du Vieux Moulin 74960 Meythet (Annecy) France www.bv-corporation.com</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t/>
+          <t>CMD Avio is the division of CMD Group that designs and develops engines for ultra-light aircrafts and general aviation. The CMD aeronautical engines stand for outstanding performances, reliability and low fuel efficiency. Our R&amp;D team is composed of engineers with multidisciplinary skills, from electronics, mechanics to software technology. It offers services covering each single phase of engineering design process of engine development, from data collection until to the validation and verification.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t/>
+          <t>Nucleo Indus. Valle di Vitalba SNC 85020 Atella Italy https://www.cmdengine.com/en/</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4839,12 +4839,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t/>
+          <t>civil aircraft/water management, air handling systems, avionics, seats, lighting systems, components for aircraft engines, composite/CFRP cover, CFRP fender, machining of CFRP composites</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t/>
+          <t>Velehradská 1953 686 02 Staré Mesto Czech Republic https://www.cso-stm.cz/en/</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t/>
+          <t>Ul Flugzeug Vampire 600</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t/>
+          <t>Hradecká 315, Pražské Predmestí 551 01 Jaromer Czech Republic http://www.flyingmachines.cz/</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t/>
+          <t>Lit. Gallipoli Santa Maria di Leuca Italy</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t/>
+          <t>CARUSO FREELAND GmbH stellt Pilotenbrillen ohne und mit Korrektur her. Unsere Filter schützen das gesamte Auge inklusive Makula und Netzhaut. Eine 100% UV-Brille schützt nur den vorderen Teil der Augen und bietet somit einen ungenügender Augenschutz an. Zusätzlich arbeiten wir im Laserschutzbereich</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t/>
+          <t>Neusatzstr. 10 8212 Neuhausen Switzerland Phone : +41 52 6724325 Fax : +41 52 6724742 freeland@bluewin.ch www.carusofreeland.net</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4947,12 +4947,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t/>
+          <t>CAV is a leading provider of ice protection and drag reduction technology. Our history can be traced back to 1942, when one of our proprietary technologies TKS® was first introduced. The only supplier of fluid-based IP systems globally CAV has systems installed in 100+ different aircraft variants.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t/>
+          <t>Number One Industrial Estate DH8 6SZ Consett United Kingdom Phone : +44 1207 599 140 tks@cav-systems.com https://www.cav-systems.com</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4974,12 +4974,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t/>
+          <t>P01</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz 1 2542 Kottingbrunn Austria www.cead.at</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t/>
+          <t>Junkers F13- Replica</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstrasse 11 9423 Altenrhein Switzerland Phone : +41715664610 azueblin@centennialair.ch www.junkersaircaft.com</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t/>
+          <t>- LifeSeeker für Search and Rescue - voraussichtlich Drohnen</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Anger 12 84072 Au / Hallertau Germany www.centum-amm.com</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5055,12 +5055,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t/>
+          <t>Fire extinguishers, fire equipment, lithium battery fires</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t/>
+          <t>Podolská 103/126 14700 Praha - Podolí Czech Republic www.cervinkafire.com</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5082,12 +5082,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t/>
+          <t>To be determined</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t/>
+          <t>One Cessna Blvd 67215 Wichita United States</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t/>
+          <t>One Cessna Blvd 67215 Wichita United States</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstr. 50 40474 Düsseldorf Germany www.txtav.com</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t/>
+          <t>Piston and Turbine Engine Ignition Systems</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t/>
+          <t>1230 Old Norris Road 29657 Liberty United States www.championaerospace.com</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5190,12 +5190,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t/>
+          <t>Spark Plugs, Oil Filters, Slick Magnetos, Ignition Harness, Igniters, Exciters, Ignition Leads, Turbine Ignition Systems</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t/>
+          <t>1230 Old Norris Road 29657 Liberty United States AlanWoods@champaero.com https://www.championaerospace.com</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5217,12 +5217,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t/>
+          <t>Schleppflugzeuge</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t/>
+          <t>Aerodrome Rue du deux Ponts 57200 Sarreguemines France</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5244,12 +5244,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t/>
+          <t>Organisierte Reisen für Piloten in Europa, Afrika, Australien und den USA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz Haus 3 14959 Trebbin Germany Phone : +49 15254702836 Fax : +49 40 38040668 as@chriss-aviation.com www.pilotravels.com</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t/>
+          <t>Cicaré ist mit mehr als 60 Jahren Erfahrung in der Entwicklung und der Produktion von Kleinhubschraubern am Weltmarkt erfolgreich. Im Jahr 2022 ist Cicaré als einer der ersten Hersteller mit dem Cicaré 8 die deutsche Musterzulassung im Bereich UL-Hubschrauber durch den DULV ausgestellt worden.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 5840 55126 Mainz Germany Phone : +49 17661289519 Fax : +49 6132 57 90 67 info@cicare-europe.com http://www.cicare-europe.com</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Giuseppe Pozzi 33 21020 Casciago Italy www.teknofibra.it</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5325,12 +5325,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t/>
+          <t>SR22T, SF50 Vision Jet</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t/>
+          <t>4515 Taylor Circle 55811 Duluth, MN United States www.cirrusaircraft.com</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t/>
+          <t>4515 Taylor Circle 55811 Duluth, MN United States www.cirrusaircraft.com</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t/>
+          <t>Na Komorsku 2202/10 12 Prag Czech Republic</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5406,12 +5406,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation Headsets</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t/>
+          <t>13570 Grove Drive 55311 Maple Grove United States www.clarityaloft.com</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5433,12 +5433,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft Wheels &amp; Brakes by Kaman, is the manufacturer of Cleveland Wheels &amp; Brakes. For experiential, general aviation, light business jets. We specialize in wheels brakes and hydraulic components: master cylinders, park brake valves, shimmy dampers and actuators.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t/>
+          <t>1160 Center Road 44011 Avon United States www.clevelandwheelsandbrakes.com</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5460,12 +5460,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t/>
+          <t>Seit 2006 bieten wir hochwertige Bezüge für die Luftfahrt an. Ob Allwetterbezüge, Baumwoll-Hallenbezüge, Haubentücher für Segelflugzeuge, Motorflugzeuge, UL´s oder Drehflügler. Unser Ziel: Funktionalität und dauerhafter Schutz vor Wetter, Feuchte und UV-Strahlung zu einem fairen Preis.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t/>
+          <t>Veilchenweg 6 25548 Kellinghusen Germany Phone : +49 176 245 243 58 info@clouddancers.de www.clouddancers.de</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5487,12 +5487,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t/>
+          <t>Unser digitales Flugbuch und die Flight Tracking App bilden zusammen das perfekte Tandem, um jedem Piloten die Verwaltung seiner Flüge so einfach und angenehm wie möglich zu gestalten. Gerne führen wir Ihnen eine kostenlose Demo vor. Besuchen Sie uns hierfür einfach auf unserem Stand.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundenweg 31 60320 Frankfurt Germany Phone : +49 15115881562 info@cloudlog.aero www.cloudlog.aero</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5514,12 +5514,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t/>
+          <t>Goodrich De-Icing Systems has over 90 years of engineering excellence makes Goodrich the aircraft manufacturer's (OEM) choice in ice protection. Goodrich is the premier OEM de-ice boot provider with content on regional, business, general aviation and military aircraft platforms. Goodrich De-icers are custom designed, tested, and certified for each aircraft to optimize ice shed performance and minimize intercycle ice. The Goodrich FASTboot® installation saves you time and improves aircraft readiness. Trust OEM parts designed for optimal performance and reliability when you need them most.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t/>
+          <t>1555 Corporate Woods Parkway 44685 Uniontown United States www.goodrichdeicing.com</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t/>
+          <t>C42C, C42B, C52</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz Mengen-Hohentengen 88367 Hohentengen Germany www.comco-ikarus.de</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5568,12 +5568,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t/>
+          <t>no materials only a presence on our booth by our sales team</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t/>
+          <t>2 boulevard Duguesclin 34500 Beziers France www.composites-distribution.com</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5595,12 +5595,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t/>
+          <t>Concorde Aircraft Batteries</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t/>
+          <t>2009 San Bernardino Road 91790 West Covina United States www.concordebattery.com</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5622,12 +5622,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t/>
+          <t>Customized Caps, Badges and clothes for pilots</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Merusi 211 41038 San Felice sul Panaro (Modena) Italy www.contactcaps.com</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t/>
+          <t>Continental Aerospace Technologies which includes Continental Services</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t/>
+          <t>2039 South Broad Street 36615 Mobile, AL United States www.continental.aero</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t/>
+          <t>2039 South Broad Street 36615 Mobile, AL United States www.continental.aero</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t/>
+          <t>We produce electrical and electronic assemblies and sub-assemblies for industrial and aeronautical applications under ISO 9001 and EN 9100 certifications.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t/>
+          <t>Centre européen de fret Avenue de B 64990 MOUGUERRE France</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t/>
+          <t>Edisonstraße 6 86399 Bobingen Germany Phone : +49 8234 966 1630 info@cuban8.de http://cuban8.de/</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t/>
+          <t>International trade development, Czech and foreign companies cooperation with the goal of building business relationships.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t/>
+          <t>Štepánská 15 120 00 Prague 2 Czech Republic Phone : +420 224 907 512 eva.novotna@czechtrade.cz www.czechtrade-deutschland.de</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t/>
+          <t>Triebwerke und Anbauteile</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberdiller Straße 29 82065 Baierbrunn bei München Germany Phone : +49 89 7937210 Fax : +49 89 7938761 motors@dachsel.de www.flugmotoren.com</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberdiller Straße 29 82065 Baierbrunn bei München Germany www.flugmotoren.com</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5838,12 +5838,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t/>
+          <t>Triebwerke und Anbeiteile</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberdiller Straße 29 82065 Baierbrunn bei München Germany Phone : +49 89 7937210 Fax : +49 89 7938761 motors@dachsel.de www.flugmotoren.com</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Str. 28 38108 Braunschweig Germany www.alteflieger.de</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Str. 28 38108 Braunschweig Germany www.alteflieger.de</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5919,12 +5919,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t/>
+          <t>Daher industrial company and service provider manufactures two families of single-engine turboprop airplanes: the unpressurized Kodiak, 10-seat utility STOL aircraft and the pressurized TBM, 6-seater famous for its travel efficiency.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t/>
+          <t>1, allée Maryse Bastié 91325 Wissous Cedex France Phone : +33 (0)1 49 75 98 00 Fax : +49 2161 9948155 www.daher.com</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t/>
+          <t>Charterunternehmen mit 7 Businessjets der Typen CJ1, CJ3, Phenom 300, Phenom 300E, Challenger 300, und XLS+ mit Hauptsitz in Mengen, Baden-Württemberg.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 88512 Mengen Germany Phone : +4975727675500 info@das-private-jets.com https://www.das-private-jets.com/</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 88512 Mengen Germany Phone : +4975727675500 info@das-private-jets.com https://www.das-private-jets.com/</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6000,12 +6000,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t/>
+          <t>Outstanding Comfort. Reliable Performance. Rugged Construction. David Clark Company's line of active and passive noise-attenuating headset are designed to provide maximum hearing protection for pilots, while also providing clear reception and crisp transmission. The 'green domes' lead the way!</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t/>
+          <t>360 Franklin Street 01604 Worcester United States Phone : +1 508 7515800 Fax : +1 508 7535827 pbryson@davidclark.com www.davidclark.com</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t/>
+          <t>Messestraße 132 88046 Friedrichshafen Germany Phone : +49 7541 5900 0 Fax : +49 7541 5900 499 info@zeppelinflug.de www.zeppelinflug.de</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany www.daec.de</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany www.daec.de</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany www.daec.de</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany www.daec.de</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany www.daec.de</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany www.daec.de</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Deutsche Aero Club ist der Dachverband deutscher Luftsportverbände (16 Landes- und 4 Mono-Luftsportverbände). 90.000 Luftsportler/innen der Disziplinen Segel-, Motor-, Modell- und Ultraleichtflug sowie Fallschirmspringen, Ballonfahren, Drachen- und Gleitschirmfliegen sind im DAeC organisiert.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany Phone : +49 531 23540 0 Fax : +49 531 23540 11 info@daec.de https://www.daec.de</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutscher Hubschrauber Club e.V.</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t/>
+          <t>Grubfeldweg 15 86989 Steingaden Germany www.deutscher-hubschrauberclub.de</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t/>
+          <t>Sablé-Platz 6 31675 Bückeburg Germany www.dhv-org.de</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t/>
+          <t>Mühlweg 9 71577 Großerlach - Morbach Germany Phone : +49 7192 930140 Fax : +49 7192 9301439 info@dulv.de https://www.dulv.de</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6324,12 +6324,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t/>
+          <t>Der DWD ist im Auftrag des Bundesministeriums für Digitales und Verkehr (BMDV) als nationaler Wetterdienst verantwortlich für die meteorologische Sicherung der zivilen Luftfahrt in Deutschland. Der Flugwetterdienst wird zertifiziert und überwacht durch das Bundesaufsichtsamt für Flugsicherung (BAF).</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t/>
+          <t>Frankfurter Straße 135 63067 Offenbach am Main Germany Phone : +49 69 8062 2695 Luftfahrt@dwd.de www.dwd.de</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t/>
+          <t>Rohdesdiek 32 44357 Dortmund Germany info@rettungsrobotik.de www.rettungsrobotik.de</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6378,12 +6378,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t/>
+          <t>DLR is one of the world's leading research institutions for aeronautics, space, energy, transport and security. By transferring innovative technologies from research to industry, it offers solutions for global challenges and a sustainable future.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t/>
+          <t>Linder Höhe 51147 Köln Germany Phone : +49 2203 6010 Fax : +49 2203 67310 contact-dlr@dlr.de www.DLR.de</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t/>
+          <t>Vor Ort: Fluginformationsservice FIS und Flugplanung AIS-C</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t/>
+          <t>Am DFS-Campus 10 63225 Langen Germany Phone : +49 6103 707 0 Fax : +49 6103 707 1396 info@dfs.de www.dfs.de</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6432,12 +6432,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugschule, Rundflüge</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t/>
+          <t>Jean-Monnet-Straße 11 54343 Föhren Germany</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6459,12 +6459,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t/>
+          <t>DIAG Aviation GmbH betreibt eine Flugschule mit eigener Seaplane Base an der Mosel und der Saar. Wir sind spezialisiert auf die Ausbildung der Klassenberechtigung SEP(sea). Unsere Flotte bestet aus einer Cessna 172P Amphibium und einer Piper Super Cub PA18-150.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t/>
+          <t>Jean-Monnet-Straße 11 54343 Föhren Germany Phone : +49(0)6502-9998999 Fax : +49(0)6502-9998998 info@diag.aero www.diag.aero</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t/>
+          <t>Diamond Aircraft ist einer der führenden Flugzeughersteller der Allg. Luftfahrt. Produziert wird eine vollständige Palette von zertifizierten Komposit-Kolbenflugzeugen, passenden Simulatoren, Fernerkundungslösungen, Kunstflug-Turboprop-Trainer und Jet-Fuel-Motoren (Austro Engine).</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t/>
+          <t>N.A. Ottostrasse 5 2700 Wiener Neustadt Austria Phone : +43 2622 26700 Fax : +43 2622 26780 marketing@diamondaircraft.com www.diamondaircraft.com</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t/>
+          <t>Bei der Behördenfamilie des BMDV schaffen wir die Voraussetzungen dafür, dass Menschen, Güter und Daten schnell und sicher von A nach B kommen. Damit auch morgen noch alles läuft, machen über 24.000 Beschäftigte in mehr als 40 Behörden an über 200 Standorten Deutschlands Infrastruktur zukunftsfähig.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t/>
+          <t>Schloßplatz 9 26603 Aurich Germany Phone : +49 4941-602472 Tim.Glaesener@bav.bund.de https://www.damit-alles-läuft.de</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t/>
+          <t>Informationen über Möglichkeiten für Menschen mit Handicap, im Luftsport aktiv zu werden</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t/>
+          <t>Schurzstraße 18 63743 Aschaffenburg Germany www.rolliflieger.de</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6567,12 +6567,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t/>
+          <t>Diehl Aerospace ist mit dem Produktportfolio aus Avionik- und Kabinensystemen führender First Tier Supplier. Von der zulassungsfähigen Entwicklung über die Herstellung bis zur weltweiten Betreuung der Systeme und Komponenten kommt alles aus einer Hand.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t/>
+          <t>Alte Nußdorfer Straße 23 88662 Überlingen Germany www.diehl.com/aviation</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6594,12 +6594,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugzeuglackierung, Strukturreparaturen</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstrasse 63 2540 Grenchen Switzerland www.aviation-services.ch</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6621,12 +6621,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t/>
+          <t>DJI Enterprise ist weltweit führender Hersteller von kommerziellen Drohnen und bietet eine breite Palette von Lösungen für verschiedene Branchen an. Unsere Lösungen für öffentliche Sicherheit helfen Ihnen effektiver auf Notfälle wie Brandbekämpfung, Strafverfolgung und Rettungsdienste zu reagieren.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t/>
+          <t>Platz der Einheit 1 60327 Frankfurt Germany Fax : +31 marketing.europe@dji.com https://enterprise.dji.com/de</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t/>
+          <t>Untereschstraße 13 88046 Friedrichshafen Germany Phone : +49 7541 9789270 info@bez-bodenseekreis.dlrg.de bez-bodenseekreis.dlrg.de</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6675,12 +6675,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t/>
+          <t>Spezialist für gewerbliche Drohnen-Haftpflichtversicherungen für Drohnen bis 150 kg. Vom Einzelpiloten bis zu großen Teams findet jeder bei uns den passenden preiswerten Tarif. Weltweite Deckung (USA auf Anfrage) von 3 Mio. oder 6 Mio.€, ohne Selbstbeteiligung. Versichert sind auch BOS, BVLOS, FPV</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t/>
+          <t>Uellendahl 71 a 42109 Wuppertal Germany Phone : +49 2022701770 Fax : +49 202701981 info@dmodirekt.de www.deutsche-modellsport-organisation.de</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6702,12 +6702,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t/>
+          <t>Hubschrauber Bell UH-1D</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t/>
+          <t>Claude-Dornier-Platz 1 88046 Friedrichshafen Germany www.dorniermuseum.de</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t/>
+          <t>Nußdorfer Str. 8 88662 Überlingen Germany Phone : +49 15759606866 flbraun@gmx.de www.dgf-fn.de</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t/>
+          <t>Rotkreuzstraße 2 88046 Friedrichshafen Germany Phone : +49 7541 5040 Fax : +49 7541 504105 info@drk-friedrichshafen.de www.drk-friedrichshafen.de</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t/>
+          <t>Besigheimer Straße 20 74394 Hessigheim Germany www.droneparts.de</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6810,12 +6810,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t/>
+          <t>Droniq ist einer der führenden Treiber des deutschen Drohnenmarkts. Wir unterstützen u.a. bei der Auswahl, Beschaffung &amp; Sichtbarkeit von Drohnen, schulen/prüfen Fernpiloten, beraten bei der Integration von Drohnen in den Betriebsablauf, erstellen SORAs, ConOps &amp; helfen bei Genehmigungsprozessen.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t/>
+          <t>Ginnheimer Stadtweg 88 60431 Frankfurt am Main Germany Phone : +49 69509547400 info@droniq.de www.droniq.de</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Dronivo GmbH ist ein erfahrenes Unternehmen in den Bereichen Drohnen- und Drohnenabwehrsysteme. Wir arbeiten eng mit renommierten Herstellern zusammen und bieten über die Hard- und Software hinaus, diverse Services wie Beratungen, Schulungen, Wartungen und Reparaturen an.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t/>
+          <t>Giulinistraße 2 67065 Ludwigshafen am Rhein Germany Phone : +49 621 5600 4000 info@dronivo.eu www.dronivo.de</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -6864,12 +6864,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t/>
+          <t>Druck is the world’s foremost supplier of Air Data Test Sets and Flight-Qualified Aerospace Pressure Sensors. Leveraging the tried and tested Druck pressure measurement technology, our new NG3000 sensor has now landed, offering exceptional performances across a wide pressure range.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t/>
+          <t>2 Fir Tree Ln, Groby LE6 0FH Leicester United Kingdom Phone : +49 (69) 22 22 29 73 DruckContact@bakerhughes.com https://www.druck.com</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -6891,12 +6891,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t/>
+          <t>Mit der einzigartigen Verknüpfung von Theorie und Praxis macht die DHBW Mannheim Studierende fit für ihre berufliche Karriere. Das Forschungscluster ELCH (Elektrochemie) beschäftigt sich mit Energiewandlungs- und -speicherprozessen in Batterien und Brennstoffzellen.</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t/>
+          <t>Coblitzallee 1-9 68163 Mannheim Germany Phone : 1741685366 axel.schoelch@dhbw-mannheim.de https://www.mannheim.dhbw.de/start</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t/>
+          <t>Coblitzallee 1-9 68163 Mannheim Germany https://www.mannheim.dhbw.de/start</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t/>
+          <t>Die DHBW Ravensburg bietet ein breit gefächertes Studienangebot in den Fakultäten Wirtschaft und Technik an. Studierende wechseln im regelmäßigen Rhythmus zwischen den Theoriephasen an der Hochschule und den Praxisphasen bei einem Dualen Partner.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t/>
+          <t>Marienplatz 2 88212 Ravensburg Germany Phone : +49 751 18999 2700 info@dhbw-ravensburg.de https://www.ravensburg.dhbw.de</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -6972,12 +6972,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t/>
+          <t>Design &amp; Manufacturing of light weight carbon fiber propellers and rotors for aviation - Experimental and EASA certified propellers - Helicopter and VTOL rotors - Variable Pitch systems for propellers and rotors</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t/>
+          <t>289,Avenue Odette et Edouard Durand 69620 FRONTENAS France www.duc-helices.com</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t/>
+          <t>Höhenweg 5 33178 Borchen Germany https://dvll.de</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t/>
+          <t>Dynali Helicopter Company manufactures ultralight leisure, utility and autonomous helicopters. The company has taken the market leadership of ultralight helicopters (ULH). Its current best-seller is the two-seater H3 Sport (MTOW 530 kg), known for its agile flight characteristics and low operating costs. In Aero Friedrichshafen we want to exhibit our best seller, H3 Sport and and our new open cabin the "Open Air".</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t/>
+          <t>Av. Thomas Edison 101 1402 Thines Belgium https://www.dynali.com/</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7053,12 +7053,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionics for experimental/amateur-built/LSA/certified aircraft</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t/>
+          <t>19825 141st PL. N.E. 98072 Woodinville United States dynon.aero</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -7080,12 +7080,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t/>
+          <t>Die e+a Elektromaschinen und Antriebe AG wurde 1981 gegründet und zählt heute zu den weltweit führenden Herstellern von Motorelementen bzw. Einbaumotoren, welche im Auftrag von Kunden nach deren Anforderungen entwickelt und hergestellt werden. Zum aktuellen Produktportfolio gehören Motorelemente mit einem Leistungsbereich bis ca. 1.5 MW und einem Drehzahlbereich bis zu 500‘000 min-1. Realisierte Statoraussendurchmesser betragen von 6 mm bis hin zu 750 mm, Drehmomente über 5000 Nm wurden ebenfalls umgesetzt. Die jeweiligen Grenzen sind fliessend und wurden in der Vergangenheit immer wieder gemäss den Kundenanforderungen neu definiert. Die e+a-Fertigung ist spezialisiert auf kleine und mittlere Serien (je nach Baugrösse mehrere 1‘000 Stück pro Typ und Jahr). Aber auch die Fertigung von Prototypen und Kleinstserien von einigen Stück wird häufig ausgeführt.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t/>
+          <t>Bachstr. 10 4313 Möhlin Switzerland www.eunda.ch</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -7107,12 +7107,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t/>
+          <t>EAS Experimental Aviation of Switzerland</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t/>
+          <t>via Fornasette 42 6998 Monteggio Switzerland www.experimental.ch</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7134,12 +7134,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t/>
+          <t>EASA - European Union Aviation Safety Agency</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t/>
+          <t>Konrad-Adenauer-Ufer 3 50668 Köln Germany Phone : 00393515379715 www.easa.europa.eu</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t/>
+          <t>Experience peace of mind with EasyVFR, your proactive co-pilot app. Plan routes, view clear maps, stay updated on changes. Enjoy on-map graphical NOTAMs, temporary SUB airspaces, and official AIP &amp; VFR info - all for free! Upgrade for real-time airspace activations, traffic integration, and more.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t/>
+          <t>Emoeweg 28 8218PC Lelystad Airport Netherlands Phone : +31 851308785 rob.weijers@pocketfms.com https://easyvfr4.aero</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t/>
+          <t>Chemin Maillefer 61 1052 LE MONT-SUR-LAUSANNE Switzerland www.eaton.com</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -7215,12 +7215,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t/>
+          <t>We would like to have small desk + 3 info rollos, maybe some stand for broshures + stand for iPad/Phone. Nothing special.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t/>
+          <t>Jadranska cesta 28 2000 Maribor Slovenia club.eavio.aero</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t/>
+          <t>Kondorosi ut 3.IV.em. 1116 Budapest Hungary</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -7269,12 +7269,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation engines, engine performance parts, injection systems, turbo systems, Avionics, Wheels and brakes, Lights, Rotax engines</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t/>
+          <t>Merdevegen 4E 3676 Notodden Norway www.edgeperformance.no</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t/>
+          <t>91 RUE CONNETABLE 60500 Chantilly France www.editerra.fr</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7323,12 +7323,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t/>
+          <t>EFLEVA (European Federation of Light and Vintage Aircrafts)</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t/>
+          <t>PO-Box 2 CH- 3001 Bern Switzerland www.efleva.eu</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t/>
+          <t>Röntgenstraße 1 65520 Bad Camberg Germany Phone : +491717778325 tonieichhorn@t-online.de www.eichhorn-air.de</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t/>
+          <t>Produkte für den Flugbedarf, fortschrittliches Schulungsmaterial für die Pilotenausbildung &amp; Luftfahrt-Experten mit Leidenschaft: Hier erwartet dich qualifizierte Beratung mit umfassender Expertise. Dein Ansprechpartner für die Allgemeine Luftfahrt!</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 1 63329 Egelsbach Germany Phone : +49 6103 20596 0 Fax : +49 6103 20596 59 info@eisenschmidt.aero www.eisenschmidt.aero</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7404,12 +7404,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t/>
+          <t>Auf dem Freigelände erwartet euch ein besonderes Highlight: Unser Eisenschmidt-Heißluftballon und die Balloncrew sorgen für spannende Unterhaltung beim regelmäßig stattfindenden Auf- und Abrüsten des Ballons. Zusätzlich beantwortet die Crew gerne alle Fragen rund um die „Faszination Ballonfahren.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 1 63329 Egelsbach Germany Phone : +49 6103 20596 0 Fax : +49 6103 20596 59 info@eisenschmidt.aero www.eisenschmidt.aero</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7431,12 +7431,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t/>
+          <t>ELA Aviación gyroplane manufacturer.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t/>
+          <t>Pol. Ind. El Blanquillo, M7 P26 14290 Fuente Obejuna, Cordoba Spain www.elaaviacion.com</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7458,12 +7458,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t/>
+          <t>Electric Propulsion system, battery modules</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t/>
+          <t>520 W 2850 N United States www.epsenergy.com</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t/>
+          <t>- Messewände - Flugzeugmodell - Bildschirm mit Animation</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t/>
+          <t>Lentulusstrasse 67 3007 Bern Switzerland www.electrifly-in.ch</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7512,12 +7512,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t/>
+          <t>We will be bringing a suitcase-sized demo aircraft charger. This requires a standard AC outlet to power. We would also like a small table and two chairs please.</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t/>
+          <t>4b Maule Rd 6164 Jandakot Airport Australia electro.aero</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t/>
+          <t>ELEKTRA-Trainer, TQ-Luftfahrtelektronik ,wie Flugfunkgeräte, Transponder Silent-Wings UAS: Silent-One</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Penzinger Feld 15 86899 Landsberg am Lech Germany https://www.elektra-solar.com</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Penzinger Feld 15 86899 Landsberg am Lech Germany https://www.elektra-solar.com</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -7593,12 +7593,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t/>
+          <t>Entwicklung und Herstellung von Software und Hardware für das Flug und Fahrwesen nach DIN ISO 9001 und DIN EN 62304.</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t/>
+          <t>Zerbster Str. 37 06844 Dessau-Roßlau Germany Phone : +4917631401219 sce8jam@googlemail.com maul-tank.de</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7620,12 +7620,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t/>
+          <t>Welcome to the 4th generation ! EASA CS-23 certified, the Elixir guarantees the highest standards of safety in general aviation. Its unmatched versatility is suited to training missions from ab-initio to CPL, or simply personal travel. You can now fly with unmatched safety and at unbeatable cost.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t/>
+          <t>Rue du Jura 17000 La Rochelle France Phone : +33 623140029 Fax : +33 laureva.theard@elixir-aircraft.com https://elixir-aircraft.com</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t/>
+          <t>Ultralight plane ellipse produced, designed and distributed by ellipse aero ltd. company seated in the Czech Republic. Ellipse is a unique carbon light plane with maximum safety, perfomance and comfort for its pilots is now in its new generation fully certified for 600 kg MTOM and with DULV, DGAC and LAA CR certifications. The plane is delivered with ROTAX 915 iS, 914 and 912 iS and ULS: Variable pitch propller by MT or DUC and eProps solution for club versions of the plane. Ellipse utilizes the unique designing features like fixed slots, elliptical wing, Fowler’s flaps and newly designed cowling with dedicated cooling channels.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t/>
+          <t>U Hellady 697/4 140000 Praha 4 Czech Republic www.ellipse.aero</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t/>
+          <t>Kurfürstenstraße 56 10785 Berlin Germany www.erau.edu</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -7701,12 +7701,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t/>
+          <t>Design and validation of todays and tomorrows mobility solutions, Qualification. CE marking and marketing of our equipment</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t/>
+          <t>3 rue des coudriers 78180 Montigny le Bretonneux France https://www.emitech.fr/fr</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -7728,12 +7728,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t/>
+          <t>Storage tanks, Aircrafts refuelling systems, Mobile refuelling stations, Filtration systems, Access &amp; Management systems, Commercial dispensers, Maintenance &amp; Service</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t/>
+          <t>Geodetow 1 64100 Leszno Poland www.en-tank.eu</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -7755,12 +7755,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t/>
+          <t>Storage tanks, Aircrafts refuelling systems, Mobile refuelling stations, Filtration systems, Access &amp; Management systems, Commercial dispensers, Maintenance &amp; Service</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t/>
+          <t>Geodetow 1 64100 Leszno Poland www.en-tank.eu</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -7782,12 +7782,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t/>
+          <t>Entrol</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t/>
+          <t>Calle Otoño nº 1 28850 Torrejon De Ardoz Spain www.entrol.net</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -7809,12 +7809,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugerprobung</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz 56333 Winningen Germany www.euroflighttest.com</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -7836,12 +7836,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t/>
+          <t>Industrieklebstoffe, Reparatursets, Füllstoffe, Anti-Rutsch-Auflagen</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t/>
+          <t>Kollerhofsiedlung 69 9470 St. Paul Austria www.eurobond.ec</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t/>
+          <t>Zusammen mit unseren Netzwerkpartnern bieten wir europaweit integrierte Systemlösungen im Bereich Risikoanalyse und Krisenmanagement für Behörden und Organisationen mit Sicherheitsaufgaben sowie für Industriepartner mit kritischer Infrastruktur.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t/>
+          <t>Schnackenburgallee 217-223 22525 Hamburg Germany Phone : +49 40 239 69 63 - 0 Fax : + 49 40 239 69 63 - 99 operations@eurocommand.com https://www.eurocommand.com</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t/>
+          <t>Information, Beratung Luftsport</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t/>
+          <t>Rue des Cerisiers, 9 1390 Grez-Doiceau Belgium www.europe-air-sports.org</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -7917,12 +7917,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t/>
+          <t>- Deutschlandweiter Dienstleister für die Modifikation, Reparatur und Instandhaltung von Pilotenhelme im Hubschrauber Bereich. - Verkauf von Piloten- und Helmzubehör. - Deutschland Vertretung und Service Center für Northwall s.r.l.</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t/>
+          <t>Holunderweg 12 77836 Rheinmünster Germany www.european-helmstore.com</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -7944,12 +7944,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t/>
+          <t>European Pride in Aviation Network repräsentiert und unterstützt die gesamte LGBTQIA+ Luftfahrt Community und arbeitet eng mit der gesamten Luftfahrtindustrie in Europa zusammen um die Industrie inklusiver und dadurch sicherer zu machen.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t/>
+          <t>Biedermannstr 42 04277 Leipzig Germany Phone : +49 1701037387 info@prideinaviation.org www.prideinaviation.org</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t/>
+          <t>Okruzni 234 293 06 Bradlec Czech Republic www.evektor.com</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -7998,12 +7998,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t/>
+          <t>Axial flux motors and examples of our battery technology.</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t/>
+          <t>Unit 3 Charles Shouler Way OX25 2PA BICESTER United Kingdom Phone : +44 1865 967700 marketing@evolito.aero evolito.aero</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t/>
+          <t>Schwarze Heide 21 46569 Hünxe Germany Phone : +49 2858 913718 Fax : +49 2858 913730 sales@extraaircraft.com www.extraaircraft.com</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t/>
+          <t>Heinz-Strachowitz-Str. 4 86807 Buchloe Germany Phone : +49 731 975280 30 Fax : +49 731 975280 99 thomas.wittig@funkeavionics.de www.funkeavionics.de</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -8079,12 +8079,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t/>
+          <t>RSA Réseau du Sport de l’Air</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t/>
+          <t>46 rue de Sauffroy 75017 Paris France www.rsafrance.com</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flughafen 11 79108 Freiburg Germany www.flyffh.com</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t/>
+          <t>The French Microlight Federation is organizing the Mondial de l'ULM from September 1st to September 3rd 2023 on Blois-Le Breuil's aerodrome.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t/>
+          <t>96 bis, rue Marc Sangnier 94700 Maisons-Alfort France https://mondialulm.fr/en/</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t/>
+          <t>Hohenstaufenallee 6 52064 Aachen Germany Phone : +49 241 6009 52410 sekretariat.fb6@fh-aachen.de https://www.fh-aachen.de/fachbereiche/luft-und-raumfahrttechnik/</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -8187,12 +8187,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t/>
+          <t>Lehren und Forschen für Sustainable Aviation; Studium Bachelor of Engineer und Master of Science in Luft- und Raumfahrttechnik, Flugbetriebstechnik mit Verkehrspilotenausbildung; F&amp;E-Projekte;</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t/>
+          <t>Hohenstaufenallee 6 52064 Aachen Germany Phone : +49 241 6009 52410 sekretariat.fb6@fh-aachen.de https://www.fh-aachen.de/fachbereiche/luft-und-raumfahrttechnik/</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -8214,12 +8214,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t/>
+          <t>Unser Studium bereitet auf die Karriere in einer internationalen High-Tech-Branche vor. Am Institut Luftfahrt der FH JOANNEUM verbinden wir Lehre und Forschung mit wissenschaftlichen Grundlagen und viel Praxisorientierung im Labor und Firmenpartnern. Mehr zum Abheben unter www.fh-joanneum.at/iav.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t/>
+          <t>Alte Poststraße 149 8020 GRAZ Austria Phone : +43 316 5453 6400 mav@fh-joanneum.at https://www.fh-joanneum.at/iav</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -8241,12 +8241,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t/>
+          <t>Fichtner &amp; Schicht is the leading supplier for metallic erosion protection of rotor and propeller blades worldwide and an expert in manufacturing of laminating tools for use in autoclave. Core competences are electroforming as well as 5-axis-milling all certified according EN9100!</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t/>
+          <t>Germaniastr. 4 33189 Schlangen Germany Phone : +49 5252 935410 Fax : +49 5252 935454 info@fi-sch.de https://www.fi-sch.de</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t/>
+          <t>Weingärten23 73312 Geislingen an der Steige Germany</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t/>
+          <t>Weingärten23 73312 Geislingen an der Steige Germany</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t/>
+          <t>Weingärten23 73312 Geislingen an der Steige Germany</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t/>
+          <t>Weingärten23 73312 Geislingen an der Steige Germany</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t/>
+          <t>fliegermagazin ist das Magazin für aktive Privatpiloten und Halter von ein- und zweimotorigen Flugzeugen. Das fliegermagazin-Team besteht aus Piloten mit unterschiedlichem Background (UL bis IFR) welches sich im professionellem Konzept des Magazins widerspiegelt.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t/>
+          <t>Jürgen-Töpfer-Straße 48 22763 Hamburg Germany redaktion@fliegermagazin.de www.fliegermagazin.de</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -8403,12 +8403,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t/>
+          <t>Die FliegerRevue ist das Magazin für alles rund um die Luftfahrt und die Raumfahrt. Themenschwerpunkte sind die Zivilluftfahrt, Allgemeine Luftfahrt, Luftfahrtindustrie, Flugzeugtechnik, Militärluftfahrt sowie Raumfahrt.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t/>
+          <t>Dachauer Straße 37b 85230 Bergkirchen Germany Phone : +49 8131 5655 0 Fax : +49 8131 5655 10 info@ppvmedien.de www.ppvmedien.de</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation Insurance: Manned &amp; Unmanned General Aviation Private Owners, Flight Schools, Flight Clubs Maintenance Companies Pilot Insurances (LOL , TREX) Aviation Consultancy Commercial &amp; Marketing Support.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t/>
+          <t>Koetsierwaard 16 6846 EX Arnhem Netherlands Phone : +31646135279 aukje@flight-deck.nl https://flight-deck.nl/</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 3 99820 Hörselberg Hainich Germany www.flightdesign.com</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 3 99820 Hörselberg Hainich Germany Phone : +49 36920 7530-10 info@flightdesign.com www.flightdesign.com</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t/>
+          <t>Ahastraße 5 64285 Darmstadt Germany Phone : +49 6151 339933 Fax : +49 6151 339930 ifos@ifos.de www.flightplanner.de</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstraße 95 41066 Mönchengladbach Germany Phone : +49 2161 6898-0 sevde.katran@flughafen-mgl.de www.mgl.de</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8565,12 +8565,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz Eberswalde Finow 24/7 O/R bei Berlin, Kraftstoffe, Hangar, uvm.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 1 16227 Eberswalde Germany Phone : +49172 1331623 ops@edav.eu www.edav.eu</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t/>
+          <t>Wulfsweg 6 26209 Hatten Germany Phone : +49 4481 927976 Fax : +49 4481 927976 info@edwh.de www.edwh.de</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t/>
+          <t>Zum Verkehrslandeplatz 1 03119 Welzow Germany Phone : 035751-13833 info@flugplatz-edcy.de www.airport-welzow.de</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -8646,12 +8646,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t/>
+          <t>Verkehrslandeplatz</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 3 03058 Neuhausen/Spree Germany www.flughafen-cottbus.de</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t/>
+          <t>Avenue du Grey 117 1018 LAUSANNE Switzerland www.fly7-training.com</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t/>
+          <t>Klammstr. 22 6250 Kundl Austria Phone : +43 664 1009386 reinhard@fly-west.aero http://www.fly-west.at</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -8727,12 +8727,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t/>
+          <t>Innovative Avionics for Experimental, LSA and ultralight aircrafts. Since 1982.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Mortara 192 -194 27038 Robbio (PV) Italy Phone : +39 0384 670602 info@flyboxavionics.it www.flyboxavionics.it</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t/>
+          <t>Wir sind ein gemeinnütziger Verein, der seit 2010 Flüge für Kinder vermittelt, die aufgrund ihres körperlichen, geistigen oder seelischen Zustandes auf die Hilfe anderer angewiesen sind. Wir fliegen diese Kinder in Hospize, Krankenhäuser oder in den Urlaub. Für die Kinder sind diese Flüge kostenlos.</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t/>
+          <t>Einbrunger Straße 63G 40489 Düsseldorf Germany Phone : +49 211 17454794 info@flyinghope.de www.flyinghope.de</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -8781,12 +8781,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t/>
+          <t>Fachzeitschriften</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t/>
+          <t>Buttersteig 11 16831 Rheinsberg OT Zühlen Germany www.flying-pages.com, www.widola.com</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t/>
+          <t>VIA Londonio Francesco 15 20154 Mailand Italy</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -8835,12 +8835,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t/>
+          <t>FlySto.net is an innovative flight data analysis and visualization software that transforms your aircraft avionics logs into knowledge to provide you valuable insights of your flights so you can keep discovering, improving and learning from your flying.</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t/>
+          <t>Huidekoperstraat 26 1017ZM Amsterdam Netherlands Phone : +436706504736 patrick@flysto.net www.flysto.net</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t/>
+          <t>Wilhelmstr. 34 71034 Böblingen Germany www.splitwing.de</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -8889,12 +8889,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t/>
+          <t>ForeFlight was founded in 2007 by aviation entrepreneurs who set out to build elegant, high-performing flight planning and flight bag apps for pilots. ForeFlight Mobile, the company’s flagship product, is used by individual pilots and professional flight crews all over the world to efficiently gather weather and destination information, route plan and file, access and manage electronic charts and maps, organize flight publications, reference as an enroute navigation aid, and manage iPad deployments. ForeFlight serves pilots and flight crews in all segments of aviation, including personal, business, commercial, and military. In addition, the company’s Pilot Support Team delivers amazingly fast and friendly customer service. In 2019, ForeFlight joined the Boeing team as part of Boeing Global Services. Learn more at www.foreflight.com.</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t/>
+          <t>2323 S Shepherd Dr, Ste 912 77019 Houston United States www.foreflight.com</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -8916,12 +8916,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t/>
+          <t>Netzwerk rund um Mobilität, ob Luftfahrt, Automotive, Schiene und Energie. Zu den Aufgaben gehören Standortmarketing und Standortentwicklung. Wir sind zentraler Ansprechpartner für Unternehmen, Investoren und potentielle Projektpartner:innen</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t/>
+          <t>Lilienthalplatz 5 38108 Braunschweig Germany Phone : +49 531 36260100 meyer@forschungsflughafen.de www.forschungsflughafen.de</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -8943,12 +8943,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t/>
+          <t>Propellers for ULM, Constant speed propellers for ULM and UAV, constant speed propeller controller, spinner, hydraulic constant speed propeller</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t/>
+          <t>Via C. Colombo, 37/E 44124 Ferrara (FE) Italy www.fp-propeller.com/</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -8970,12 +8970,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Fraunhofer IISB stellt dieses Jahr mit seinem Projekt Evolonic eine auf Langstreckendrohnen basierende Lösung zur frühzeitigen Erkennung von Waldbränden vor. Zusätzlich kann die nächste Generation von elektrischen Antriebssystemen mit höchsten Leistungsdichten für die Luftfahrt betrachtet werden</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t/>
+          <t>Schottkystraße 10 91058 Erlangen Germany info@evolonic.de https://www.evolonic.de</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t/>
+          <t>Ziegelstraße 20 88255 Baindt Germany</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -9024,12 +9024,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Freundes- und Förderkreis Do X e.V. ist ein gemeinnütziger Verein mit dem satzungsgemäßen Ziel das legendäre Flugschiff Dornier Do X als 1.1 Objekt wieder aufzubauen. Sehen Sie die Nachkonstruktion des Flugschiffs als Virtual Reality und erste Aufbauergebnisse auf dem Stand B4-405.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t/>
+          <t>Hirbachweg 10 88048 Friedrichshafen Germany www.do-x-vision.de</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -9051,12 +9051,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t/>
+          <t>FRIEBE LUFTFAHRT-BEDARF mit Sitz in Mannheim, gehört seit 1951 zu den führenden europäischen Anbietern für Luftfahrtausrüstung. FRIEBE LUFTFAHRT-BEDARF founded in 1951 &amp; based in Mannheim, Germany is one of the leading Suppliers for Aeronautical supplies in Europe.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t/>
+          <t>Seckenheimer Landstraße 176 68163 Mannheim Germany Phone : +49 621 700 1890 Fax : +49 621 700 18920 info@friebe.aero www.friebe.aero</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t/>
+          <t>FS-FlightControl ist eine touch-optimierte Instructor Station für Lockheed Martin Prepar3D, Microsoft Flight Simulator und X-Plane: Positionierung, Echtzeit-Karte, Wettersteuerung, Pushback, Betankung/Beladung und vieles mehr!</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t/>
+          <t>Marsstraße 78 80335 München Germany www.fs-flightcontrol.com</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -9105,12 +9105,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t/>
+          <t>Die FTI ist seit über 20 Jahren Herstellbetrieb von Video Sicherheitssystemen in der Luftfahrt. Als EASA zugelassene Design Organisation führt FTI außerdem Modifikationen an Business- und Missionsflugzeugen durch: • Cockpit Modifications • Cabin Interior Upgrades • Mission Aircraft Conversions</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t/>
+          <t>Ludwig-Witthöft-Straße 14 15745 Wildau Germany Phone : +49 3375 52350 www.ftigroup.net</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -9132,12 +9132,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t/>
+          <t>GPS 4K Drohen WIFI Kamera Drohnen R/C Spielwaren Trend Spielwaren</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t/>
+          <t>Bornstr. 9 57629 Luckenbach Germany www.meinspielwarenhaus.de</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -9159,12 +9159,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t/>
+          <t>The G1, a Super STOL (Short Take-Off and Landing) ULA aircraft adapted for mountain flights. The G1, a safe ULA aircraft. Equipped with a survival cabin made from argon welded square tubes (25 CD 4S), it garanties maximum security for the pilots (like in Formula 1). The G1, a ULA aircraft made up of a fuselage and a wing surface made from Aluminium 2024T3 Alclad in compliance with aeronautical norms. The fuselage, fixed to the survival cabin, is made up of a load-bearing structure comprising 7 formers joined together by 5 stringers. The wing is made up of two spars with 13 ribs. The G1, a ULA aircraft equipped with wings foldable in 20 minutes. Once the wings are folded, the G1 can be taken on the road. The G1, a ULA aircraft conceived with the pilot’s comfort in mind. The cabin is one of the widest available (1m22), it is equipped with dual controls with removable sticks, it is ventilated and heated. The G1, a ULA aircraft with carefully thought out ergonomics. It is equipped</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t/>
+          <t>360, rue Pierre Georges Latécoère 05130 TALLARD France https://g1aviation.com/</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -9186,12 +9186,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t/>
+          <t>Zeitschriften</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t/>
+          <t>AvBuyer House KT7 0RY Surrey United Kingdom www.avbuyer.com</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz 17 34379 Calden Germany Phone : +49 5674 9210044 Fax : +49 5674 9210045 info@gadringer-gurte.de www.gadringer-gurte.de</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -9240,12 +9240,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t/>
+          <t>Rescue parachute systems, GRS, GBS10 series for light drones, 10M Robur for VTOL aircrafts, Parachute systems for helicopters/gyrocopters</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t/>
+          <t>Tr.1 maje 66/24a 460 07 Liberec III-Jeráb Czech Republic www.galaxysky.cz</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -9267,12 +9267,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t/>
+          <t>Engine Overhaul, Kingair ASF and Part 21</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t/>
+          <t>Hangar 62A North East Sector Airport BH23 6N3 Hurn Parley United Kingdom www.gamaaviation.com</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -9294,12 +9294,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t/>
+          <t>Range of cutting edge Avionics products to match every budget. From GPS products, Electronic Flight Instrumentation, Electronic Engine Indication, Autopilots, Flight Planning Tools, and even Pilot Watches. Garmin will also be hosting 8 customer information sessions per day, at the Garmin exhibition.</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t/>
+          <t>1200 E. 151st Street 66062-3426 Olathe, KS United States Phone : +1 913 3978200 Fax : +1 913 3978282 avionics.europe@garmin.com www.garmin.com</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t/>
+          <t>1200 E. 151st Street 66062-3426 Olathe, KS United States www.garmin.com</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t/>
+          <t>1200 E. 151st Street 66062-3426 Olathe, KS United States www.garmin.com</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t/>
+          <t>1200 E. 151st Street 66062-3426 Olathe, KS United States www.garmin.com</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -9402,12 +9402,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t/>
+          <t>Luftfahrthistorische Ausstellung (Thema wird noch festgelegt) und Informationsstand</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Studio 2 12489 Berlin Germany www.luftfahrtstaetten.de</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t/>
+          <t>Mechanische Bordinstrumente für Sport-, Segel-, und UL-Flugzeuge Stau-Statistik-Prüfkoffer IPK22 Zubehör</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t/>
+          <t>Hauptstraße 25 72417 Jungingen Germany www.winter-instruments.de</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -9456,12 +9456,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t/>
+          <t>Finanzierung, Kredit, Leasing, Versicherungen</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t/>
+          <t>Robert-Daum-Platz 1 42117 Wuppertal Germany Phone : +49 202 382 1000 Fax : +49 202 382 1001 service@gefa.de www.gefa-bank.de</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t/>
+          <t>Große Wiese 4 96114 Hirschaid Germany www.geigerengineering.de</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t/>
+          <t>Große Wiese 4 96114 Hirschaid Germany www.geigerengineering.de</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -9537,12 +9537,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionik Autopiloten für Starrflügler</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t/>
+          <t>One S-TEC Way 76067 Mineral Wells United States genesys-aerosystems.com</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -9564,12 +9564,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t/>
+          <t>Berufsverband - Erstellung von Gutachten in der Luftfahrt - Ausbildung und Beratung in der Luftfahrt - Fachzeitschrift: German Aviation News (GAN)</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenring 11 44319 Dortmund Germany Phone : +49 176 45744670 klaus.lehmkoester@gmail.com www.gaea.aero</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -9591,12 +9591,12 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t/>
+          <t>Motion transmission parts (rod ends, sperical bearings, bushings, shaft coupllings)</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t/>
+          <t>Lungobisagno Istria 29 L-R 16141 Genova Italy www.getecno.com</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t/>
+          <t>ViaD´antona 1 60033 Chiaravalle Italy www.gigole-store.com</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -9645,12 +9645,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t/>
+          <t>CO EXPOSITION WITH OSAC</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t/>
+          <t>22, avenue Franklin D. Roosevelt 75008 Paris France www.gipag.fr</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t/>
+          <t>Liststraße 4 89079 Ulm Germany www.glasemann-systems.com</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -9699,12 +9699,12 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugzeugersatzteile</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t/>
+          <t>Fieseler-Storch-Str. 10 34379 Calden Germany www.globalaviation24.com</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -9726,12 +9726,12 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Global Helicopter Service GmbH stellt als international tätiges Luftfahrtunternehmen spezialisierte Hubschrauberdienstleistungen zur Verfügung. Diese werden derzeit mit dem Hauptfokus auf afrikanische Länder und den mittleren Osten für Hilfsorganisationen und staatliche Einrichtungen erbracht.</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t/>
+          <t>Watzmannstraße 1 83417 Kirchanschöring Germany Phone : +49 8685 37799 - 0 Fax : +49 8685 37799 - 10 info@g-h-service.com www.g-h-service.com</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -9753,12 +9753,12 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t/>
+          <t>Wartung, Instandsetzung, Avionik</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t/>
+          <t>Im Nonnenkäulchen 6 56814 Illerich Germany Phone : +49 2606 96487 10 a.goi@gma.gmbh www.gmaviation.de</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -9780,12 +9780,12 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t/>
+          <t>GO-ERP, a professional team of Microsoft certified specialists, offers you a comprehensive package of Dynamics 365 services. The range is based on deep systems’, technologies and business processes know-how. Benefit from covering all your needs from one trusted hand.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t/>
+          <t>Pilaites pr. 16 LT-04126 Vilnius Lithuania Phone : +37061540779 info@go-erp.eu www.go-erp.eu</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t/>
+          <t>GOGETAIR is an aircraft producer from Slovenia EU. G750 is a modern composite 2-seat light aircraft with an legal useful load of 350kg, and a range of up to 1000NM. It fulfills the mission of a long-range comfortable travel aircraft with long endurance and baggage allowance of up to 90kg.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t/>
+          <t>Zice 107 3215 Loce Slovenia Phone : +385995495959 www.gogetair-aircraft.com</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -9834,12 +9834,12 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t/>
+          <t>Bremssysteme, Bremsbeläge, Bremsscheiben, Bremsbeläge, Bremscaliper, verschiedene Bremskomponenten</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t/>
+          <t>Nemocnicni 471 54701 Nachod Czech Republic Phone : 00420466682065 goldfren@goldfren.cz www.goldfren.com</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -9861,12 +9861,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t/>
+          <t>GROPPO AVIAZIONE: Entwickler und Hersteller ultraleichter Flugzeuge GROPPO G70-600 / GROPPO TRAIL mit Sitz in Italien/Lombardei seit 1983</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t/>
+          <t>Strada Provinciale 4, SNC 27030 Mezzana Bigli (PV) Italy Phone : +39 0384 88097 info@groppo.it www.groppoaviazione.com</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -9888,12 +9888,12 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t/>
+          <t>Delta Hangar</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t/>
+          <t>Gewerbegebiet Handwerk 10 84339 Unterdietfurt Germany www.ul-hangar.com</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -9915,12 +9915,12 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t/>
+          <t>CO Detectors, Ipad Mounts, USD Power Supplies</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t/>
+          <t>1840 E. Valencia Rd 85756 Tucson United States www.guardianavionics.com</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t/>
+          <t>500 Gulfstream Road 31408 Savannah, Georgia United States www.gulfstream.com</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -9969,12 +9969,12 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t/>
+          <t>Elek. Vorrotation - patentierte Schiebetüren - 6 Zylinder Motor Tundra-Tyres, Gepäckfächer 2x50 lt Optionen: Custom-Built, Einfache Wartung</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t/>
+          <t>Viktoriarain 1 3001 Bern Switzerland www.gyron.pro</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t/>
+          <t>H55 provide modular Electric propulsion system vor VLA. The core of H55s proprietary technology and Competencies includes an integrated power, propulsion and battery management system and power management computer. H55's first customer application, the Bristell B23 Energic is an all-electric 2-seater, pilot trainer airplane, weighing 850kg, with payload of 200kg an an endurance of 1.5 hours manufactured by BRM Aero.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t/>
+          <t>Route de l'Aéroport 10 1950 Sion Switzerland h55.ch</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -10023,12 +10023,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t/>
+          <t>Multirotor- und Starrflügeldrohnen für BOS und Sicherheitsanwendungen. Die robusten Drohnen sind mit leistungsfähiger Sensorik und innovativer multi-link-Kommunikation ausgerüstet. Die Boden- und Transportsysteme sind ebenso für den harten Einsatz ausgelegt. Gerne tauschen wir uns mit Ihnen aus.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Köhl-Str. 7 28199 Bremen Germany Phone : +49 421 5967942-0 info@hanseatic-avs.de https://www.hanseatic-avs.de/</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -10050,12 +10050,12 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t/>
+          <t>Propeller / Propellers, governors</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t/>
+          <t>One Propeller Place 45356 Piqua United States www.hartzellprop.com</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t/>
+          <t>Lilienthalstr. 15 85579 Taufkirchen Germany www.hattec.de</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -10104,12 +10104,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t/>
+          <t>1 ultra-light aircraft ; 1 ultra-light helicopter ; regional airfields</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t/>
+          <t>13, Avenue Maréchal Foch - BP46 05002 GAP Cedex France www.hautes-alps.net</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -10131,12 +10131,12 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t/>
+          <t>hb-air Flugschule im neuen Flugzeughangar am VLP Mengen. 2 Motor- 2 UL- 2 Segelflugzeuge, TMG Wir bilden Sie zum Piloten aus und natürlich auch Piloten weiter. LAPL-A Pilotenschein, TMG, Segelflugausbildung, Ultraleichtflugausbildung, Schlepppilotenausbildung, Spornradeinweisung, Checkflüge, Rundfl</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 16 88367 Hohentengen Germany Phone : +49 171 7213092 flugschule@hb-air.de www.hb-air.de</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t/>
+          <t>Charles-de-Gaulle-Platz 1 50679 Köln Germany Phone : +49 221 144-61826 Fax : +49 221 144-2493 industrie.luftfahrt@hdi.global www.hdi.global</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -10185,12 +10185,12 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugschule</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flughafen 34 41066 Mönchengladbach Germany info@heli-nrw.de http://www.heli-nrw.de</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -10212,12 +10212,12 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugschule, Frachtflüge, Personenflüge, Wartungsbetrieb</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t/>
+          <t>Hans-Fleissner-Straße 50 63329 Egelsbach Germany www.helitransair.com</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -10239,12 +10239,12 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t/>
+          <t>Robinson R44 Helicopter</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 61203 Reichelsheim Germany www.heli-flight.de</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t/>
+          <t>Aerodrome d'Aix-en-Provence 13290 AIX-EN-PROVENCE France Phone : +33 4 42 39 10 80 Fax : +33 4 42 39 10 82 sales@guimbal.com www.guimbal.com</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -10293,12 +10293,12 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t/>
+          <t>Horizon - Your Portable Glass Cockpit SensorBox Prototyp eines Festeinbauglascockpits</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t/>
+          <t>Weinbergstraße 24 72218 Wildberg Germany www.helios-avionics.com</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -10320,12 +10320,12 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t/>
+          <t>We offer Robinson Helicopter Co. spare parts and maintenance of Robinson Helicopters. We are also a distributor for the Dynavibe track and balance equipment.</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t/>
+          <t>Leeds Heliport LS19 7XS Leeds United Kingdom</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -10347,12 +10347,12 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t/>
+          <t>Leader in Offshore Transportation, Hoist Operations, Helicopter Maintenance and HEMS HeliService International, founded in 1987, is one of the world’s leading helicopter wind offshore transportation companies with 170 employees, as well as maintenance for Leonardo and Airbus helicopters and HEMS.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t/>
+          <t>Gorch-Fock Straße 105 26721 Emden Germany Phone : +494921368010 info@heliservice.de www.heliservice.de</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -10374,12 +10374,12 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t/>
+          <t>Propeller</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t/>
+          <t>Merzbrück 206 52146 Würselen Germany www.helix-propeller.de</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -10401,12 +10401,12 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Helko-Verlag hat im April 2022 das Magazin LuftSport übernommen. Mit 15.000 -28.000 Exemplaren (je nach Ausgabe) gehört das Magazin zu einem der auflagenstärksten Luftfahrtzeitschriften Deutschlands. Die Leser erhalten sechsmal jährlich Informationen über alle sieben Luftsportarten.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t/>
+          <t>Keltenring 10 56072 Koblenz Germany Phone : +49 261 88979433 info@helko-verlag.de www.luftsportmagazin.de</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -10428,12 +10428,12 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t/>
+          <t>HeART - Henrici Anti Reaction Torque Elektrischer Antrieb mit Momentenausgleich</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t/>
+          <t>Bornweg 15 49152 Bad Essen Germany Phone : +49 176 34408327 guido.henrici@freenet.de</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t/>
+          <t>HENSOLDT is a leading company in the European defence industry based in Taufkirchen, Germany. It develops complete sensor solutions for defence and security applications. With more than 6,500 employees, HENSOLDT achieved a turnover of 1.7 billion euros in 2022. HENSOLDT is listed on the MDAX.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t/>
+          <t>Willy-Messerschmitt-Straße 3 82024 Taufkirchen Germany Phone : +49 89 51518-0 info@hensoldt.net www.hensoldt.net</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -10482,12 +10482,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t/>
+          <t>Heron engines is a start up company based in Cyprus. We have developed and fly the first turboprop engine for Ultralight,LSA, experimental acfts and UAVs.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t/>
+          <t>Markelinou Ammianou 6 CY 4170 kato Polemidia Cyprus www.heronengines.com</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -10509,12 +10509,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t/>
+          <t>HHLA Sky entwickelt skalierbare Mobile-Robot-Management-Lösungen für den Einsatz von automatisierten Drohnen und mobilen Roboter – simultan an unterschiedlichen Einsatzorten und unter besonderer Berücksichtigung der Anforderungen von Behörden und Organisationen mit Sicherheitsaufgaben.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t/>
+          <t>Bei St. Annen 1 20457 Hamburg Germany Phone : +49 40 3088 3216 www.hhla-sky.de</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t/>
+          <t>3565 NE Cornell Rd 97124 Hillsboro United States Phone : +1 503 726 3000 Fax : +1 503 6481886 info@flyhaa.com www.flyhaa.com</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t/>
+          <t>Professional flight training, airplanes &amp; helicopters</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t/>
+          <t>3565 NE Cornell Rd 97124 Hillsboro United States www.flyhaa.com</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t/>
+          <t>3565 NE Cornell Rd 97124 Hillsboro United States www.flyhaa.com</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -10617,12 +10617,12 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t/>
+          <t>LSA/UL and UAV 2 stroke Engines</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t/>
+          <t>Max-Eyth-Straße 10 71726 Benningen Germany www.hirthengines.com</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t/>
+          <t>Max-Eyth-Straße 10 71726 Benningen Germany www.hirthengines.com</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t/>
+          <t>Kurt-Schumacher-Ring 18 65197 Wiesbaden Germany www.hs-rm.de</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -10698,12 +10698,12 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t/>
+          <t>Honda Aircraft Company is a wholly owned subsidiary of American Honda Motor Co., Inc. responsible for the development, sales and production of the innovative HondaJet Elite II. Founded in 2006, Honda Aircraft's world headquarters is located in North Carolina, the birthplace of aviation.</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t/>
+          <t>6430 Ballinger Rd. 27410 Greensboro United States Phone : +1 336-662-0246 Fax : +1 Timothy_Peters@haci.honda.com www.hondajet.com</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -10725,12 +10725,12 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t/>
+          <t>Honeywell and BendixKing continue to lead pilot safety and efficiency by shaping the future of General Aviation. Learn more about the full suite of advanced GA solutions at Honeywell BendixKing in Hall A3 Stand 207.</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t/>
+          <t>1944 E Sky Harbor Circle N 85034 Phoenix AZ United States Phone : +1 801 899 5365 stephen.hayden@honeywell.com www.bendixking.com</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -10752,12 +10752,12 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugschule (ATO) PPL-ATPL Airline Cadet Programme mit Helvetic Airways und EasyJet Switzerland;Maintenance Training Organisation (Part-147) für Embraer Typen; Operator Training Verkaufen Dienstleistung, keine Produkte</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t/>
+          <t>Steinackerstraße 56 8302 Kloten Switzerland www.horizon-sfa.ch</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -10779,12 +10779,12 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t/>
+          <t>Hourbuilding.aero helps you to build quality flight hours quickly and efficiently to reach your dream of becoming a Commercial Pilot sooner. Our mentored PIC flight hour building packages include international flying opportunities on a new Garmin glass cockpit aircraft, and accommodation in Budapest</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t/>
+          <t>Somlyoi Nagy Sandor utca 3 1048 Budapest Hungary Phone : +36 20 287 7955 balazs@hourbuilding.aero https://hourbuilding.aero</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -10806,12 +10806,12 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t/>
+          <t>Wir leisten humanitäre Hilfe durch präzise Luftabwürfe, Luftüberwachung und ein weltweites Netzwerk der zivilen Luftfahrt. Wir leisten Pionierarbeit mit Erfindergeist und nutzen und entwickeln die Luftfahrt weiter, um Menschen in Not zu helfen</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonnenbergstrasse 20 9038 Rehetobel Switzerland Phone : +41792452084 pascal@hpi.swiss www.hpi.swiss</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonnenbergstrasse 20 9038 Rehetobel Switzerland www.hpi.swiss</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t/>
+          <t>Lichtentalerstraße 14 76530 Baden-Baden Germany www.hybrid-airplane.com</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -10887,12 +10887,12 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t/>
+          <t>CH77 Ranabot (Helicopter ULM 2x seats)</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t/>
+          <t>Le Pont Long 04400 Barcelonnette France www.helisport.fr</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t/>
+          <t>Strada Provinciale 16 - Km 15, 150 14022 Castelnuovo Don Bosco (AT) Italy Phone : +39 011 9927503 Fax : +39 011 9927266 info@icp.it www.icp.it</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t/>
+          <t>421 Aviation Way 21701 Frederick, MD United States Phone : +1 301 695 2221 Fax : +1 301 695 2375 iaopa@aopa.org www.iaopa.org</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -10968,12 +10968,12 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t/>
+          <t>The APlBOX from iAero is a flight data recorder and monitoring system designed for General and Corporate Aviation allowing analysis of various aircraft and flight parameters on a dedicated and user-friendly software. iAero also provides worldwide flight testing services for helicopters and aircrafts</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t/>
+          <t>12b Route de Troyes 21121 Darois France Phone : +33 3 80736026 Fax : +33 3 80356409 info@iaero.fr https://www.iaero.fr</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -10995,12 +10995,12 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t/>
+          <t>Aktuelle Prototypen der Akademischen Fliegergruppen: Segelflugzeuge und Motorsegler</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t/>
+          <t>Pfaffenwaldring 35 70569 Stuttgart Germany www.idaflieg.de</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -11022,12 +11022,12 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t/>
+          <t>Interessengemeinschaft der regionalen Flugplätze e.V. (IDRF) European Regional Aerodromes Community (ERAC) Informationen zur Dezentralen Luftfahrt in Deutschland und Europa</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t/>
+          <t>Seckenheimer Landstraße 172 68163 Mannheim Germany https://www.idrf.de/</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t/>
+          <t>Ahastraße 5 64285 Darmstadt Germany Phone : +49 6151 339933 Fax : +49 6151 339930 ifos@ifos.de www.flightplanner.de</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -11076,12 +11076,12 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Industrie- und Handelskammer Cottbus, eine Körperschaft öffentlichen Rechts, organisiert diesen Messestand, der mit Mitteln der Europäischen Union und des Landes Brandenburgs gefördert wird. Zur Zeit sind rund 35 000 Unternehmen aus Industrie, Handel und Dienstleistungen hier Mitglied.</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t/>
+          <t>Goethestraße 1 03046 Cottbus Germany Phone : +49 355 3650 Fax : +49 355 365261311 antje.wendenburg@cottbus.ihk.de www.cottbus.ihk.de</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t/>
+          <t>102 rue Liland 67310 TRAENHEIM France www.ihmati.fr</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t/>
+          <t>Stockhornweg 12 3250 Lyss Switzerland www.flightforum.ch</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonnenbergstrasse 6 8212 Neuhausen am Rheinfall Switzerland</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -11184,12 +11184,12 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t/>
+          <t>Innovence Airport Systems GmbH ist spezialisiert auf das Projekt- und Produktgeschäft für die Lieferung und Montage von technischen Infrastrukturanlagen, insbesondere Befeuerungsanlagen, auf Flughäfen, Fliegerhorste sowie Hubschrauberlandeplätze.</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t/>
+          <t>Weberstraße 18 14548 Schwielowsee Germany Phone : +49 33209 848250 info@innovence.de www.innovence.de</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -11211,12 +11211,12 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t/>
+          <t>Rettungsfallschime</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t/>
+          <t>Wilhelm-Röntgen-Strasse 1 58300 Wetter-Volmarstein Germany www.buchsein.com</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -11238,12 +11238,12 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t/>
+          <t>IASA, a non-profit association founded in 2013 and based in Bonn, Germany, advocates the progress of sustainability &amp; innovation in aviation via technical conferences, seminars &amp; workshops. The next annual summit 'GREENER SKIES AHEAD' will be held in November 2023. See www.iasaev.org for details.</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t/>
+          <t>Godesberger Allee 70 53175 Bonn Germany Phone : +49 172 2022493 rd@iasaev.org www.iasaev.org</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t/>
+          <t>Werfstraat 89 1570 Galmaarden Belgium www.ivao.aero</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -11292,12 +11292,12 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t/>
+          <t>Dokumentation von Flugaktivitäten auf kleinen Flugplätzen und Helipads auf Grundlage von Transponder (ADSB und Flarm) Informationen und der Verarbeitung von visuellen Informationen: Unterstützung des Flugbetriebs 24/7, Erstellung von automatisierten Flugbüchern, Unterstützung bei automatisierten Start/Landegebühren und Mobile Echtzeit-Warnung bei Gefahrensituationen</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t/>
+          <t>Westenstrasse 85229 Markt Indersdorf Germany www.iwiai.de</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -11319,12 +11319,12 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t/>
+          <t>Kunst Gemälde</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t/>
+          <t>Kirchstraße 11 88348 Bad Saulgau Germany</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -11346,12 +11346,12 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t/>
+          <t>Navigation software (charts) and pilot supplies.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t/>
+          <t>55 Inverness Drive East 80112 Englewood United States Phone : +1 (303) 799-9090 fra-services@jeppesen.com www.jeppesen.com</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -11373,12 +11373,12 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t/>
+          <t>JETPEL develops noiseless and environment-friendly powertrains for aircraft ranging from 1 occupant to 19 passengers as well as unmanned applications. The core innovation of the propulsion system is an ultra-silent ducted propeller - the Jetpeller. JETPEL also supports with engineering and testing.</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t/>
+          <t>Templergraben 55 52062 Aachen Germany Phone : +49 241 8095510 info@jetpel.com https://jetpel.com</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t/>
+          <t>Philipp-Reis-Str. 3 21614 Buxtehude Germany Phone : +49 4161 6531212 info@jh-aircraft.de www.jh-aircraft.de</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -11427,12 +11427,12 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t/>
+          <t>Fuel Control Units, Fuel Metering Units, Fuel Pumps, e Fuel Metering Pumps, APU Fuel Metering Units, APU Fuel Control Units, Ground fueling management systems, Tank protection system, Fuel transfer system, Propeller governors for piston engines, Propeller governors for turbine engines, Overspeed governors, Speed transmitters</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t/>
+          <t>Budejovicka 148 382 32 Velesin Czech Republic www.jihostroj.com</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -11454,12 +11454,12 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t/>
+          <t>VL3 evolution</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t/>
+          <t>Nadrazni 635 56501 Chocen Czech Republic www.jmbaircraft.com</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t/>
+          <t>Nadrazni 635 56501 Chocen Czech Republic www.jmbaircraft.com</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -11508,12 +11508,12 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t/>
+          <t>Airborne Optical Sectioning: https://github.com/JKU-ICG/AOS/</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t/>
+          <t>Altenbergerstr. 69 4040 Linz Austria Phone : +43-732-2468-6630 cg@jku.at www.jku.at/cg</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -11535,12 +11535,12 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t/>
+          <t>Stahlwaren aller Art</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t/>
+          <t>Steingewann 1b 67551 Worms Germany www.johndee.de</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -11562,12 +11562,12 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t/>
+          <t>Tragschrauber</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t/>
+          <t>Dopravna 3969 95501 Topolcany Slovakia www.nisus-aero.com</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t/>
+          <t>Wittumsgrund 4 78727 Oberndorf am Neckar Germany Phone : +49 7423 863620 bhuckenbeck@junkersaircraft.com</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -11616,12 +11616,12 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t/>
+          <t>Rettungssysteme Flugbedarf und Pilotenzubehör für die Luftfahrt, Werkzeuge, Öl und Schmierstoffe, Rettungssysteme, Rückfallschirme und vieles mehr.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 1 95326 Kulmbach Germany Phone : +49 9221 879312 Fax : +49 9221 879313 info@junkers-profly.de https://www.junkers-profly.de</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -11643,12 +11643,12 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t/>
+          <t>Kanardia is developing and producing high performance avionics for ultralight aeroplanes, helicopters and autogyros.</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t/>
+          <t>Lopata 24a 3000 Celje Slovenia Phone : +386 40 190 951 info@kanardia.eu www.kanardia.eu</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -11670,12 +11670,12 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t/>
+          <t>Kasaero is part of the HYFLY consortium. We are proud to show our hydrogen fuel cell aircraft this year. [We love making it Fly!] Kasaero is an aerospace engineering office since 2008. We create everything that flies, from R&amp;D and aircraft design to hands-on prototyping, testing and certification.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t/>
+          <t>Hessbruehlstr. 61 70565 Stuttgart Germany Phone : +49 711 88257171 kontakt@kasaero.de www.kasaero.de</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -11697,12 +11697,12 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t/>
+          <t>HYFLY™ is creating the first fully integrated hydrogen fuel cell propulsion system for light aircraft. It delivers quiet, long-range operation and zero CO2 emissions, setting a new standard for sustainable flight. The new hydrogen pressure tank offers a 50% weight and cost advantage over current solutions. The system gives a 30% reduction in operating costs compared to conventional powertrains, leveraging electric flight to a whole new standard. HYFLY™ entwickelt das erste voll integrierte Wasserstoff-Brennstoffzellen-Antriebssystem für Leichtflugzeuge. Dieses System ist leise, hat eine große Reichweite, verursacht keine CO2-Emissionen und setzt damit einen neuen Standard für nachhaltiges Fliegen. Der neuartige Wasserstoff-Drucktank bietet einen Gewichts- und Kostenvorteil von 50% gegenüber aktuellen Lösungen. Das System ermöglicht eine Senkung der Betriebskosten um 30% im Vergleich zu konventionellen Antrieben und bringt elektrisches Fliegen auf ein völlig neues Niveau.</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t/>
+          <t>Gründels 4 88316 Isny im Allgäu Germany www.kasaero.de</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -11724,12 +11724,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t/>
+          <t>New and overhauled Magnetos, EASA approved Repair Station and magneto parts</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t/>
+          <t>1400 East South Blvd. 36116 Montgomery, AL United States www.kellyaero.com</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -11751,12 +11751,12 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionics - displaying primary flight instruments</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t/>
+          <t>555 S. Topeka 67202 Wichita United States www.kellymfg.com</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -11778,12 +11778,12 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t/>
+          <t>KGS Electronics has been designing and manufacturing AC and DC solid state power conversion products since 1959, pioneering the application of solid state technology in aerospace applications. KGS is offering a wide variety of DC/DC, DC/AC, AC/DC and AC/AC inverters, convertors and power supplies.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t/>
+          <t>Eisenbahnstr. 5 79639 Grenzach-Wyhlen Germany Phone : +49 7624983717 Fax : +49 7624983718 a.zoellner@azcs.eu www.kgselectronics.com</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t/>
+          <t>Kohlröschenstrasse 45 80995 München Germany Phone : +49 170 9604029 Fax : +49 89 1419711 info@klarogmbh.com</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -11832,12 +11832,12 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t/>
+          <t>K1 S19 - K1 helicopter restyling, K3 - amphibious restlying of K1 helicopter, K2 big pay load 2 seater helicopter,</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Fratelli Solari n. 18 33020 Amaro Italy www.konnerturbine.com</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -11859,12 +11859,12 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t/>
+          <t>KRISTAL.aero is a family owned company with more than 45 years of experience. Our team is sharing common values : dynamism, rigor and enthusiasm. We allow an easy access to aircraft parts and bring quality, safety and confidence to buyers. Key figures : + 100 000 items available + 10 000 items in stock (France) + 500 happy customers + 50 countries delivered Our catalog INSTRUMENT, RADIO-NAVIGATION ALLUMAGE SYSTÈME CARBURANT, SYSTÈME FILTRATION DÉMARREUR, GÉNÉRATRICE BATTERIE, ÉCLAIRAGE, ÉLECTRICITÉ OXYGÈNE CELLULE PNEU, ROUE, FREIN TRAIN D'ATTERRISSAGE MOTEUR ÉLECTRIQUE, VÉRIN QUINCAILLERIE, TUYAUX, JOINT OUTILLAGE, ÉQUIPEMENT AU SOL Our distribution RAPCO RFS PMA PRODUCTS HEMICO AEROLEDS PALL CORPORATION AEROSPACE TURBINE ROTABLES SKY-TEC MICHELIN MCFARLANE</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t/>
+          <t>61-71 rue frederic mistral 34400 LUNEL France www.kristal.aero</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -11886,12 +11886,12 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t/>
+          <t>LAA CR</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t/>
+          <t>Ke Kablu 289 102 00 Praha 10 Czech Republic www.laacr.cz</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -11913,12 +11913,12 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t/>
+          <t>Laco blickt mit seinen Fliegeruhren, als Hersteller der berühmten Beobachtungsuhren der 40er Jahre auf eine lange Tradition zurück. Die heutige Kollektion bietet klassische Designs und moderne Interpretation – stets mit höchster Qualität, absoluter Verlässlichkeit und einer legendären Historie</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t/>
+          <t>Rastatter Straße 8 75179 Pforzheim Germany Phone : +49 7231 204130 info@laco.de http://www.laco.de</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -11940,12 +11940,12 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugzeuge, Bespanngewebe, Lacke, Plottfolien, Zubehör für Flugzeugbesannungen, Zierstreifen</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Ritterschlösschen 20 04179 Leipzig Germany www.oracover.de</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Ritterschlösschen 20 04179 Leipzig Germany www.oracover.de</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -11994,12 +11994,12 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t/>
+          <t>Leichtwerk is a sophisticated technology supplier with EASA Part 21J approval. Our focus lies on qualified and efficient solutions for manned and unmanned aviation including concept design, lightweight and composite structures, avionics and energy as well as flight guidance and operations.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 38 38108 Braunschweig Germany Phone : +49 531 245405-0 Fax : +49 531 245405-29 info@leichtwerk.de www.leichtwerk.de</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -12021,12 +12021,12 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t/>
+          <t>Levil Aviation</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t/>
+          <t>1704 Kannedy Point Suite 1124 32765 Oviedo United States http://www.aviation.levil.com/</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -12048,12 +12048,12 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionics, portable devices</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t/>
+          <t>1704 Kannedy Point Suite 1124 32765 Oviedo United States http://www.aviation.levil.com/</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -12075,12 +12075,12 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Liebherr-Aerospace Lindenberg GmbH ist einer der führenden europäischen Hersteller von Flugzeugausrüstungen. Die Produkte sind an Bord vieler Großraumflugzeuge, Business-Jets und Hubschrauber im Einsatz.</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t/>
+          <t>Pfänderstrasse 50-52 88161 Lindenberg Germany Phone : +49 838146 5784 andrea.hammrich@liebherr.com www.liebherr.com</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -12102,12 +12102,12 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t/>
+          <t>ANR Headsets</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t/>
+          <t>6135 Jean Road 97035 Lake Oswego United States www.lightspeedaviation.com</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -12129,12 +12129,12 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t/>
+          <t>AERO Disc</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t/>
+          <t>Mercatorstraße 16 4780 Sankt Vith Belgium Phone : +32 80 291 220 info@ligna-systems.com www.ligna-systems.com</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -12156,12 +12156,12 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t/>
+          <t>Airbus H125 Simulator</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonnentalstrasse 8 8600 Dübendorf Switzerland https://www.loftdynamics.com//</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -12183,12 +12183,12 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t/>
+          <t>Loft Dynamics® has designed, built and qualified the first VR training device as a type-specific Robinson R22 FNPT II and the Airbus H125 FTD Level 3 under EASA regulation.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t/>
+          <t>Sonnentalstrasse 8 8600 Dübendorf Switzerland Phone : +41 44 211 15 15 info@loftdynamics.com https://www.loftdynamics.com/</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t/>
+          <t>Knotwilgenweg 23 2220 Heist op den Berg Belgium www.loma-air.com</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t/>
+          <t>Knotwilgenweg 23 2220 Heist op den Berg Belgium www.loma-air.com</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t/>
+          <t>Greentree Road 45036 Lebanon United States https://www.lonemountainaircraft.com/</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -12291,12 +12291,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t/>
+          <t>BUYING OR SELLING AN AIRCRAFT SHOULD BE TURBULENCE-FREE. Take the stress out of aircraft transactions by putting our team of experts on your side of the table. With over 200 transactions per year, you can buy or sell with confidence knowing we will get the job done with your best interest in mind.</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t/>
+          <t>Biggin Hill TN163BH London United Kingdom Phone : +44 7794501432 Fax : +1 ppolman@lonemtn.com https://www.lonemountainaircraft.com/</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t/>
+          <t>Hangar 2 United Kingdom</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -12345,12 +12345,12 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t/>
+          <t>Engine Specialis 912 - 912s -914 -582 - 503 overhaul - repair - spare parts</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t/>
+          <t>6. Route de Stuckange 57310 Bertrange France www.loravia.com</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -12372,12 +12372,12 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t/>
+          <t>Wir schaffen wirtschaftliche Raumlösungen: von der Planung, über die Lieferung bis zur Montage! Unsere Hallensysteme sind die Lösung für Ihren Raumbedarf. Jede Halle wird passgenau gefertigt &amp; ist eine kostengünstige Alternative zu Massivbauten. Wir bauen indiv. Hangars als Unterstand für Flugzeuge.</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t/>
+          <t>Ringstraße 15 09241 Mühlau Germany Phone : +49 03722 / 71 97 40 info@ls-lagerhallen.de www.ls-lagerhallen.de</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t/>
+          <t>Behördeninformation</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t/>
+          <t>Herrmann-Blenk-Straße 26 38108 Braunschweig Germany www.lba.de</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -12426,12 +12426,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t/>
+          <t>Mit Luftraum Süd bieten wir eine einzigartige Eventlocation, welche nicht nur das Herz der Flugzeug-Enthusiasten höher schlagen lässt. Mit 1200m² flexibler Eventfläche sind wir perfekt für eine Vielzahl von Veranstaltungen gewappnet wie Konferenzen, Firmenveranstaltungen oder Präsentationen.</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t/>
+          <t>Römerstrasse 22 73450 Neresheim Germany Phone : +49 151 506 905 16 f.sparn@luftraum-sued.de www.luftraum-sued.de</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Straße 28 38108 Braunschweig Germany https://www.daec.de/luftsportgeraete-buero/</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -12480,12 +12480,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t/>
+          <t>Composite wing demonstrator Demonstrator of the composite main rotor blade for helicopter Multirotor propeller Horizontal stabilizer and elevator Automatic flight Stabilisation system using Trimmers AST-1 AST-1 Real-time Object Detection System UAV main landing gear Additive Manufacturing</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t/>
+          <t>al. Krakowska 110/114 02-256 Warsaw Poland Phone : +48 22 846 00 11 ilot@ilot.lukasiewicz.gov.pl https://ilot.lukasiewicz.gov.pl/en/</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t/>
+          <t>652 Oliver Street 17701 Williamsport, PA United States Phone : +1 520 337-5862 Fax : +1 520 327 7066 slynch@lycoming.com www.lycoming.com</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -12534,12 +12534,12 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t/>
+          <t>Lycoming Engines / Lycoming Motoren</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t/>
+          <t>652 Oliver Street 17701 Williamsport, PA United States Phone : +1 520 337-5862 Fax : +1 520 327 7066 slynch@lycoming.com www.lycoming.com</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -12561,12 +12561,12 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t/>
+          <t>FES system (Front Electric Self-launch/Self-sustainer) for high performance powered sailplanes. FES is innovative front electric propulsion system with electric motor and foldable propeller located in the nose of sailplane.</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t/>
+          <t>Brod 3D 1370 Logatec Slovenia www.front-electric-sustainer.com</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -12588,12 +12588,12 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionic Systems for ULM, flight management system, display systems, autopilot system, navigation system, onboard instruments, onboard instruments ULM/LSA</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Lombardia 2 25025 Manerbio (BS) Italy www.IFD-NET.com</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t/>
+          <t>Im Öschnach 8 89233 Neu-Ulm Germany www.mhw-aviation-art.de</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t/>
+          <t>Forsthof 1 88682 Salem Germany http://www.m4com.de/</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -12669,12 +12669,12 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t/>
+          <t>Bordtrolly, Pilotenkoffer, Lederaccessoires</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t/>
+          <t>Schwabhauser Str. 2 86947 Geretshausen Germany www.mack-lederwaren.de</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -12696,12 +12696,12 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t/>
+          <t>Magni Gyro Srl. has been created thanks to the rotary wing passion and knowledge of Mr. Vittorio Magni. Nowadays our company plays a very important role in the gyros' sector. Magni’s products are known around the world for safety, well-engineered design, quality workmanship and reliability.</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Volpina 23 21010 Besnate Italy Phone : +39 0331 274816 Fax : +39 0331 274817 info@magnigyro.it HTTP://www.magnigyro.com</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -12723,12 +12723,12 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t/>
+          <t>Gyrocopters; tandem gyroplanes; side-by-side gyroplanes; enclosed-cockpit gyroplanes; open-cockpit gyroplanes.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Volpina 23 21010 Besnate Italy Phone : +39 0331 274816 Fax : +39 0331 274817 info@magnigyro.it HTTP://www.magnigyro.com</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -12750,12 +12750,12 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t/>
+          <t>Magnus Fusion UL, ultralight low-wing side-by-side seater aircraft. Magnus Fusion 212, low-wing side-by-side seater light sport aircraft with UPRT approval by FAA.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t/>
+          <t>hrsz. 08/8. 7666 Pogány Hungary Phone : +36 30 412 1129 Fax : +36 info@magnus-aircraft.com www.magnus-aircraft.com</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t/>
+          <t>05-506 Magdalenka Poland www.argo.aero</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12804,12 +12804,12 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t/>
+          <t>Pilot emergency parachutes ATL</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t/>
+          <t>Okruzni II cp., 239 569 43 Jevicko Czech Republic www.marsjev.cz, www.marsjev.com</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12831,12 +12831,12 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t/>
+          <t>Ultraleicht Elektroflugzeug E120.</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t/>
+          <t>Holdereggenstrasse 3 88131 Lindau Germany</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -12858,12 +12858,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t/>
+          <t>Spezialist für mobile Tankanlagen auf Flugfeldern</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t/>
+          <t>Plauener Straße 112 08538 Weischlitz Germany Phone : +49 3741 548532 Fax : +49 3741 5485 42 info@maul-tank.de https://www.maul-tank.de</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -12885,12 +12885,12 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t/>
+          <t>Carbon fiber nose wheel (3.50-4" 4.00-5" 4.00-6" 6.00-6") Carbon fiber main wheel (4.00-5" 4.00-6" 6.00-6") Carbon fiber main&amp;nose landing gear Carbon fiber plate, tube and profile</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t/>
+          <t>Kucuk sanayi 20. Sokak Ismetpasa 17010 Canakkale Turkey Phone : +90 2862177979 info@maviidaenerji.com www.maviidaenerji.com</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -12912,12 +12912,12 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t/>
+          <t>For over 15 years, MCD-Tools has been considered the specialist for distribution, repair and maintenance of precision crimping tools in Europe. Thanks to first-class service, optimal consulting and our main Suppliers, DMC, Astro Tool and Ideal we find the right tool for your application.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t/>
+          <t>Kurmainzer Str. 119 61440 Oberursel Germany Phone : +49 6171 2779191 nmau@mcd-tools.de www.mcd-tools.de</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -12939,12 +12939,12 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t/>
+          <t>McFarlane specializes in high-quality FAA-PMA replacement parts. We offer a complete line of door and flight control cables, push-pull controls, cargo and seat rails, customer-designed and OEM parts, and many other unique products for the aerospace community. Committed to safety, quality and value.</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t/>
+          <t>684 E 1700 Road 66006 Baldwin City United States Phone : +1 785-594-2741 Fax : +1 785 594 3922 sales@mcfarlaneaviation.com www.mcfarlaneaviation.com</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -12966,12 +12966,12 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t/>
+          <t>Manufacturer and distributor of FAA-PMA aircraft parts</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t/>
+          <t>684 E 1700 Road 66006 Baldwin City United States www.mcfarlaneaviation.com</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -12993,12 +12993,12 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t/>
+          <t>AirportWeather.com/Meandair provides weather forecasting and nowcasting to all GA airports, heliports and pilots. Our continuously updated synthetic METAR and TAF provides actual and near-term conditions for ceilings, visibility, wind. Meandair delivers safety for GA flight planning and navigation.</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t/>
+          <t>Olof Palmestraat 14 2616LR Delft Netherlands Phone : +31 152629889 marketing@meandair.com https://www.meandair.com https://AirportWeather.com</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -13020,12 +13020,12 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t/>
+          <t>messWERK bietet Präzisionsmesstechnik zur Erprobung von Flugzeugen und für Forschungsprojekte als Dienstleistung an. Das Spektrum reicht von einer Fahrtmesserkalibrierung bis hin zu einem Messsystem für eine komplette Flugerprobung. messWERK betreibt ein eigenes Forschungsflugzeug (Remos GX).</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t/>
+          <t>Hermann-Blenk-Str. 27 38108 Braunschweig Germany Phone : +49 0531 3919811 info@messwerk-gmbh.de www.messwerk-gmbh.de</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t/>
+          <t>Röllinghäuser Straße 57 31061 Alfeld (Leine) Germany Phone : +49 5181 8459 0 Fax : +49 5181 269 05 info@w-funke.de www.w-funke.de</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -13074,12 +13074,12 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t/>
+          <t>MGM COMPRO is perceived as an innovative designer, developer and manufacturer of special electronics for aviation projects. The product portfolio includes Electric Propulsion Systems (5-400kW), Motors, Inverters, BMS, Battery Packs and Chargers, simply everything you need to make the e-aircraft fly.</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t/>
+          <t>Ruzova 307 76302 Zlin Czech Republic Phone : +420 577001350 Fax : +42 info@mgm-compro.com www.mgm-compro.com</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -13101,12 +13101,12 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t/>
+          <t>Instruments, Avionics</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t/>
+          <t>9400 E 34th Street N 67226 Wichita, KS United States www.mcico.com</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t/>
+          <t>Navigation analogue type aircraft instruments (ASI, ALT, VSI, GI), pitot-static systems, annunciator panels, control panels (equipped or not, illuminated or not, NVIS or not), cockpit and cabin lighting, pressure instrument and switches, end stop switches, power supply units and so on.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t/>
+          <t>Barrandova 409 143 00 Prag Czech Republic www.mikrotechna.cz</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -13155,12 +13155,12 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugmodelle, Flugspiele, Flugzeug Metallbausätze, Drachen, Windspiele,</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t/>
+          <t>Heinrich Diehl Str. 2 90552 Röthenbach Germany www.miniprop.com</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -13182,12 +13182,12 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t/>
+          <t>Werbe- und Infomaterial</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t/>
+          <t>Stumme-Loch-Weg 7 57072 Siegen Germany www.maf-deutschland.de</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t/>
+          <t>Brunnenstr. 29b 59494 Soest Germany Phone : +49 2921-3548422 bisanz@mk-seats.com http://www.mk-seats.com</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t/>
+          <t>Robert-Koch-Straße 15 53501 Grafschaft Germany Phone : 0049 2225 88870 mk@mk-technology.com www.mk-technology.com</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t/>
+          <t>Schneiderbäumlesweg 3 71336 Waiblingen Germany https://mobiflight.com</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -13295,7 +13295,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t/>
+          <t>Schneiderbäumlesweg 3 71336 Waiblingen Germany https://mobiflight.com</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -13317,12 +13317,12 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t/>
+          <t>Hersteller von Flugzeugpropellern und Zubehör für die Luftfahrt, Hovercraft, Windtunnel und Sonderinstallationen. Wartung und Service für Propeller verschiedener Hersteller. Repräsentant von AVIA Propeller / Teil der MT-Propeller Gruppe.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatzstraße 1 94348 Atting Germany Phone : +49 9429 9409 0 Fax : +49 9429 8432 sales@mt-propeller.com https://www.mt-propeller.com</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -13344,12 +13344,12 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t/>
+          <t>Helicopter Maintenance, Fixed Wing Maintenance, Avionics, Engine Shop, PArts sales, Charter</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t/>
+          <t>South Side Aviation Centre LS19 7UG Leeds United Kingdom www.multiflight.com</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t/>
+          <t>Forstweg 1 /Haus 4a 14656 Brieselang Germany www.multirotor.net</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -13398,12 +13398,12 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t/>
+          <t>MWFLY : Design and Production piston engine for aviation FLYMARE: TYRONA AIRCRAFT MXP1000 for LIGHT SPORT AVIATION AVIO-GYRO: GIROPLANE</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t/>
+          <t>Via C. Forlanini 76/D 20024 Garbagante Milanese Italy www.mwfly.it</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t/>
+          <t>Via C. Forlanini 76/D 20024 Garbagante Milanese Italy www.mwfly.it</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -13452,12 +13452,12 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t/>
+          <t>Glaskeramikversiegelung, Korissionsschutz, Steinschlagschutz, Rostschutz,</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t/>
+          <t>Industriestraße 17 66869 Kusel Germany www.nano-veredelung.com</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -13484,7 +13484,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t/>
+          <t>Burg J.G. Legroweg96 Netherlands www.nanuk.eu</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -13506,12 +13506,12 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t/>
+          <t>Luftfahrtversicherungen</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t/>
+          <t>Alte Gasse 14 72124 Pliezhausen Germany Phone : +49 7127 972420 Fax : +49 7127 975444 ulrike.neumann@axelneumann.de www.axelneumann.de</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -13533,12 +13533,12 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t/>
+          <t>Erstes Wasserstoff-Brennstoffzellen betriebenes eVTOL Lufttaxi als Design Mockup (8-Meter Spannweise x 6 Meter Rumpflänge) und der fliegende Prototyp (4 Meter Spannweite und 3 Meter Rumpflänge). Gegebenenfalls werden Komponenten des Antriebsystems wie die Brennstoffzelle offen im Rumpf oder auf einem separaten Tisch ausgestellt um die Technologie des Antriebstangs zu zeigen.</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t/>
+          <t>Mariendorfer Damm 1 12099 Berlin Germany www.nex.aero</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -13560,12 +13560,12 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t/>
+          <t>Nicelli Airport: the oldest civil airport in Italy and one of the most beautiful airports in the world!</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Renato Morandi 9 30126 Venezia Italy www.aeroportonicelli.com</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t/>
+          <t>Die NICKEL Holding GmbH hat eine leistungsstarke Drohne zur Wasserrettung mit integriertem Rettungsmittel sowie zusätzlichem AED entwickelt, welche per App oder auf Knopfdruck alarmiert werden kann.</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t/>
+          <t>Unter den Ulmen 150 50968 Köln Germany alexander.nickel@nickel-holding.de https://guardian-drones.com</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t/>
+          <t>3 Stck. Tragschrauber</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t/>
+          <t>21, Industrial Area 2161 Pravets Bulgaria www.nikiaviation.com</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t/>
+          <t>Stromsveien 344 1081 Oslo Norway</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -13668,12 +13668,12 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t/>
+          <t>Novotech VDS Seaplane "Seagull"</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t/>
+          <t>Strada Provinciale 143 km.2 74020 Avetrana Italy www.novotech.it</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -13695,12 +13695,12 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t/>
+          <t>TERRA-GRID E 35 Bodenbefestigung für Landebahnen, Taxiway und Parking Areas TERRA-GRID E 35 Grassreinforcement for Runways, Taxiways and Parking-Areas</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t/>
+          <t>Schlegelweg 10 95189 Köditz Germany Phone : +49 9295 9150740 Fax : +49 9295 9150739 info@novus-hm.com www.novus-hm.com</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -13722,12 +13722,12 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t/>
+          <t>Person des öffentlichen Lebens</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t/>
+          <t>Heusteigstr.42 72127 Kusterdingen Germany enquiry@klaus-ohlmann-adventures.com</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -13749,12 +13749,12 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t/>
+          <t>Die OptoPrecision GmbH stellt auf der AERO UAV - VTOL Komplettlösungen für Umweltmonitoring, Vermessungen und hoheitliche Aufgaben vor. Die Fluggeräte von OptoPrecision können bis zu 20 kg Nutzlast (unterschiedliche Sensoren) für mehrere Stunden in den Airborneeinsatz zu bringen.</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t/>
+          <t>Auf der Höhe 15 28357 Bremen Germany Phone : +49 4219496110 info@optoprecision.de www.optoprecision.de</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -13776,12 +13776,12 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t/>
+          <t>The M-8 EAGLE is a carbon fiber composite two-seat high wing aircraft. The aircraft has tricycle fixed landing gear with steerable nose. We can customize your airplane and create an original set up to make it your own only. You will be impressed by the wide range of options, high safety standards ..</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t/>
+          <t>Londýnská 57/376 12000 Praha 2 Czech Republic Phone : +420605231920 bervid@orlican.cz www.orlican.cz</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -13803,12 +13803,12 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t/>
+          <t>Emergency Locator Beacons</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t/>
+          <t>Z.I. des Cinq Chemins 56520 Guidel France www.orolia.com</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -13830,12 +13830,12 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t/>
+          <t>Exklusiver Deutschlandvertrieb für Luftfahrthelme von MSA GALLET. Kommunikationssysteme für Luftfahrthelme, ANR Systeme. Service und Reparatur von Pilotenhelmen. Vertrieb von Produkte der Aircraftspruce &amp; Specialty Co. Luftfahrttechnik für Piloten und Flugzeugbauer von Aircraft Spruce</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t/>
+          <t>Söhlerstraße 7 69254 Malsch Germany Phone : +49 7253 23143 airparts@t-online.de www.aircraftsprucegermany.com</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -13857,12 +13857,12 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t/>
+          <t>2022 übernehmen</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t/>
+          <t>Selchowstrasse 24b 12489 Berlin Germany www.ouv.de</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -13884,12 +13884,12 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t/>
+          <t>Over 100 years, men have been dreaming about a flying car, the Dutch PAL-V is making this dream into reality! On the roads, the Liberty is just like any other car, and after a short conversion of a couple of minutes you have an advanced gyroplane, ready to hit the skies. The vehicle is already road legal and is in the final stage of the aviation certification with EASA. With the PAL-V Liberty, for FlyDrive operations, the PAL-V is opening up the Advanced Air Mobility Market.</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t/>
+          <t>Baileybrugweg 13F 4941 TB Raamsdonksveer Netherlands www.pal-v.com</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -13911,12 +13911,12 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t/>
+          <t>Pilot Emergency Parachutes</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t/>
+          <t>19018 59th Dr. NE, Unit 2 98223 Arlington, WA United States www.softieparachutes.com</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -13938,12 +13938,12 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t/>
+          <t>WINGMAN Personenfallschirm in gewichtsangepassten Größen, sitzangepassten Formen und individuell verstellbar</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz Düren 1 66798 Wallerfangen Germany www.paratec.de</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -13965,12 +13965,12 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t/>
+          <t>Textilien</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t/>
+          <t>Eckenheimer Landstraße 431 60435 Frankfurt am Main Germany www.druckwinkler.de</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -13992,12 +13992,12 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t/>
+          <t>TARRAGON Ultralight aircraft</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t/>
+          <t>Traleru str.30 LV-1030 Riga Latvia http://www.tarragonaircraft.com/</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -14019,12 +14019,12 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t/>
+          <t>PETER H. BRAASCH offers unique competence in the aviation insurance market based on the accrued experience of its conscientious experts. It is cooperating with all German and international companies. Team of 22 experts - more than 5.000 customers - 30 countries</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t/>
+          <t>Hochallee 80 20149 Hamburg Germany Phone : +49 40 4191770 Fax : +49 40 41917777 info@phbraasch.de www.phbraasch.com</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -14046,12 +14046,12 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t/>
+          <t>The company will display in the stand the first Swiss fully electric race aircraft, the UR-1. The second plane we are manufacturing in 2024, the UG-2, is our first genuinely practical battery-electric aircraft and it will be available on the market as a carbon fiber kit.</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t/>
+          <t>Rue de la Tannerie 6 1315 La Sarraz Switzerland Phone : +41 79 179 40 00 https://www.pieaeronefs.ch</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -14073,12 +14073,12 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t/>
+          <t>Die 1939 gegründete Schweizer Pilatus Flugzeugwerke AG baut einzigartige Flugzeuge: den legendären PC-12, das meistverkaufte einmotorige Turbopropflugzeug seiner Klasse sowie den hochmodernen PC-24, der erste Businessjet, der auf kurzen Landebahnen und Naturpisten operieren kann.</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t/>
+          <t>Pilatusstrasse 1 6371 Stans Switzerland Phone : +41 41 619 67 00 Fax : +41 41 619 62 24 salespc24@pilatus-aircraft.com https://www.pilatus-aircraft.com</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -14100,12 +14100,12 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t/>
+          <t>Fachzeitschrift Pilot und Flugzeug und Vercharterung Leserflugzeuge</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 13 55126 Mainz-Finthen Germany www.pilotundflugzeug.de</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -14132,7 +14132,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t/>
+          <t>Wolfsgraben 2 97688 Bad Kissingen Germany</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t/>
+          <t>Fieseler-Storch-Straße 10 34379 Calden Germany www.piper-germany.de</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -14181,12 +14181,12 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t/>
+          <t>Wartung, Instandsetzung, Avionik, CAMO+</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t/>
+          <t>Fieseler-Storch-Str. 10 34379 Calden Germany Phone : +49 5674 704 80 Fax : +49 5674 704 88 maint@piper-germany.de www.piper-germany.de</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -14208,12 +14208,12 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t/>
+          <t>Piper Aircraft, Inc. headquartered in Vero Beach, Fla., offers aviators throughout the world efficient and reliable single- and twin-engine aircraft: The single-engine M-Class Series, the Twin Class and The Trainer Class. Piper Aircraft is a member of the General Aviation Manufacturers Association.</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t/>
+          <t>2926 Piper Drive FL 32960 Vero Beach United States Phone : +1 772 299 2884 sales@piper.com www.piper.com</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -14235,12 +14235,12 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugzeuge, Ersatzteile, Zubehör, Wartung, Instandsetzung, Avionik, CAMO+</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t/>
+          <t>Fieseler-Storch-Str. 10 34379 Calden Germany Phone : +49 5674 704 51 Fax : +49 5674 704 44 sales@piper-germany.de www.piper-germany.de</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t/>
+          <t>Goriska cesta 50a 5270 Ajdovscina Slovenia Phone : +386 (0)5 366 38 73 info@pipistrel-aircraft.com https://www.pipistrel-aircraft.com/</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -14289,12 +14289,12 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t/>
+          <t>Professional Aircraft Broker Comprehensive service of sale and purchase of aircraft We support and manage whole process of sale or purchase aircraft. Our goal is to be your external manager of transaction to proceed all without any turbulence Over 350 aircraft sold in last 8 years, to 39 countries</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t/>
+          <t>Lotniskowa 30 39300 Mielec Poland Phone : +48515626410 contact@plane4you.eu www.plane4you.eu</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -14316,12 +14316,12 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t/>
+          <t>A friendly mobile app designed for aircraft owners seeking insurance solutions from multiple providers. With Planesurance, you can easily find and purchase third-party and hull insurance policies tailored to your specific needs. Keep your planes protected as you navigate the skies.</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t/>
+          <t>Friedrichstraße 60 10117 Berlin Germany https://planesurance.app</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -14343,12 +14343,12 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t/>
+          <t>Vans Aircraft RV4 New Generation mit Rotax 915 .. als Ultraleicht</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t/>
+          <t>Schopenhauerstrasse 8 73431 Aalen Germany www.planeworx.de</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -14370,12 +14370,12 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t/>
+          <t>Pilatus PC-24</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t/>
+          <t>Rathausmarkt 5 20095 Hamburg Germany www.flyplatoon.com</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -14402,7 +14402,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t/>
+          <t>Rathausmarkt 5 20095 Hamburg Germany www.flyplatoon.com</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -14424,12 +14424,12 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t/>
+          <t>Electric towing machines for helicopters and small-medium aircrafts</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t/>
+          <t>Via del Commercio 9 20036 Dairago Italy www.pmpitalia.it</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafen Stuttgart / Luftfrachtzen 70629 Stuttgart Germany</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -14478,12 +14478,12 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t/>
+          <t>Pooleys is a manufacturer, publisher and supplier of flight equipment and flight training material to pilots and flight training organisations across the world. Established in 1957, Pooleys has 7 decades of experience in aviation supplying the world's leading brands. We look forward to seeing you.</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t/>
+          <t>118 Rock Road A94 VOY7 Dublin Ireland Phone : +44 208 207 3749 sales@pooleys.com https://www.pooleys.com</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14505,12 +14505,12 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t/>
+          <t>the aircraft upgrade company. since 1965.</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafen 9 32457 Porta Westfalica Germany Phone : +49 5731 76730 Fax : +49 5731 767315 lga@porta.aero www.porta.aero</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Confalonieri 22 23984 Cremella Italy Phone : +39 399212128 caprioli@portoaviationgroup.com www.portoaviationgroup.com</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -14559,12 +14559,12 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t/>
+          <t>Powerdrop Industrieklebstoffe OK Plast Verbandsmaterial</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t/>
+          <t>Philipsstraße 26 8403 Lebring Austria www.powerdrop-industrieklebstoffe.at</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14591,7 +14591,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t/>
+          <t>Hunters Moon CW9 Antrobus United Kingdom www.pplir.org</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -14613,12 +14613,12 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t/>
+          <t>At Pratt &amp; Whitney, we believe that powered flight has transformed – and will continue to transform – the world. It’s an engine for human progress and an instrument to rise above. That’s why we work with an explorer’s heart and a perfectionist’s grit to design, build, and service the world’s most advanced and unrelenting aircraft engines. We do this across a diverse portfolio – including Commercial Engines, Military Engines, Business Aviation, General Aviation, Regional Aviation, and Helicopter Aviation – and as a way of turning possibilities into realities for our customers. This is our mission, and a challenge to which we rise every day. It’s about more than transporting people reliably to their destinations. It’s about more than providing the care and intelligence to service aircraft engines expertly. It’s about innovating and engineering a new and exciting future for aviation – one in which the full potential of human progress can be unleashed. This is how we at Pratt &amp; Whitney approach our work, and this is why we are inspired to go beyond.</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t/>
+          <t>1000 Marie-Victorin Blvd. J4G 1A1 Longueuil, Quebec Canada www.pwc.ca</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -14640,12 +14640,12 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t/>
+          <t>Innovative and easy-to-use cloud-based software designed to streamline the daily operations of pilot training centers.</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t/>
+          <t>Calle de Jacometrezo 15, 3C 28013 Madrid Spain Phone : +34 613290940 victoria@private-radar.com https://www.private-radar.com/</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14667,12 +14667,12 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t/>
+          <t>Professionelle Carbonteile für Gewerbe und Industriedrohnen. Können besichtigt werden unter www.procarbon.de. Ich bin Kleinhersteller für sämtliche Carbonteile, kein Händler.</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t/>
+          <t>Karwendelstrasse 40 81369 München Germany www.procarbon.de</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -14694,12 +14694,12 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t/>
+          <t>2 Ultralight Aircrafts</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t/>
+          <t>S.S. 16 KM 976 Z.A. snc Italy www.promecc-group.it</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14721,12 +14721,12 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t/>
+          <t>Komponenten und Systeme zur Erzeugung, Speicherung und Rückverstromung von Wasserstoff Elektrische Antriebssysteme Ingenieurdienstleistungen zur Systemintegration</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t/>
+          <t>Niederndorf 26 96152 Burghaslach Germany www.ps-hytech.de</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14748,12 +14748,12 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t/>
+          <t>PUMA Aviation is a leader in the aviation fuels industry and the largest producer of aviation gasoline in Europe. Depending on engine needs, we are able to cover full types of aircrafts with Jet A/A-1, Avgas 100LL fuels and unleaded UL91, as well new UL94.</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t/>
+          <t>Roseni 11 10111 Tallinn Estonia Phone : +372 5333 9411 Fax : +372 679 0998 peter.soroka@pumaenergy.com https://www.avgaspuma.com/</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -14775,12 +14775,12 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t/>
+          <t>24/7 Full-Service Drohnenspezialist sowie DJI Gold Partner für BOS und Industrie - DJI Mavic 3T - DJI Matrice 30T - DJI Matrice 300 Series - DroneCom – Kommunikationslösung für Drohnenteams inkl. Zuschaltung von Einsatzleitung/Stab - DroneSecure – Cybersecurity für Drohnen</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t/>
+          <t>Savignyplatz 9-10 10623 Berlin Germany Phone : +49 (0)30 23 595 0 contact@qntrol.eu https://www.qntrol.eu</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14802,12 +14802,12 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t/>
+          <t>Quantum-Systems is an aerial data intelligence company that provides multi-sensor data collection products to government agencies and commercial customers. Our electric vertical take-off and landing (eVTOL) systems boast industry-leading endurance, ease of operation, and reliability.</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t/>
+          <t>Zeppelinstr. 18 82205 Gilching Germany info@quantum-systems.com http://www.quantum-systems.com/</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t/>
+          <t>Dornierstraße 11 82205 Gilching Germany http://www.quantum-systems.com/</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14856,12 +14856,12 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t/>
+          <t>Radalytica is the first company in the World that commercializes the mobile robotic CT. RadalyX is a flexible inspection machine that revolutionizes 2D and 3D non-destructive testing. It provides high resolution inspection of large structures such as aircrafts combining X-rays, UT and other methods.</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t/>
+          <t>Technologická 945/10 77900 Olomouc Czech Republic Phone : +420 603 444 112 sales@radalytica.com https://www.radalytica.com</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14888,7 +14888,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t/>
+          <t>Am alten Wehr 23 53518 Adenau Germany www.red-aircraft.com</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14910,12 +14910,12 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t/>
+          <t>V12 compression ignition piston engine 500-550 hp Hybrid drive system 750-860 hp</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t/>
+          <t>Am alten Wehr 23 53518 Adenau Germany www.red-aircraft.com</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -14937,12 +14937,12 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t/>
+          <t>Propellers, drag reduction and performance improvement products, and custom engineering services specializing in King Air and Caravan models.</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t/>
+          <t>4411 S. Ryan Way 98178 Seattle United States Phone : +1 206 723 2000 lwood@raisbeck.com www.raisbeck.com</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -14964,12 +14964,12 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t/>
+          <t>RAM Mounts ist ein weltweit führender Anbieter eines universellen 3-Komponenten Befestigungssystems für Ihr Tablet, Smartphone, GPS, Funkgerät und Kamera mit über 6000 robusten Modulen, die leicht gtetauscht und erweitert werden können.</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t/>
+          <t>Alexander-Meißner-Str. 42 12526 Berlin Germany Phone : +49 30 917471-70 info@rammounts.de http://www.rammounts.de</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -14991,12 +14991,12 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t/>
+          <t>General Aviation Aircraft antennas</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t/>
+          <t>14500 168th Avenue 49417 Grand Haven MI United States www.rami.com</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -15018,12 +15018,12 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t/>
+          <t>brakes, brake components, de-ice parts, vac pumps</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t/>
+          <t>440-445 Cardinal Lane 53029 Hartland United States www.rapcoinc.com</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -15045,12 +15045,12 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation Headset, ANR and PNR headset with bluetooth, Headset cables, GA to Helicopter, etc..</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t/>
+          <t>3rd floor Kemron Science Tech Park 518100 Shenzhen China www.raytalkcomms.com</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -15072,12 +15072,12 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t/>
+          <t>Ground Power Equipment, Tools, Tool Control, Shadow Foaming</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t/>
+          <t>Unit 12+13 Eddystone Road SO41 35A Totton United Kingdom www.redboxint.com</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberer Luessbach 29-31 82335 Berg Germany www.reiser-st.com</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -15126,12 +15126,12 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t/>
+          <t>Drohnen, Drohnen-Software, Drohnenzubehör</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t/>
+          <t>St. Gallerstr. 49 9100 Herisau Switzerland www.remotevision.ch</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -15153,12 +15153,12 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t/>
+          <t>Rheinland Air Service (RAS) is the largest employer at Mönchengladbach Airport with around 270 permanent employees. As the leading European provider of aircraft maintenance, repair, and overhaul (MRO) for regional airlines and business aviation, RAS serves a wide range of international clientele.</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstrasse 31 41066 Mönchengladbach Germany Phone : +49 2161 9948-100 Fax : +49 2161 9948-155 info@ras.de www.ras.de</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -15180,12 +15180,12 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t/>
+          <t>Rheinland Air Service (RAS) is the largest employer at Mönchengladbach Airport with around 270 permanent employees. As the leading European provider of aircraft maintenance, repair, and overhaul (MRO) for regional airlines and business aviation, RAS serves a wide range of international clientele.</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstraße 31 41066 Mönchengladbach Germany Phone : +49 216199480 Fax : +49 2161 9948155 info@ras.de www.ras.de</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -15207,12 +15207,12 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t/>
+          <t>Rheinland Air Service (RAS) is the largest employer at Mönchengladbach Airport with around 270 permanent employees. As the leading European provider of aircraft maintenance, repair, and overhaul (MRO) for regional airlines and business aviation, RAS serves a wide range of international clientele.</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstrasse 31 41066 Mönchengladbach Germany Phone : +49 2161 99480 Fax : +49 2161 9948155 info@ras.de http://www.ras.de</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t/>
+          <t>Rheinmetall Platz 1 40476 Düsseldorf Germany Phone : +49 211 473-01 info@rheinmetall.com www.rheinmetall.com</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t/>
+          <t>Akeleistraße 18 83646 Bad Tölz Germany</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -15288,12 +15288,12 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t/>
+          <t>Designed to keep the pilot’s joy and serenity above all else, entirely hand-built in France to last forever, cherished by rookies and veterans alike, rare yet everywhere, it is the only wooden aircraft in the world. Coincidentally or not, the DR401 is the smoothest aircraft on earth.</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t/>
+          <t>1 route de Troyes 21121 Darois France Phone : +337501450527 casimir.pellissier@robin-aircraft.com www.robin-aircraft.com</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -15315,12 +15315,12 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t/>
+          <t>RocketRoute is the fastest, easiest and most effective way pilots can access the essential support they need to get airborne. From online flight planning, support, flight board, concierge services to direct access to ever expanding aviation services marketplace.</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t/>
+          <t>Farnborough Airport GU14 6XA Hampshire United Kingdom Phone : +44 1273 782130 Fax : +44 203 004 1747 info@rocketroute.com www.rocketroute.com</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -15347,7 +15347,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 63329 Egelsbach Germany www.roeder.aero</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flugplatz 63329 Egelsbach Germany Phone : +49 6103 4002 0 Fax : +49 6103 4002 700 info@roeder.aero www.roeder.aero</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -15396,12 +15396,12 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t/>
+          <t>VFR Luftfahrtkarten – ICAO Karten (Falt- und Wandkarten), VFR Trip Kits, VFR Luftfahrt-Atlas, RDtech® Stifteset, RDtech® Spray, RDtech® Reinigungstücher, Navigationszirkel, Navigationsdreieck EASA/ICAO, Sporttasche, Rücksäcke, Picknickdecken, Strandtücher, Schlüsselanhänger, Polster im Aviation Design, Aviation Art Poster, Kappen</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t/>
+          <t>Guglgasse 6 3/6/7 1110 Wien Austria www.rogersdata.at</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -15423,12 +15423,12 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t/>
+          <t>EMU (Engine Management Unit) Steuerungssystem Luftfahrtmotor (Rotax) zur Visualisierung unserer Systeme SLPC (Single Lever Power Control) Messtechnik Flugversuchs-Technik Aufzeichnungstechnik Software zur Sammlung und Auswertung von Motor-, Triebwerks- und Flugdaten inklusive cloudbasierter Plattform Avionik Systeme System zur Windmessung inklusive Anzeige (Display)</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberer Luessenbach 29-31 82335 Berg Germany www.rs-flightsystems.com</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -15450,12 +15450,12 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t/>
+          <t>EMU (Engine Management Unit) Steuerungssystem Luftfahrtmotor (Rotax) zur Visualisierung unserer Systeme SLPC (Single Lever Power Control) Messtechnik Flugversuchs-Technik Aufzeichnungstechnik Software zur Sammlung und Auswertung von Motor-, Triebwerks- und Flugdaten inklusive cloudbasierter Plattform Avionik Systeme System zur Windmessung inklusive Anzeige (Display)</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberer Luessenbach 29-31 82335 Berg Germany www.rs-flightsystems.com</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -15477,12 +15477,12 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t/>
+          <t>Fahrzeugleasing</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t/>
+          <t>Rüttelweg 5 63843 Niedernberg Germany www.directcar.de</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Flughafen 20 41066 Mönchengladbach Germany www.rwl-flight.de</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -15531,12 +15531,12 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t/>
+          <t>Unser Unternehmen ist ein führender Experte im Bereich der Sicherheitstechnik. Wir haben uns auf nationale und internationale Beratungsdienste, die Entwicklung und Implementierung von maßgeschneiderten Sicherheitskonzepten für Industrie, Regierung und private Organisationen spezialisiert.</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t/>
+          <t>Giulinistraße 2 67065 Ludwigshafen am Rhein Germany Phone : +49 62156004600 ivo.simon@swis.eu https://www.swis.eu/</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -15558,12 +15558,12 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t/>
+          <t>N/A (Insurance)</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t/>
+          <t>60 rue de la Chaussée d'Antin 75009 Paris France www.saam-assurance.com</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15585,12 +15585,12 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t/>
+          <t>Anti-collision application, compatible and complimentary with your devices (SkyEcho, Pilot Aware, Stratux, ...) and your preferred Electronic Flight Bag (SkyDemon, AirNavPro, EasyVFR, SkyMap, ...)</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t/>
+          <t>42, Av. du Champ de la Blocquerie 1420 Braine l'Alleud Belgium Phone : +32 475285910 christophe@safesky.app https://www.safesky.app</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t/>
+          <t>Str.Bradului, nr.50 600245 Bacau Romania</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t/>
+          <t>Zainach 53 1/2 84307 Eggenfelden Germany http://www.scalewings.com/de/</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t/>
+          <t>Amager Landevej 147B 2770 Kastrup Denmark Phone : +49 2333 6098780 www.scanaviation.com</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t/>
+          <t>Vehkaojantie 290 35600 Halli Finland</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15720,12 +15720,12 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Flugplatz Schönhagen gehört zu den größten Verkehrslandeplätzen Deutschlands. Mit über 40 Unternehmen, mehr als 190 fest stationierten Luftfahrzeugen und rund 45.000 Flugbewegungen pro Jahr ist er der größte der neuen Bundesländer.</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz Haus 2 14959 Trebbin Germany Phone : +49 33731 3050 Fax : +49 33731 30525 info@edaz.de http://www.flugplatz-schoenhagen.aero</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Glöckelshof 1 77887 Sasbachwalden Germany www.ready-for-take-off.de</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -15774,12 +15774,12 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t/>
+          <t>Luftfahrtpsychologie, Pilot Well-Being &amp; Peer Support &amp; Psychological Assessment, Helicopter Services, Compliance &amp; Quality Management, Safety Management, Rundflüge, Präzisionsflug, Crew Ressource Management Training, Consulting, Beratung</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Glöckelshof 1 77887 Sasbachwalden Germany info@ready-for-take-off.de www.ready-for-take-off.de / www.schwarzwald-helikopter.de</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t/>
+          <t>Via Aldo Moro, 14 26020 Corte de' Cortesi con Cignone (CR) Italy www.scuolaitalianavolo.it</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -15828,12 +15828,12 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t/>
+          <t>Securiton Deutschland ist führender Systemanbieter und Anwendungsspezialist von Alarm- und Sicherheitssystemen für Brandschutz- und Sonderbrandmeldetechnik sowie für den 3D-Objekt- und Perimeterschutz zur Luft- und Bodensicherung, v.a. mittels intelligenten Video- und Drohnensicherheitssystemen.</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t/>
+          <t>Von-Drais-Straße 33 77855 Achern Germany Phone : +49 7841 6223-0 willkommen@securiton.de https://www.securiton.de/drohnensicherheit</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -15855,12 +15855,12 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t/>
+          <t>SHARK</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t/>
+          <t>Senica Airport 90631 Hlboké 406 Slovakia Phone : +421 903 655 977 shark@shark.aero www.shark.aero</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -15882,12 +15882,12 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t/>
+          <t>SHARK 600</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t/>
+          <t>Konviktská 291/24 110 00 Prague Czech Republic Phone : +420777016919 sales@shark.aero www.600.shark.aero</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t/>
+          <t>Thunovská 183/18 11800 Prague Czech Republic Phone : +420 604 266 764 p.hyl@shark.aero www.mil.shark.aero</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t/>
+          <t>FCG OPS is one of the largest operational control centers in Europe, providing international trip support and dispatch services as well as ground handling support within a network of more than 40 airports. 20+ years of experience by servicing flights for 400+ air companies by team of 25 dispatchers.</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t/>
+          <t>Dzirnieku Street 15, Riga Airport LV-1053 Marupes district Latvia Phone : +371 67 207 300 office@fcg.aero www.fcgops.aero</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -15963,12 +15963,12 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t/>
+          <t>x1 Ultra light aircraft</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t/>
+          <t>Baldones street 32 LV-5001 Ogre Latvia https://www.belmontaero.com/en/home</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -15990,12 +15990,12 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t/>
+          <t>Pilotenzubehör, Headsets, Bose, Lightspeed, uAvionix, Garmin, Trig, TQ Avionics, Becker Avionics, funke Avionics, Ausbildungsmaterialen, Fliegerbekleidung, Luftfahrtkarten, Wartungsdokumentationen und Maintenance Tracking von ATP.</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t/>
+          <t>Rektoratsweg 40 48159 Münster Germany Phone : +49 251 924593 Fax : +49 251 9245959 info@siebert.aero https://www.siebert.aero</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t/>
+          <t>Cuxhaver Strasse 45 28217 Bremen Germany www.sigmaaero.de</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -16049,7 +16049,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t/>
+          <t>Südstraße 34 56288 Kastellaun Germany</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -16071,12 +16071,12 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t/>
+          <t>SKY AIR specializes in Overhaul, Shock Load and repair of Lycoming and Continental engines. We also offer a range of maintenance services as overhaul and repair of magnetos (500 hours inspections included), cylinders. Our team of certified engineers has over 30 years of experience providing services for demanding clients. SkyAir is a professional team offering high technical and quality control services for all of your engines, accessories and components. We are distinguished by an organized work force, precision, competitive prices, optimal service time, and high quality of customer care service in 3 languages (Portuguese, English or Polish). Our facilities are at 5 min.(by car) from Cascais Airport (LPCS) on Lisbon area.</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t/>
+          <t>Rua Do FOJO 136-Armazen 2785-615 Sao Domingos de Rana Portugal www.skyairaviation.com</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t/>
+          <t>Parkstr. 28a 99947 Bad Langensalza Germany www.skydrone.aero</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -16125,12 +16125,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t/>
+          <t>Sky Fox aus Berlin ist seit 1994 ein bekannter Flugbedarfsausstatter mit Versand in das In- und Ausland. Viele Marken finden hier ein Zuhause wie Garmin, Shell, Bose, Lightspeed, RAM Mounts Halterungen und viele andere. Einige Produkte werden im Großhandel an Wiederverkäufer angeboten.</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t/>
+          <t>Alexander-Meißner-Straße 42 12526 Berlin Germany Phone : +49 30 864746 0 Fax : +49 30 864746 99 info@skyfox.com www.skyfox.com</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t/>
+          <t>An den Rehwiesen 30 34128 Kassel Germany Phone : +49 561 65354 Fax : +49 561 65360 info@sky-map.de www.sky-map.de</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -16179,12 +16179,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t/>
+          <t>Keine</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t/>
+          <t>Schützenstrasse 10 12526 Berlin Germany www.sim4u-berlin.com</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -16206,12 +16206,12 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t/>
+          <t>SKYBRO aims to digitise the individual flying experience for users of all kinds of flying machines, making it fun, informative and safe. Download our Digital Sky app for all general aviation enthusiasts. If you are an aircraft pilot, ask us about the Aircraft Manager solution.</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t/>
+          <t>SkyMedia sp. z o.o. 35-074 Rzeszow Poland office@skybro.aero https://skybro.aero</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -16238,7 +16238,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Schlossgarten 5 69493 Hirschberg Germany www.skycards.de</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -16260,12 +16260,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t/>
+          <t>Flight-planning and Navigation Software</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation House BA11 1QD Frome United Kingdom Phone : +44 1373 470452 sales@skydemon.aero www.skydemon.aero</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -16287,12 +16287,12 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation motor Aviation lighting systems</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t/>
+          <t>Stary Rynek 5/1 19-300 Elk Poland www.skyflar.com</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -16314,12 +16314,12 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t/>
+          <t>Startwinden und Zubehör, Seilrückholwinden</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t/>
+          <t>Wem Industrial Estate Unit E12 SY4 5SD Wem, Shropshire United Kingdom www.skylaunch.com</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -16341,12 +16341,12 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t/>
+          <t>We provide an online Maintenance Information System for CAMO, Maintenance &amp; Stock Management. This collaborative solution helps to monitor and save time in daily operations. It can also helps to monitor maintenance costs and fleet performance. Meet us at our stand to discover personnal live demos on a TV screen, laptop and IPad.</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t/>
+          <t>60 allée des fromentaux 69250 Montanay France https://skyzen.aero</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t/>
+          <t>Eichleitnerstraße 16 86199 Augsburg Germany Phone : +49 821 66097610 Fax : +49 821 66097620 info@sct-gmbh.eu www.sct-gmbh.eu</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -16395,12 +16395,12 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t/>
+          <t>Pneumatic Wing De-Icers Electrothermal Prop De-Icers Thermal Protection Heaters Heated Composite Components Composite Leading Edges Fire &amp; Smoke Suppression Panels Engineered Rubber Assemblies Interior Air Valves &amp; Lighting</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t/>
+          <t>93 Nettie Fenwick Rd. 26202 FENWICK United States</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -16422,12 +16422,12 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t/>
+          <t>SOBEN offers tailor-made landing gear for airplanes, helicopters and drones. We design, develop, qualify and produce landing gear in our factory in France. Soben has technologies that significantly improve the absorption capacity of shock absorbers. We improve comfort, performance and safety</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t/>
+          <t>425 rue pièce grande 46230 Fontanes France www.soben.fr</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -16449,12 +16449,12 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Sonderflughafen Oberpfaffenhofen gehört zu den 12 Flughäfen im Bundesinteresse. Er ist als Werk- und Forschungsflughafen sowie für qualifizierten Geschäftsflug bundesweit einzigartig und das Herzstück des Campus Luft- und Raumfahrt Oberpfaffenhofen.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t/>
+          <t>Claude-Dornier-Str. 1 82234 Wessling Germany Phone : +49 8153 881 1920 ops@edmo-airport.de www.edmo-airport.de</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -16476,12 +16476,12 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t/>
+          <t>Fallschirme und Zubehör</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t/>
+          <t>Nordstrasse 40 02782 Seifhennersdorf Germany www.spekon.com</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -16508,7 +16508,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t/>
+          <t>Kirchstraße 10 53937 Schleiden-Dreiborn Germany Phone : +49 2485 9550214 Fax : +49 2485 9550219 stickershop@t-online.de www.sticker-shop.de</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -16530,12 +16530,12 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t/>
+          <t>Bestickung von Caps, Textilien, Taschen, Tücher, Mützen</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t/>
+          <t>Torstraße 9d 24768 Rendsburg Germany www.stickies-rendsburg.de</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t/>
+          <t>Priemerburg 2 18273 Güstrow Germany Phone : +49 3843 24100 info@stieblich.de</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -16589,7 +16589,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t/>
+          <t>Hugenottenallee 171 A 63263 Neu-Isenburg Germany info@stiftung-mayday.de http://www.stiftung-mayday.de</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t/>
+          <t>Lise - Meitner - Str. 09 85521 Ottobrunn Germany www.student-airrace.com</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -16638,12 +16638,12 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t/>
+          <t>Piston Engine Parts, Piston Engines</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t/>
+          <t>621 South Royal Lane, Suite 100 75019-3805 Coppell, TX United States www.superiorairparts.com</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -16665,12 +16665,12 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t/>
+          <t>The svt Group boasts a long track record of specialist experience in aircraft fire protection and delivers high-quality products for all types of aircraft. Our preventive fire protection solutions are rooted in many years of industry expertise, and they result from our close cooperation.</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t/>
+          <t>Gluesinger Straße 86 21217 Seevetal Germany Phone : +49 4105 40 90 14 transportation@svt.de https://svt-global.com/aviation</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -16692,12 +16692,12 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t/>
+          <t>Führendes Helikopterunternehmen der Schweiz mit Fokus auf Pilotenausbildung, Transportflüge und Personenflüge. Ausstellung eines Firmen-Helikopters in der Helikopterhalle. Swiss Helicopter führt seit dem 1. Januar 2023 sämtliche Personenflüge CO2-kompensiert durch. Erfahren Sie mehr über unsere Mission Nachhaltigkeit.</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t/>
+          <t>Hartbertstrasse 11 7000 Chur Switzerland www.swisshelicopter.ch</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -16724,7 +16724,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t/>
+          <t>Byk-Gulden-Straße 18 78224 Singen Germany www.teccon.de</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -16746,12 +16746,12 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Technische Hochschule Würzburg-Schweinfurt (THWS) entwickelt unter Einbindung von Industriepartnern einen Brennstoffzellenantrieb für Leichtflugzeuge, den sie an einem Reisemotorsegler Taifun 17H erproben wird. Der Antriebsstrang besteht aus einer Wasserstoff PEM-Brennstoffzelle, Li-Ionen-Hochleistungs-Akku als Pufferbatterie, elektrischem Laderegler, Elektromotor und elektrisch verstellbarem Propeller. Als Tank für den Wasserstoff dient ein Carbon Kugeltank. Der Antriebsstrang wird an der Hochschule aufgebaut, in Laboren der THWS auf Versuchsständen getestet, für den späteren Betrieb weiterentwickelt und optimiert.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t/>
+          <t>Ignaz-Schön-Str. 11 97421 Schweinfurt Germany https://www.thws.de/</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -16773,12 +16773,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t/>
+          <t>2010 wurde das Institut für Rettungsingenieurwesen und Gefahrenabwehr an der Technischen Hochschule Köln gegründet. Das Institut befasst sich mit allen technischen und organisatorischen Elementen der operativen Gefahrenabwehr zur Rettung von Menschen, der Erkennung von Gefahren und deren Abwehrplanung, wie etwa behördliches und betriebliches Risiko- und Krisenmanagement sowie mit sozialen und methodischen Kompetenzen für Führungskräfte. Anfang des Jahres 2022 hat das Institut ein "Lab2Go"-Fahrzeug zur Evaluation und Auswertung von Feldversuchen und (Real-)Übungen in Betrieb genommen. Dazu ist das Fahrzeug mit modernster Kommunikations- und Datenübertragungstechnik, rechnergestützten Videoverarbeitungsmöglichkeiten, Datenservern und mobilen Arbeitsplätzen ausgestattet. Mit unserer umfassender Expertise können Übungen, Produkte und Konzepte aus der Gefahrenabwehr wissenschaftlich und objektiv evaluiert werden.</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t/>
+          <t>Gustav-Heinemann-Ufer 54 50678 Köln Germany www.th-koeln.de</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -16800,12 +16800,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Technische Hochschule Wildau ist eine moderne und forschungsstarke Hochschule vor den Toren Berlins. Sie ist mit ihrem wissenschaftlichen Innovations- und Entwicklungspotential ein gefragter Partner von innovativen KMU und international tätigen Großunternehmen.</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t/>
+          <t>Hochschulring 1 15745 Wildau Germany Phone : +49 3375 508300 Fax : +49 3375 508213 marketing@th-wildau.de www.th-wildau.de</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -16827,12 +16827,12 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t/>
+          <t>- Satellite Communication (Satcom) for drones - Ultra-Low-Bandwidth Video Streaming (ULBVS) - Optical Object Recognition / Detect &amp; Avoid</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t/>
+          <t>Europaplatz 5 64293 Darmstadt Germany Phone : +49 (0) 6151 82570 Fax : +49 (0) 6151 8257799 info@telespazio.de https://www.telespazio.de</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -16859,7 +16859,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t/>
+          <t>Sachsenring 60 94315 Straubing Germany Phone : +49 9421 706 403</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -16881,12 +16881,12 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t/>
+          <t>Spark Plugs, Oil Filters, Fuel Pumps, Air Filters, Carburetors, Fuel Injection Systems</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t/>
+          <t>2208 Air Park Dr NC 27215 Burlinton United States www.tempestplus.com</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -16908,12 +16908,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t/>
+          <t>Ausstellung der Tensor 600X. Die Tensor AG hat durch den Einsatz modernster Simulationsmethoden eine neue Rotortechnologie entwickelt und patentiert, mit der das Gyroplane zu einer neuen, leistungsstarken und umweltfreundlichen Alternative zu Flugzeugen und Hubschraubern werden soll.</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t/>
+          <t>Forstmahd 3 86682 Genderkingen Germany www.tensor.aero</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -16935,12 +16935,12 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t/>
+          <t>With a range of products from Cessna, Beechcraft, and Hawker brands, Textron Aviation has the most versatile and comprehensive aviation product portfolio in the world along with a trusted global customer service network, for affordable, productive and flexible flight.</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t/>
+          <t>One Cessna Blvd 67215 Wichita United States Phone : +1 316.517.8270 Fax : +1 nmay03@txtav.com www.txtav.com</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -16962,12 +16962,12 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t/>
+          <t>To be determined</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t/>
+          <t>One Cessna Blvd 67215 Wichita United States www.txtav.com</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -16989,12 +16989,12 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t/>
+          <t>TFC Flugbetrieb und – technik Beratungsgesellschaft mbH is one of the largest training providers for aviation in Germany. TFC was founded in Essen at the beginning of 1981 and is a family run business now in the 3rd generation. We focus on professional MPL(A) and ATPL(A) training with safety first.</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t/>
+          <t>Rehmanns Hof 45 45257 Essen Germany www.tfc.aero</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t/>
+          <t>TFC European Airline Services is one of the largest training providers for aviation in Germany. TFC was founded in Essen at the beginning of 1981 and is a family run business now in the 3rd generation. We focus on professional training for MCC and Type Rating for Boeing and Airbus with safety first.</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t/>
+          <t>Rehmanns Hof 45 45257 Essen Germany http://tfc-kaeufer.de/</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -17043,12 +17043,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t/>
+          <t>Towing equipment for moving aircraft Model: TTT RC Tow Tugs for plane</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t/>
+          <t>Materí 1038/14 61400 Brno Czech Republic www.thermis.cz</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t/>
+          <t>Im Tiegel 9 36367 Wartenberg Germany Phone : +49 6641 979 114 Fax : +49 6641 979299 info@thiesen-electronics.com www.thiesen-electronics.com</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -17097,12 +17097,12 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Robotik-Unternehmen entwickelt seit vielen Jahren erfolgreich Spezialdrohnen für verschiedene Anwendungsbereiche wie Agrar- &amp; Forstwirtschaft sowie für Behörden und Organisationen mit Sicherheitsaufgaben. THOLEG engagiert sich dabei stark in nationalen und internationalen Forschungsprojekten.</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t/>
+          <t>Schachtbauring 4 03119 Welzow Germany Phone : +49 35751 284150 info@tholeg.com www.tholeg.com</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -17124,12 +17124,12 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Robotik-Unternehmen entwickelt seit vielen Jahren erfolgreich Spezialdrohnen für verschiedene Anwendungsbereiche wie Agrar- &amp; Forstwirtschaft sowie für Behörden &amp; Organisationen mit Sicherheitsaufgaben. THOLEG engagiert sich dabei stark in nationalen &amp; internationalen Forschungsprojekten.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t/>
+          <t>Schachtbauring 4 03119 Welzow Germany Phone : +4935751284150 info@tholeg.com www.tholeg.com</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -17151,12 +17151,12 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Robotik-Unternehmen entwickelt seit vielen Jahren erfolgreich Spezialdrohnen für verschiedene Anwendungsbereiche wie Agrar- &amp; Forstwirtschaft sowie für Behörden &amp; Organisationen mit Sicherheitsaufgaben. THOLEG engagiert sich dabei stark in nationalen &amp; internationalen Forschungsprojekten.</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t/>
+          <t>Schachtbauring 4 03119 Welzow Germany Phone : +4935751284150 info@tholeg.com www.tholeg.com</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -17178,12 +17178,12 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t/>
+          <t>Founded in 2001, Tianjin Santroll Electric Technology Co., Ltd. is located in the Airport Economic Zone of Binhai New Area, Tianjin, China. It has more than 1,000 employees, including more than 400 R&amp;D technicians. Since its establishment, the company has been committed to various drive system technologies, and has applied for 986 national patents. The main products produced are electric drive controllers and core components of flat wire motors. Products are widely used in new energy commercial vehicles, engineering vehicles, electric ships, electric heavy-duty drones, rail transit, intelligent distribution, service robots, electric bicycles, construction machinery, special equipment for ports and airports, etc. Permanent magnet synchronous motor, DC brushless motor, synchronous reluctance motor. We can also provide customized products and solution services according to the actual needs of users. The company has a professional R&amp;D team, and the test center has complete testing equipment and advanced testing instruments. With leading technology and rich experience. The company's products cover motors and controllers in the power range of 200w-600kw, including asynchronous motors, Santroll has a strong production capacity, with a daily output of 30,000 micro-car controllers, an annual output of 200,000 new energy motor controllers, and an annual output of 100,000 motors. santroll has established good cooperative relations with many well-known enterprises, such as Didi Chuxing, BYD Automobile, Schaeffler, Yutong Automobile, etc. The company's motto "Technology is not exhausted, energy is not exhausted" Welcome to the era of global electrification and be a leader in the electric drive industry</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t/>
+          <t>No.1, West 10th Road 300308 Tianjin China www.santroll.com</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -17205,12 +17205,12 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t/>
+          <t>Sparker, Stream, StreamTurbo, Sirius, Sting S4</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t/>
+          <t>Letiste 515 503 41 Hradec Králové Czech Republic Phone : +420 495 213378 Fax : +420 495 213378 info@tl-ultralight.cz www.tl-ultralight.cz</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -17232,12 +17232,12 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t/>
+          <t>Firma Tost Flugzeuggerätebau ist ein EASA-zugelassener Hersteller von Flugzeugrädern, Hydraulischen Bremssystemen, Schleppkupplungen für Segelflugzeuge, Schleppseileinziehwinden für Schleppflugzeuge und Schleppausrüstung. Wir warten unsere eigenen Produkte in unserem Instandhaltungsbetrieb.</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t/>
+          <t>Thalkirchner Straße 62 80337 München Germany Phone : +49 89 544 599 30 Fax : +49 89 544 599 70 susanne.dupont@tost.de www.tost.de</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Blumenkampshof 55 47059 Duisburg Germany Phone : +49 203 93001320 Fax : +49 203 93001339 kommunikation@totalenergies.com https://aviation.totalenergies.com/en</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -17286,12 +17286,12 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t/>
+          <t>TowFLEXX ist Hersteller elektrischer Flugzeugschlepper für Kleinflugzeuge bis hin zu großen Business Jets bis 86 Tonnen Abfluggewicht. Die einzigartige 360° Technologie der funkferngesteuerten Geräte, sowie das Auskommen ganz ohne Hydraulik macht TowFLEXX Schlepper wartungsarm und einzigartig!</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t/>
+          <t>Wöstendöllen 95-96 49429 Visbek Germany Phone : +49 4445 8203 Fax : +49 info@towflexx.de https://www.towflexx.de</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t/>
+          <t>Wöstendöllen 95-96 49429 Visbek Germany www.towflexx.de</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -17340,12 +17340,12 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t/>
+          <t>Bildung und Qualifizierung in der Luftfahrt</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t/>
+          <t>Friedrich-Engels-Straße 62 15745 Wildau Germany Phone : 03375 - 52 30 150 vertrieb@trainico.de www.trainico.de</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -17367,12 +17367,12 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t/>
+          <t>Die TRIAC GmbH ist ein zertifizierter Anbieter von Flugsicherungsdiensten für ATC und AFIS sowie innovativer Dienstleister für Remote-Tower Lösungen.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t/>
+          <t>Römerstrasse 100 54293 Trier Germany Phone : +49 151 52746424 christian.majer@triac.aero</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -17394,12 +17394,12 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionics for general aviation, including fully certified stack and compact products. These include the available Nav/Com, Mode S and ADS-B transponders, GPS position sources for ADS-B, VHF radios and audio panels. Fit Trig for the best quality, features and value.</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t/>
+          <t>Hardwareweg 3 3821 Amersfoort Netherlands www.trig-avionics.com</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -17421,12 +17421,12 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Frankfurt-Egelsbach Airport liegt mitten im Herzen Europas und nahe dem internationalen Flughafen Frankfurt am Main. Mit mehr als 80.000 Flugbewegungen pro Jahr ist der Flugplatz Egelsbach der verkehrsreichste Flugplatz der allgemeinen Luftfahrt in Deutschland.</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz Haus 6 63329 Egelsbach Germany Phone : +49 61039418613 Fax : +49 6103 941818 ops.edfe@triwo.de www.egelsbach-airport.com</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -17448,12 +17448,12 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t/>
+          <t>Der TRIWO Flugplatz Zweibrücken bietet Ihnen im 24-Stunden-Betrieb individuelle Lösungen rund um den Flugbetrieb. Mit seiner ca. 2,7 km langen Start- und Landebahn ist er mit PPR-Genehmigung im Sicht- und Instrumentenanflugverfahren erreichbar.</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t/>
+          <t>Berliner Allee 11-21 66482 Zweibrücken Germany Phone : +49 6332 999890 ops.edrz@triwo.de www.edrz-airport.de</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t/>
+          <t>9400 E. 34th Street North 67226 Wichita United States www.truebluepowerusa.com</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -17502,12 +17502,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t/>
+          <t>Batteries, Power Solutions, Converters and Inverters, Wireless chargers</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t/>
+          <t>9400 E. 34th Street North 67226 Wichita United States www.truebluepowerusa.com</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -17529,12 +17529,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t/>
+          <t>Wir bearbeitet alle Fragen des Fachgebietes, von der Einzelkomponente bis hin zu Gesamtsystemen, in der vollen methodischen Breite: von der Berechnung komplexer, multimodal vernetzter Systeme bis zum Experiment unter Einsatzbedingungen, sowohl auf dem Prüfstand als auch in der konkreten Anwendung.</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t/>
+          <t>George-Bähr-Str. 1b 01069 Dresden Germany Phone : +49 351 463 39801 Fax : +49 351 463 36039 tilo.ross@tu-dresden.de https://tu-dresden.de/bu/verkehr/iad/lvm</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -17556,12 +17556,12 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t/>
+          <t>The Institute of Flight System Dynamics is presenting its Motion-Based Mixed Reality eVTOL Research Flight Simulator. We make visions fly - which includes modeling and system identification, controller design and implementation in real aircraft.</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t/>
+          <t>Boltzmannstraße 15 85748 Garching bei München Germany Phone : +49 89 289 16061 office.fsd@ed.tum.de https://www.fsd.ed.tum.de/</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -17583,12 +17583,12 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t/>
+          <t>TURBOTECH has developed the first regenerative turboprop and turbogenerator for aeronautical applications: THE 1ST LOW FUEL BURN LIGHT TURBOPROP The turboprop is the perfect solution to power light aircraft, helicopters and drones. Compact, reliable and vibration-free, the turboprop combines all the advantages of a gas turbine with very low fuel consumption. Thanks to its poly-fuel capacity, long-range travel is not an issue anymore. THE ULTIMATE HYDRID-ELECTRIC SOLUTION The Turbogenerator is an onboard electrical genset and is a powerful enabler for electrical propulsion architectures. TURBOTECH develops the turbogenerator 90kW : TG-R90 isthe first onboard electrical gensets dedicated to the hybrid-electric aircraft industry.</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t/>
+          <t>Aérodrome de Toussus le Noble 78117 Toussus-le-Noble France www.turbotech-aero.com</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -17610,12 +17610,12 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t/>
+          <t>Collapsible ferry tanks and auxiliary tanks and transfer pump systems. AIR CARGO TANKS and AIR DROP TANKS</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t/>
+          <t>9 Hayter Street QLD 4223 Currumbin Australia Phone : +61 7 5598 1959 Fax : +61 7 5598 1959 turtlepac@yahoo.com.au www.turtlepac.com</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -17642,7 +17642,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t/>
+          <t>Altenberger Straße 6 01768 Glashütte Germany</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -17664,12 +17664,12 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t/>
+          <t>UAV DACH - informieren, vernetzen, gestalten | Der UAV DACH ist der größte Fachverband für die gewerbliche UAS-Nutzung in Europa. Er vertritt die Interessen der Drone-Economy gegenüber Öffentlichkeit und Medien sowie Standardisierungs- und Entscheidungsgremien.</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t/>
+          <t>Fischerinsel 16 10179 Berlin Germany Phone : +49 220116320 Fax : +49 220116329 office@uavdach.org www.uavdach.org</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -17691,12 +17691,12 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t/>
+          <t>SkyLine - For unmanned and manned aviation; Transponders; ADS-B transceivers; Receivers; Panel displays; Unmanned Autopilot, C2 communication (LTE/C-Band/SatCom), Navigate, DAA; ADS-B UAT (TIS-B/FIS-B); Airport tracking and FID</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviolandalaan 37-Dronelab 4631 RV Hoogerheide Netherlands Phone : +31 6 51751514 rudy@uavionix.com www.uavionix.com</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -17718,12 +17718,12 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t/>
+          <t>Avionics panel displays and ADS-B transponders, transceivers, receivers and accessories</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t/>
+          <t>300 Pine Needle Lane 59911 Big Fork United States www.uavionix.com</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -17745,12 +17745,12 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t/>
+          <t>Wir leisten humanitäre Hilfe durch die Lieferung dringend benötigter und kritischer Medizin an ukrainische Krankenhäuser sowie der Organisation und die Durchführung von sicheren Personentransporten nach Deutschland, wie etwa schwache, geflüchtete Person, unbegleitete oder auch kranke Kinder</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t/>
+          <t>Auf dem Kreuz 28 89073 Ulm Germany</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -17772,12 +17772,12 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t/>
+          <t>SD-1 (einsitziges UL mit 120kg Leergewicht) und SD-2 (sehr leichtes und schnelles zweisitziges UL)</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t/>
+          <t>Derner Straße 121 59174 Kamen Germany www.ul-gmbh.de</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -17799,12 +17799,12 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t/>
+          <t>UL-Helikopter</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t/>
+          <t>Hopfengartenweg 4 82276 Adelshofen Germany www.ul-Helicharter.com</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -17826,12 +17826,12 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t/>
+          <t>Engines / Motoren</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t/>
+          <t>Zonnebeekseweg 379 8900 Ieper Belgium www.ulpower.com</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t/>
+          <t>Rue des Biolleux 7A 4800 Petit-Rechain Belgium https://www.ultralight-concept.be</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t/>
+          <t>Gewerbepark Bata 8 4313 Möhlin Switzerland www.umsgroup.aero</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -17912,7 +17912,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t/>
+          <t>Gewerbepark Bata 8 4313 Möhlin Switzerland www.umsgroup.aero</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t/>
+          <t>Pfaffenwaldring 31 70569 Stuttgart Germany Phone : +49 711 685 0 Fax : +49 711 685 62449 poststelle@uni-stuttgart.de www.ifb.uni-stuttgart.de</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -17961,12 +17961,12 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t/>
+          <t>VAN DER LEE Turbo Systems offers high-end technical solutions in design, development and manufacturing of turbo systems for every conceivable aviation application. Were Innovation, efficiency and quality is presented in all our designs, products and services supported by AS9100 QMS processes.</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t/>
+          <t>Kleine Tocht 3 1507CB Zaandam Netherlands Phone : +31 208943444 info@vdlee.com www.vdlee.com</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -17988,12 +17988,12 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t/>
+          <t>Van's Aircraft, established in 1972, is a global leader in the homebuilt aircraft industry with over 11,000 aircraft flying worldwide. At Aero, we'll showcase an RV-12 and RV-14A and provide information on all of our aircraft models.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t/>
+          <t>14401 Keil Rd. NE 97002 Aurora United States Phone : +1 503 678 6545 Fax : +1 503 678 6560 media@vansaircraft.com www.vansaircraft.com</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t/>
+          <t>Mahlenburger Weg 34 44309 Dortmund Germany www.vatsim-germany.org</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -18042,12 +18042,12 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t/>
+          <t>Vereinigung Deutscher Pilotinnen VDP</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t/>
+          <t>Osttor 32 48165 Münster Germany</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -18069,12 +18069,12 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t/>
+          <t>VELICA, experts in airworthiness and certification, offers services in certification, airworthiness, design and aeronautical expertise based on its extended experience as certification expert, designer, pilot, or aeronautical consultant. Flutter Prediction based on advanced method is also available.</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t/>
+          <t>11 rue Skol Koz 56370 Sarzeau France Phone : +33 786321464 hugues.lecardinal@velica.eu www.velica.eu</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -18096,12 +18096,12 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t/>
+          <t>VerdeGo Aero is creating power and propulsion technologies that enable our customers to develop high-performance electric aircraft. Our hybrid-electric powerplants solve the critical performance challenges necessary to make electrification of flight practical, useful, and scalable</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t/>
+          <t>1511 Aviation Center Parkway, MicaP 32114 Daytona Beach United States https://www.verdegoaero.com/</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -18123,12 +18123,12 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t/>
+          <t>Die vollelektrische e-Sling wurde innerhalb von zwei Jahren von 20 Maschinenbau- und Elektrotechnik Studierenden im Rahmen ihres Bachelorstudiums an der ETH Zürich entwickelt. Unter dem neu gegründeten Verein namens CELLSIUS führen die Studierenden nun die Flugerprobung sowie den Flugbetrieb durch.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t/>
+          <t>Wangenstrasse 72 8600 Dübendorf Switzerland https://cellsius.aero/</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -18150,12 +18150,12 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t/>
+          <t>Ausstellung von liebevoll gebauten Modellen und Szenen in verschiedenen Maßstäben. Aussteller ist der Plastik-Modellbau-Club Bodensee e.V</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t/>
+          <t>Bildgartenstr. 3 88048 Friedrichshafen Germany www.pmc-bodensee.de</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -18177,12 +18177,12 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Vereinigung Cockpit ist der Verband der Verkehrsflugzeugführer, Verkehrshubschrauberführer, Flugingenieure und Fluglehrer für die entsprechenden Lizenzen in Deutschland. Sie vertritt die Interessen von heute rund 10.000 Cockpitbesatzungsmitgliedern aus allen deutschen Flugbetrieben.</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t/>
+          <t>Main Airport Center (MAC) 60549 Frankfurt Germany office@vcockpit.de www.vcockpit.de</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t/>
+          <t>Gewerbepark 6 6141 Mieders Austria</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -18231,12 +18231,12 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t/>
+          <t>Since 30 years, Villinger R&amp;D serves a constantly growing number of international customers with high-end heating and ice protection systems for applications in major industries such like Aviation, Automotive, Wind Energy and many more. Our products and systems are far beyond state of the art!</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t/>
+          <t>Eisenbahnstr. 5 79639 Grenzach-Wyhlen Germany Phone : +49 7624983717 Fax : +49 7624983718 a.zoellner@azcs.eu www.villinger.com</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Bauernfeld 28 93152 Nittendorf Germany Phone : +49 941 604 889 521 https://www.vimana-gmbh.de/icao-sprachpruefung-online-en/</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -18285,12 +18285,12 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t/>
+          <t>LOM Favorit LOM Libelle FES Lehrmeister und weitere</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t/>
+          <t>Kanalstr. 13 88214 Ravensburg Germany www.vintagegliderclub.org</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -18312,12 +18312,12 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t/>
+          <t>WE BRING URBAN AIR MOBILITY TO LIFE - As the pioneer of urban air mobility (UAM), we will be launching the world’s first-ever eVTOL suite of services, replete with our signature passenger air taxis and its very own ecosystem. As far as we’re concerned, the sky really is the only limit!</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t/>
+          <t>Zeiloch 20 76646 Bruchsal Germany events@volocopter.com www.volocopter.com</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -18339,12 +18339,12 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t/>
+          <t>VoltAero is taking electric aircraft to an entirely new level. Benefitting from 80-plus years of combined pioneering expertise, VoltAero is developing a truly unique general aviation airplane family, Cassio, for safe, quiet, efficient and eco-friendly flight in electric and electric-hybrid modes.</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t/>
+          <t>1, rue Denis Poisson 75017 Paris France Phone : +33 1 4578 8992 marina.evans@voltaero.fr https://www.voltaero.aero/en/</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -18366,12 +18366,12 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t/>
+          <t>Hangartore, Rundhangars</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t/>
+          <t>Am Osterbach 2 93413 Cham/OT Chammünster Germany www.vos-tore.de</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t/>
+          <t>Flughafenstrasse 11 9423 Altenrhein Switzerland Phone : +41715664610 azueblin@centennialair.ch www.wacoaircraft.com</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -18420,12 +18420,12 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Wankel Aviation GmbH ist ein Joint Venture der Wankel SuperTec GmbH und des Zertifizierungsbüros Fräbel, das jahrzehntelange Erfahrung in der Entwicklung außergewöhnlicher Rotationsmotoren mit tiefem Know-how in Luftfahrtprodukten und komplexen Systemen verbindet.</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t/>
+          <t>Burger Chaussee 20 03044 Cottbus Germany Phone : +49 35528925650 info@wankelsupertec.de www.wankelsupertec.de</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -18447,12 +18447,12 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t/>
+          <t>Aviation fuels manufacturer &amp; distributor. Products: UNLEADED AVGAS UL91, AVGAS 100LL, SMOKE OIL. Warter Aviation is a brand owned by Warter Fuels.</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t/>
+          <t>ul. Chemików 5 02-411 Plock Poland Phone : +48 24 365 33 07 Fax : +48 24 365 33 07 office@warteraviation.com www.warteraviation.com</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -18474,12 +18474,12 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft rentals Commercial aviation services, sightseeing flights Ground handling Travel services: accommodations, activities, restaurants and other travel services Ground transportations</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t/>
+          <t>Ridalintie 3 03100 Nummela Finland https://www.weflyfinland.fi/</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -18501,12 +18501,12 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t/>
+          <t>New and Factory Overhauled Electric Fuel Pumps</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t/>
+          <t>640 Golden Oak Parkway OH 44146 Oakwood Vollage United States www.weldonpump.com</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -18528,12 +18528,12 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t/>
+          <t>Aircraft Lighting</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t/>
+          <t>210 Airport Drive East 32958 Sebastian United States www.flywat.com</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -18555,12 +18555,12 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t/>
+          <t>Designmobiliar aus Flugzeugteilen</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t/>
+          <t>Feldstraße 21 66646 Marpingen Germany www.flugzeugmoebel.de</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -18582,12 +18582,12 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t/>
+          <t>Merchandise from ourselves. Mainly advertisement for flightsharing (see: www.wingly.io)</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t/>
+          <t>97 Rue Oberkampf 75011 Paris France www.wingly.io</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -18609,12 +18609,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t/>
+          <t>Paperless CAMO and Maintenance software. The most important keywords of WingOps software are intuition, simplicity and logic. This has been achieved thanks to starting a new web-based software from scratch with clear inputs from Maintenance and CAMO team.</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t/>
+          <t>Vääna 7-18 11612 Tallinn Estonia Phone : +372 5188117 info@wingops.aero https://wingops.aero</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t/>
+          <t>Wipaire is the worlds leading manufacturer of amphibious floats for aircraft.</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t/>
+          <t>1700 Henry Ave.-Fleming Field 55075 South St. Paul United States www.wipaire.com</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -18663,12 +18663,12 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t/>
+          <t>Best flight simulators for PPL training at flight schools, DA40NG, Cessna 172, DA42, and Tecnam P2006T simulators for lease or purchase. All simulators comply with EASA, FAA, and ICAO standards. Meet us at Booth A6-522 in Friedrichshafen and try with DA40NG simulator demo and G1000 procedure trainer</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t/>
+          <t>Parellaan 24 2132WS Hoofdorp Netherlands Phone : +3120 8948 936 sales@wright-brother.com www.wbft.aero</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -18690,12 +18690,12 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t/>
+          <t>Mockup des XAEROS Hybrid 200 für die General Aviation</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t/>
+          <t>Erlenweg 3 4893 Zell am Moos Austria www.xaeros.com</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -18722,7 +18722,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t/>
+          <t>Bleichbitz 9 56414 Meudt Germany xedam@web.de</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -18744,12 +18744,12 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t/>
+          <t>SolarXOne long range solar-electric drone</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t/>
+          <t>1 Route de la Croix Moriau 44350 Guerande France www.xsun.fr</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -18771,12 +18771,12 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t/>
+          <t>Yaw2 Motion Simulator hardware + InfuseVR hand and accessory visualization &amp; tracking VR software</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t/>
+          <t>Tavaszmezo utca 2. 2800 Tatabanya Hungary www.yawvr.com</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -18803,7 +18803,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugplatz 3369 Bleienbach-Airport Switzerland www.yetiflyers.ch</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t/>
+          <t>Münchener Str. 84 84453 Mühldorf Germany Phone : +49 8631 988867-0 Fax : +49 8631 988867-1 info@flyertruck.de www.flyer-truck.com</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -18852,12 +18852,12 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t/>
+          <t>ZALL JIHLAVAN airplanes, s.r.o. is based in Jihlava, Czech Republic, specializes in design, manufacturing and service of all–metal light aircrafts ( ultralight / microlight / LSA) under “SKYLEADER” brand for more then 25 years.</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t/>
+          <t>Hruskove Dvory 139 58601 JIHLAVA Czech Republic Phone : +420734750206 market@skyleader.aero www.skyleader.aero</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -18879,12 +18879,12 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t/>
+          <t>The company Zall SKYLEADER a.s. is based in Czech Republic, specializes on special design customisation and distributing of all–metal light aircraft (ultralight / microlight / LSA) .</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t/>
+          <t>Znojemská 826/64 58601 JIHLAVA Czech Republic Phone : +420 734 750 206 market@skyleader.aero www.skyleader.aero</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t/>
+          <t>Hasselheckerstr. 22c 61239 Ober-Mörlen Germany Phone : +49 176 10222362 Fax : +49 6002 992324 info@zeitfluegel.com www.zeitfluegel.com</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -18933,12 +18933,12 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t/>
+          <t>Zenadrone bietet mit seinem eigenen Produkt Zenadrone 1000 verschiedenen Branchen ein umfassendes Angebot an Drohnenservices, die durch konfigurierbare Zusatz- und Technikkomponenten perfekt auf die Geschäftsabläufe Ihres Unternehmens oder Ihrer BOS-Organisation abgestimmt werden können.</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t/>
+          <t>Thomas Street 10-13 D08 PX8H Dublin Ireland Phone : +3539833244 sales@zenadrone.com https://www.zenadrone.com</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -18960,12 +18960,12 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t/>
+          <t>Zenadrone bietet mit seinem eigenen Produkt Zenadrone 1000 verschiedenen Branchen ein umfassendes Angebot an Drohnenservices, die durch konfigurierbare Zusatz- und Technikkomponenten perfekt auf die Geschäftsabläufe Ihres Unternehmens oder Ihrer BOS-Organisation abgestimmt werden können.</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t/>
+          <t>Thomas Street 10-13 D08 PX8H Dublin Ireland Phone : +3539833244 sales@zenadrone.com www.zenadrone.com</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -18987,12 +18987,12 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t/>
+          <t>Flugsimulator SAR Luftlagebild Tornadocockpit</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t/>
+          <t>August-Horch-Str. 1 51149 Köln Germany</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t/>
+          <t>August-Horch-Str. 1 51149 Köln Germany</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -19041,12 +19041,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t/>
+          <t>ZeroAvia is producing the world’s first practical zero-emission aviation propulsion solutions, powering 9-19 seat aircraft by 2025 and 40-80 seats by 2027 to replace conventional engines on commercial routes, while preserving payload and passengers, lowering fuel and maintenance costs.</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t/>
+          <t>Hangar C2 Cotswold Airport GL7 6BA Cirencester United Kingdom social@zeroavia.com www.zeroavia.com</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t/>
+          <t>Technikumstrasse 71 8401 Winterthur Switzerland Phone : +41 58 934 73 33 info.zav@zhaw.ch www.zhaw.ch/engineering</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -19100,7 +19100,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t/>
+          <t>No. 1, Jinzhen Lane 2, Jiuzhou China www.airshow.com.cn</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -19127,7 +19127,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t/>
+          <t>2. Kvetna 685 763 61 Napajedla Czech Republic www.zlinaero.com</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -19149,12 +19149,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t/>
+          <t>CA510</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t/>
+          <t>Zongshen Industry Zone 4000055 Chongqing China Phone : +86 23-66376087 Fax : +86 18702389580 aero@zsengine.com http://en.zsaeroengine.com/</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -19176,12 +19176,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t/>
+          <t>Zuri is developing a vertical takeoff aircraft with a range of 700 km. On Aero 2023, we will show a subscale model and a VR simulator.</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t/>
+          <t>Budejovicka 1550/15a 14700 Prague Czech Republic michal@zuri.com https://zuri.com/</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t/>
+          <t>Zum Tower 6 01917 Kamenz Germany</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -19230,12 +19230,12 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t/>
+          <t>anti-collision systems for aviation "FOXTRAL"</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t/>
+          <t>Wielicka 28 30-552 Krakow Poland www.4aviation.co</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t/>
+          <t>Baarerstrasse 88 6300 Zug Switzerland Phone : +41787948822 o.knutti@the88k.com www.the88k.com</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -19284,12 +19284,12 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t/>
+          <t>8tree entwickelt, fertigt und vertreibt Produkte für die 3D-Oberflächeninspektion. Die 3D-Scanner zeichnen sich durch hohe Messgenauigkeit und dabei sehr einfache Bedienbarkeit aus. In Sekundenbruchteilen erfolgt die Messung und die Gut-/Schlecht-Ergebnisse werden direkt auf das Bauteil projiziert. 8tree’s Kunden sind OEMs wie Airbus, Boeing, Bombardier und Embraer, aber auch Fluggesellschaften und Wartungsbetriebe wie American Airlines, Delta Airlines und EasyJet, um nur einige wenige zu nennen. Die Produkte werden von führenden OEMs wie Airbus anerkannt und empfohlen und sind weltweit patentiert.</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t/>
+          <t>Oberlohnstr. 3 78467 Konstanz Germany https://www.8-tree.com/</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
